--- a/fcst_results/orig_series_IAH-Dom_results.xlsx
+++ b/fcst_results/orig_series_IAH-Dom_results.xlsx
@@ -479,10 +479,10 @@
         <v>44470</v>
       </c>
       <c r="B2" t="n">
-        <v>1312055.458506107</v>
+        <v>1290658.287760973</v>
       </c>
       <c r="C2" t="n">
-        <v>1290982.822359562</v>
+        <v>1310350.665505886</v>
       </c>
       <c r="D2" t="n">
         <v>1347792.900415261</v>
@@ -491,7 +491,7 @@
         <v>1057111.739627392</v>
       </c>
       <c r="F2" t="n">
-        <v>1208418.465496859</v>
+        <v>1211546.308557985</v>
       </c>
     </row>
     <row r="3">
@@ -499,10 +499,10 @@
         <v>44501</v>
       </c>
       <c r="B3" t="n">
-        <v>1334021.046508312</v>
+        <v>1294532.884037256</v>
       </c>
       <c r="C3" t="n">
-        <v>1306377.892237663</v>
+        <v>1317793.12377429</v>
       </c>
       <c r="D3" t="n">
         <v>1298344.021334112</v>
@@ -511,7 +511,7 @@
         <v>1019108.227142296</v>
       </c>
       <c r="F3" t="n">
-        <v>1202729.178977962</v>
+        <v>1199095.539001358</v>
       </c>
     </row>
     <row r="4">
@@ -519,10 +519,10 @@
         <v>44531</v>
       </c>
       <c r="B4" t="n">
-        <v>1353054.904373646</v>
+        <v>1315690.39281702</v>
       </c>
       <c r="C4" t="n">
-        <v>1347428.169930935</v>
+        <v>1342441.788036585</v>
       </c>
       <c r="D4" t="n">
         <v>1356420.000567853</v>
@@ -531,7 +531,7 @@
         <v>1075661.78528517</v>
       </c>
       <c r="F4" t="n">
-        <v>1244009.386001022</v>
+        <v>1235712.517828663</v>
       </c>
     </row>
     <row r="5">
@@ -539,10 +539,10 @@
         <v>44562</v>
       </c>
       <c r="B5" t="n">
-        <v>1335587.382423639</v>
+        <v>1350363.386727333</v>
       </c>
       <c r="C5" t="n">
-        <v>1307532.710574627</v>
+        <v>1312253.372311354</v>
       </c>
       <c r="D5" t="n">
         <v>1246429.385679257</v>
@@ -551,7 +551,7 @@
         <v>954410.4069234929</v>
       </c>
       <c r="F5" t="n">
-        <v>1176601.048771082</v>
+        <v>1188163.683969016</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         <v>44593</v>
       </c>
       <c r="B6" t="n">
-        <v>1331310.719251394</v>
+        <v>1332934.76855731</v>
       </c>
       <c r="C6" t="n">
-        <v>1315033.891529799</v>
+        <v>1336031.748004913</v>
       </c>
       <c r="D6" t="n">
         <v>1198825.148344165</v>
@@ -571,7 +571,7 @@
         <v>883969.0031716685</v>
       </c>
       <c r="F6" t="n">
-        <v>1148527.332432505</v>
+        <v>1162252.777169714</v>
       </c>
     </row>
     <row r="7">
@@ -579,10 +579,10 @@
         <v>44621</v>
       </c>
       <c r="B7" t="n">
-        <v>1326948.72467494</v>
+        <v>1316666.198713541</v>
       </c>
       <c r="C7" t="n">
-        <v>1274855.095209837</v>
+        <v>1306881.164014101</v>
       </c>
       <c r="D7" t="n">
         <v>1243938.058940163</v>
@@ -591,7 +591,7 @@
         <v>1069371.750742973</v>
       </c>
       <c r="F7" t="n">
-        <v>1209195.582897594</v>
+        <v>1219271.289998769</v>
       </c>
     </row>
     <row r="8">
@@ -599,10 +599,10 @@
         <v>44652</v>
       </c>
       <c r="B8" t="n">
-        <v>1326726.863023996</v>
+        <v>1333570.074624777</v>
       </c>
       <c r="C8" t="n">
-        <v>1318848.847577333</v>
+        <v>1333878.368730307</v>
       </c>
       <c r="D8" t="n">
         <v>1109656.530928148</v>
@@ -611,7 +611,7 @@
         <v>984689.8680264672</v>
       </c>
       <c r="F8" t="n">
-        <v>1184202.130366284</v>
+        <v>1196263.451049419</v>
       </c>
     </row>
     <row r="9">
@@ -619,10 +619,10 @@
         <v>44682</v>
       </c>
       <c r="B9" t="n">
-        <v>1321489.166381121</v>
+        <v>1303629.395234346</v>
       </c>
       <c r="C9" t="n">
-        <v>1314857.264698505</v>
+        <v>1352758.35480547</v>
       </c>
       <c r="D9" t="n">
         <v>1170828.907684048</v>
@@ -631,7 +631,7 @@
         <v>1069481.52140316</v>
       </c>
       <c r="F9" t="n">
-        <v>1216568.31250021</v>
+        <v>1226630.288359855</v>
       </c>
     </row>
     <row r="10">
@@ -639,10 +639,10 @@
         <v>44713</v>
       </c>
       <c r="B10" t="n">
-        <v>1356648.549295425</v>
+        <v>1304762.743088961</v>
       </c>
       <c r="C10" t="n">
-        <v>1269763.74651289</v>
+        <v>1322907.044003963</v>
       </c>
       <c r="D10" t="n">
         <v>1225790.349169269</v>
@@ -651,7 +651,7 @@
         <v>1115862.616357288</v>
       </c>
       <c r="F10" t="n">
-        <v>1233726.372808074</v>
+        <v>1237199.2751068</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +659,10 @@
         <v>44743</v>
       </c>
       <c r="B11" t="n">
-        <v>1327186.643310547</v>
+        <v>1326363.241137028</v>
       </c>
       <c r="C11" t="n">
-        <v>1258289.608781099</v>
+        <v>1315097.568943262</v>
       </c>
       <c r="D11" t="n">
         <v>1270634.899421986</v>
@@ -671,7 +671,7 @@
         <v>1175289.75699975</v>
       </c>
       <c r="F11" t="n">
-        <v>1246513.054178071</v>
+        <v>1264907.997327664</v>
       </c>
     </row>
     <row r="12">
@@ -679,10 +679,10 @@
         <v>44774</v>
       </c>
       <c r="B12" t="n">
-        <v>1318599.918437958</v>
+        <v>1341854.744677305</v>
       </c>
       <c r="C12" t="n">
-        <v>1279175.800397158</v>
+        <v>1322792.167747974</v>
       </c>
       <c r="D12" t="n">
         <v>1209312.264306093</v>
@@ -691,7 +691,7 @@
         <v>1075114.972014124</v>
       </c>
       <c r="F12" t="n">
-        <v>1209023.13178448</v>
+        <v>1232439.003660823</v>
       </c>
     </row>
     <row r="13">
@@ -699,10 +699,10 @@
         <v>44805</v>
       </c>
       <c r="B13" t="n">
-        <v>1310012.18426919</v>
+        <v>1329026.498490334</v>
       </c>
       <c r="C13" t="n">
-        <v>1272927.247754097</v>
+        <v>1346901.225571394</v>
       </c>
       <c r="D13" t="n">
         <v>1108396.293617264</v>
@@ -711,7 +711,7 @@
         <v>871638.2891642457</v>
       </c>
       <c r="F13" t="n">
-        <v>1122292.664657728</v>
+        <v>1156682.150694942</v>
       </c>
     </row>
     <row r="14">
@@ -719,10 +719,10 @@
         <v>44835</v>
       </c>
       <c r="B14" t="n">
-        <v>1314699.906248808</v>
+        <v>1344147.223316193</v>
       </c>
       <c r="C14" t="n">
-        <v>1302675.426836967</v>
+        <v>1285188.452996969</v>
       </c>
       <c r="D14" t="n">
         <v>1237766.473044301</v>
@@ -731,7 +731,7 @@
         <v>1014560.360414656</v>
       </c>
       <c r="F14" t="n">
-        <v>1192167.601259932</v>
+        <v>1200354.908369697</v>
       </c>
     </row>
     <row r="15">
@@ -739,10 +739,10 @@
         <v>44866</v>
       </c>
       <c r="B15" t="n">
-        <v>1327917.557252407</v>
+        <v>1341310.091757536</v>
       </c>
       <c r="C15" t="n">
-        <v>1292677.981168985</v>
+        <v>1327021.210491419</v>
       </c>
       <c r="D15" t="n">
         <v>1200636.272540732</v>
@@ -751,7 +751,7 @@
         <v>976368.9218259578</v>
       </c>
       <c r="F15" t="n">
-        <v>1177011.084171007</v>
+        <v>1196497.9329242</v>
       </c>
     </row>
     <row r="16">
@@ -759,10 +759,10 @@
         <v>44896</v>
       </c>
       <c r="B16" t="n">
-        <v>1326801.275678635</v>
+        <v>1351003.647521496</v>
       </c>
       <c r="C16" t="n">
-        <v>1338536.087087154</v>
+        <v>1328933.184470892</v>
       </c>
       <c r="D16" t="n">
         <v>1249796.444702622</v>
@@ -771,7 +771,7 @@
         <v>1036449.257176335</v>
       </c>
       <c r="F16" t="n">
-        <v>1214885.259328161</v>
+        <v>1223960.076342781</v>
       </c>
     </row>
     <row r="17">
@@ -779,10 +779,10 @@
         <v>44927</v>
       </c>
       <c r="B17" t="n">
-        <v>1326582.992441416</v>
+        <v>1338300.278798103</v>
       </c>
       <c r="C17" t="n">
-        <v>1300735.100810289</v>
+        <v>1337852.793574095</v>
       </c>
       <c r="D17" t="n">
         <v>1153196.502364391</v>
@@ -791,7 +791,7 @@
         <v>911042.9781594393</v>
       </c>
       <c r="F17" t="n">
-        <v>1151938.851571055</v>
+        <v>1172916.255950015</v>
       </c>
     </row>
     <row r="18">
@@ -799,10 +799,10 @@
         <v>44958</v>
       </c>
       <c r="B18" t="n">
-        <v>1341759.136802912</v>
+        <v>1355391.975552797</v>
       </c>
       <c r="C18" t="n">
-        <v>1247047.333907843</v>
+        <v>1292312.340689659</v>
       </c>
       <c r="D18" t="n">
         <v>1104523.021297441</v>
@@ -811,7 +811,7 @@
         <v>840986.0842959856</v>
       </c>
       <c r="F18" t="n">
-        <v>1112039.923507411</v>
+        <v>1136711.22604169</v>
       </c>
     </row>
     <row r="19">
@@ -819,10 +819,10 @@
         <v>44986</v>
       </c>
       <c r="B19" t="n">
-        <v>1310149.907320499</v>
+        <v>1320094.135553598</v>
       </c>
       <c r="C19" t="n">
-        <v>1285953.224237919</v>
+        <v>1310975.970365763</v>
       </c>
       <c r="D19" t="n">
         <v>1181481.792384498</v>
@@ -831,7 +831,7 @@
         <v>1016654.928907793</v>
       </c>
       <c r="F19" t="n">
-        <v>1184874.237424061</v>
+        <v>1199776.619303842</v>
       </c>
     </row>
     <row r="20">
@@ -839,10 +839,10 @@
         <v>45017</v>
       </c>
       <c r="B20" t="n">
-        <v>1345153.491606474</v>
+        <v>1319161.362375975</v>
       </c>
       <c r="C20" t="n">
-        <v>1304262.866217852</v>
+        <v>1320934.787516356</v>
       </c>
       <c r="D20" t="n">
         <v>1071596.372078709</v>
@@ -851,7 +851,7 @@
         <v>944263.2911370449</v>
       </c>
       <c r="F20" t="n">
-        <v>1168338.041560259</v>
+        <v>1171809.09485587</v>
       </c>
     </row>
     <row r="21">
@@ -859,10 +859,10 @@
         <v>45047</v>
       </c>
       <c r="B21" t="n">
-        <v>1320525.380284548</v>
+        <v>1314149.839831352</v>
       </c>
       <c r="C21" t="n">
-        <v>1272298.364480495</v>
+        <v>1294861.731083155</v>
       </c>
       <c r="D21" t="n">
         <v>1137950.738434617</v>
@@ -871,7 +871,7 @@
         <v>1032167.643175513</v>
       </c>
       <c r="F21" t="n">
-        <v>1188439.528179987</v>
+        <v>1197518.182730426</v>
       </c>
     </row>
     <row r="22">
@@ -879,10 +879,10 @@
         <v>45078</v>
       </c>
       <c r="B22" t="n">
-        <v>1332198.991642952</v>
+        <v>1322712.892120838</v>
       </c>
       <c r="C22" t="n">
-        <v>1252846.841505527</v>
+        <v>1322975.309127331</v>
       </c>
       <c r="D22" t="n">
         <v>1202866.003668486</v>
@@ -891,7 +891,7 @@
         <v>1072603.363461965</v>
       </c>
       <c r="F22" t="n">
-        <v>1204201.380177498</v>
+        <v>1225667.138078246</v>
       </c>
     </row>
     <row r="23">
@@ -899,10 +899,10 @@
         <v>45108</v>
       </c>
       <c r="B23" t="n">
-        <v>1325814.367524147</v>
+        <v>1336450.881181717</v>
       </c>
       <c r="C23" t="n">
-        <v>1265051.617916584</v>
+        <v>1292211.135809183</v>
       </c>
       <c r="D23" t="n">
         <v>1270281.903504328</v>
@@ -911,7 +911,7 @@
         <v>1130994.680279411</v>
       </c>
       <c r="F23" t="n">
-        <v>1230871.423261762</v>
+        <v>1244590.967439909</v>
       </c>
     </row>
     <row r="24">
@@ -919,10 +919,10 @@
         <v>45139</v>
       </c>
       <c r="B24" t="n">
-        <v>1340786.450549126</v>
+        <v>1334938.129718065</v>
       </c>
       <c r="C24" t="n">
-        <v>1263818.074477673</v>
+        <v>1287922.085820198</v>
       </c>
       <c r="D24" t="n">
         <v>1199318.994302101</v>
@@ -931,7 +931,7 @@
         <v>1027807.104642885</v>
       </c>
       <c r="F24" t="n">
-        <v>1192348.414967364</v>
+        <v>1202067.670027412</v>
       </c>
     </row>
     <row r="25">
@@ -939,10 +939,10 @@
         <v>45170</v>
       </c>
       <c r="B25" t="n">
-        <v>1308936.549805164</v>
+        <v>1327103.055236101</v>
       </c>
       <c r="C25" t="n">
-        <v>1284929.430895805</v>
+        <v>1258041.046658516</v>
       </c>
       <c r="D25" t="n">
         <v>1106443.890426653</v>
@@ -951,7 +951,7 @@
         <v>827740.0790805862</v>
       </c>
       <c r="F25" t="n">
-        <v>1108339.573889842</v>
+        <v>1113261.291341181</v>
       </c>
     </row>
     <row r="26">
@@ -959,10 +959,10 @@
         <v>45200</v>
       </c>
       <c r="B26" t="n">
-        <v>1319721.246492624</v>
+        <v>1305699.645205498</v>
       </c>
       <c r="C26" t="n">
-        <v>1303137.225715876</v>
+        <v>1314237.006319523</v>
       </c>
       <c r="D26" t="n">
         <v>1228493.051414931</v>
@@ -971,7 +971,7 @@
         <v>972047.6119460586</v>
       </c>
       <c r="F26" t="n">
-        <v>1176946.091446302</v>
+        <v>1181471.96674383</v>
       </c>
     </row>
     <row r="27">
@@ -979,10 +979,10 @@
         <v>45231</v>
       </c>
       <c r="B27" t="n">
-        <v>1303051.343786478</v>
+        <v>1293579.190902472</v>
       </c>
       <c r="C27" t="n">
-        <v>1317177.544859409</v>
+        <v>1301731.276138783</v>
       </c>
       <c r="D27" t="n">
         <v>1194460.678753387</v>
@@ -991,7 +991,7 @@
         <v>933696.1773781833</v>
       </c>
       <c r="F27" t="n">
-        <v>1160078.59712209</v>
+        <v>1158734.631655649</v>
       </c>
     </row>
     <row r="28">
@@ -999,10 +999,10 @@
         <v>45261</v>
       </c>
       <c r="B28" t="n">
-        <v>1321014.338406086</v>
+        <v>1325882.35738492</v>
       </c>
       <c r="C28" t="n">
-        <v>1294106.961049795</v>
+        <v>1290673.610712051</v>
       </c>
       <c r="D28" t="n">
         <v>1240468.799917643</v>
@@ -1011,7 +1011,7 @@
         <v>997163.0093521329</v>
       </c>
       <c r="F28" t="n">
-        <v>1184886.800068675</v>
+        <v>1190191.416099313</v>
       </c>
     </row>
     <row r="29">
@@ -1019,10 +1019,10 @@
         <v>45292</v>
       </c>
       <c r="B29" t="n">
-        <v>1324035.437131882</v>
+        <v>1314351.056787729</v>
       </c>
       <c r="C29" t="n">
-        <v>1292119.473365307</v>
+        <v>1344578.376292944</v>
       </c>
       <c r="D29" t="n">
         <v>1149914.524549843</v>
@@ -1031,7 +1031,7 @@
         <v>867584.5562597736</v>
       </c>
       <c r="F29" t="n">
-        <v>1131761.010193379</v>
+        <v>1151536.953640533</v>
       </c>
     </row>
     <row r="30">
@@ -1039,10 +1039,10 @@
         <v>45323</v>
       </c>
       <c r="B30" t="n">
-        <v>1332167.244690418</v>
+        <v>1284840.704586267</v>
       </c>
       <c r="C30" t="n">
-        <v>1240245.044679403</v>
+        <v>1290779.770319223</v>
       </c>
       <c r="D30" t="n">
         <v>1103160.166103928</v>
@@ -1051,7 +1051,7 @@
         <v>797923.118819838</v>
       </c>
       <c r="F30" t="n">
-        <v>1090562.234791195</v>
+        <v>1099272.951703289</v>
       </c>
     </row>
     <row r="31">
@@ -1059,10 +1059,10 @@
         <v>45352</v>
       </c>
       <c r="B31" t="n">
-        <v>1325619.573361635</v>
+        <v>1297315.697110653</v>
       </c>
       <c r="C31" t="n">
-        <v>1280006.818169117</v>
+        <v>1315188.589107752</v>
       </c>
       <c r="D31" t="n">
         <v>1177151.177785314</v>
@@ -1071,7 +1071,7 @@
         <v>1001335.013865733</v>
       </c>
       <c r="F31" t="n">
-        <v>1181557.522376361</v>
+        <v>1188431.64661635</v>
       </c>
     </row>
     <row r="32">
@@ -1079,10 +1079,10 @@
         <v>45383</v>
       </c>
       <c r="B32" t="n">
-        <v>1329799.160592318</v>
+        <v>1287387.801124811</v>
       </c>
       <c r="C32" t="n">
-        <v>1271060.416840076</v>
+        <v>1308693.951705456</v>
       </c>
       <c r="D32" t="n">
         <v>1072371.741406494</v>
@@ -1091,7 +1091,7 @@
         <v>892741.818635744</v>
       </c>
       <c r="F32" t="n">
-        <v>1134403.576005045</v>
+        <v>1139602.093477151</v>
       </c>
     </row>
     <row r="33">
@@ -1099,10 +1099,10 @@
         <v>45413</v>
       </c>
       <c r="B33" t="n">
-        <v>1316015.84495759</v>
+        <v>1283868.660611868</v>
       </c>
       <c r="C33" t="n">
-        <v>1264328.227818966</v>
+        <v>1294944.585124016</v>
       </c>
       <c r="D33" t="n">
         <v>1136214.618807078</v>
@@ -1111,7 +1111,7 @@
         <v>970482.3984224815</v>
       </c>
       <c r="F33" t="n">
-        <v>1160866.21773962</v>
+        <v>1165554.65472712</v>
       </c>
     </row>
     <row r="34">
@@ -1119,10 +1119,10 @@
         <v>45444</v>
       </c>
       <c r="B34" t="n">
-        <v>1324994.819026947</v>
+        <v>1302025.715360403</v>
       </c>
       <c r="C34" t="n">
-        <v>1259669.591920137</v>
+        <v>1309184.469648361</v>
       </c>
       <c r="D34" t="n">
         <v>1197295.508752041</v>
@@ -1131,7 +1131,7 @@
         <v>1028405.166160821</v>
       </c>
       <c r="F34" t="n">
-        <v>1186740.621318059</v>
+        <v>1198795.24170575</v>
       </c>
     </row>
     <row r="35">
@@ -1139,10 +1139,10 @@
         <v>45474</v>
       </c>
       <c r="B35" t="n">
-        <v>1303625.266295433</v>
+        <v>1283250.329071045</v>
       </c>
       <c r="C35" t="n">
-        <v>1219147.267882586</v>
+        <v>1278669.500732183</v>
       </c>
       <c r="D35" t="n">
         <v>1262064.967049131</v>
@@ -1151,7 +1151,7 @@
         <v>1089871.107064312</v>
       </c>
       <c r="F35" t="n">
-        <v>1195022.274238249</v>
+        <v>1209210.776452752</v>
       </c>
     </row>
     <row r="36">
@@ -1159,10 +1159,10 @@
         <v>45505</v>
       </c>
       <c r="B36" t="n">
-        <v>1288711.630694628</v>
+        <v>1265578.745784521</v>
       </c>
       <c r="C36" t="n">
-        <v>1278795.112229347</v>
+        <v>1296591.389471054</v>
       </c>
       <c r="D36" t="n">
         <v>1194284.782417555</v>
@@ -1171,7 +1171,7 @@
         <v>996075.9628164764</v>
       </c>
       <c r="F36" t="n">
-        <v>1169077.517085374</v>
+        <v>1172111.841668228</v>
       </c>
     </row>
     <row r="37">
@@ -1179,10 +1179,10 @@
         <v>45536</v>
       </c>
       <c r="B37" t="n">
-        <v>1276958.284938097</v>
+        <v>1280505.226973057</v>
       </c>
       <c r="C37" t="n">
-        <v>1294879.714905977</v>
+        <v>1289825.893676043</v>
       </c>
       <c r="D37" t="n">
         <v>1106924.579893974</v>
@@ -1191,7 +1191,7 @@
         <v>786317.0369747566</v>
       </c>
       <c r="F37" t="n">
-        <v>1085886.150352833</v>
+        <v>1093512.522665068</v>
       </c>
     </row>
     <row r="38">
@@ -1199,10 +1199,10 @@
         <v>45566</v>
       </c>
       <c r="B38" t="n">
-        <v>1283510.635730982</v>
+        <v>1297311.751680136</v>
       </c>
       <c r="C38" t="n">
-        <v>1282790.548784494</v>
+        <v>1250447.65273428</v>
       </c>
       <c r="D38" t="n">
         <v>1222275.364939007</v>
@@ -1211,7 +1211,7 @@
         <v>926119.7779288591</v>
       </c>
       <c r="F38" t="n">
-        <v>1142581.558989657</v>
+        <v>1142697.888467156</v>
       </c>
     </row>
     <row r="39">
@@ -1219,10 +1219,10 @@
         <v>45597</v>
       </c>
       <c r="B39" t="n">
-        <v>1319587.835888624</v>
+        <v>1268152.909811497</v>
       </c>
       <c r="C39" t="n">
-        <v>1268167.773991585</v>
+        <v>1300401.482546091</v>
       </c>
       <c r="D39" t="n">
         <v>1190668.589798859</v>
@@ -1231,7 +1231,7 @@
         <v>888332.8863462904</v>
       </c>
       <c r="F39" t="n">
-        <v>1133073.392816146</v>
+        <v>1133793.730275512</v>
       </c>
     </row>
   </sheetData>
@@ -1452,19 +1452,19 @@
         <v>74</v>
       </c>
       <c r="K2" t="n">
-        <v>368225.9967378836</v>
+        <v>367518.7754264147</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5941236447888829</v>
+        <v>0.5931639702427994</v>
       </c>
       <c r="M2" t="n">
-        <v>217623.9414715034</v>
+        <v>217841.6404862554</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.1569481176496383</v>
+        <v>-0.1525082756502592</v>
       </c>
       <c r="O2" t="n">
-        <v>1258963.228447851</v>
+        <v>1266899.805340369</v>
       </c>
       <c r="P2" t="n">
         <v>1208889</v>
@@ -1473,19 +1473,19 @@
         <v>0.95</v>
       </c>
       <c r="R2" t="n">
-        <v>507811.5428820242</v>
+        <v>286748.0033899179</v>
       </c>
       <c r="S2" t="n">
-        <v>206523.8809913653</v>
+        <v>207456.4333823263</v>
       </c>
       <c r="T2" t="n">
-        <v>0.2217146048199907</v>
+        <v>0.2231711537628974</v>
       </c>
       <c r="U2" t="n">
-        <v>118787.0211304569</v>
+        <v>120104.472129366</v>
       </c>
       <c r="V2" t="n">
-        <v>0.254862818374896</v>
+        <v>0.2481183362292271</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
@@ -1493,25 +1493,25 @@
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>['prophet', 'lstm_reg', 'lstm', 'arima']</t>
+          <t>['prophet', 'lstm', 'lstm_reg', 'arima']</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>(0.3877097934834667, 0.2898263264203351, 0.28721753523406485, 0.03524634486213333)</t>
+          <t>(0.3721153800160033, 0.2976529992471939, 0.29640294982625703, 0.033828670910545755)</t>
         </is>
       </c>
       <c r="AC2" t="n">
-        <v>368225.9967378836</v>
+        <v>367518.7754264147</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.5941236447888829</v>
+        <v>0.5931639702427994</v>
       </c>
       <c r="AE2" t="n">
-        <v>217623.9414715034</v>
+        <v>217841.6404862554</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.1569481176496383</v>
+        <v>-0.1525082756502592</v>
       </c>
       <c r="AG2" t="b">
         <v>1</v>
@@ -1572,7 +1572,7 @@
         <v>0.95</v>
       </c>
       <c r="R3" t="n">
-        <v>387526.0998451485</v>
+        <v>452490.5052793503</v>
       </c>
       <c r="S3" t="n">
         <v>182502.3521054634</v>
@@ -1613,7 +1613,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>lstm_reg</t>
+          <t>lstm</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1624,7 +1624,7 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'lags': 36, 'epochs': 50, 'validation_split': 0.2, 'shuffle': True, 'hidden_layers_struct': {'lstm': {'units': 72, 'dropout': 0.2}}, 'verbose': 0, 'random_seed': 1}</t>
+          <t>{'lags': 36, 'epochs': 50, 'validation_split': 0.2, 'shuffle': True, 'hidden_layers_struct': {'lstm': {'units': 72, 'dropout': 0}}, 'verbose': 0, 'random_seed': 1}</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1648,19 +1648,19 @@
         <v>74</v>
       </c>
       <c r="K4" t="n">
-        <v>372346.8440501046</v>
+        <v>371238.7164114352</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6054036294853425</v>
+        <v>0.6031487115468043</v>
       </c>
       <c r="M4" t="n">
-        <v>240484.9732625807</v>
+        <v>239747.160870784</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.1829880166315891</v>
+        <v>-0.1759572007385088</v>
       </c>
       <c r="O4" t="n">
-        <v>1322464.626144409</v>
+        <v>1328672.015621185</v>
       </c>
       <c r="P4" t="n">
         <v>1208889</v>
@@ -1669,19 +1669,19 @@
         <v>0.95</v>
       </c>
       <c r="R4" t="n">
-        <v>456109.8734472682</v>
+        <v>454606.4966175871</v>
       </c>
       <c r="S4" t="n">
-        <v>243887.6175967669</v>
+        <v>239406.0305777734</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2612948568725621</v>
+        <v>0.2570623135716903</v>
       </c>
       <c r="U4" t="n">
-        <v>145563.5793653018</v>
+        <v>141890.9648280369</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.03914267858396148</v>
+        <v>-0.001303770082354161</v>
       </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
@@ -1692,16 +1692,16 @@
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="n">
-        <v>372346.8440501046</v>
+        <v>371238.7164114352</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.6054036294853425</v>
+        <v>0.6031487115468043</v>
       </c>
       <c r="AE4" t="n">
-        <v>240484.9732625807</v>
+        <v>239747.160870784</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.1829880166315891</v>
+        <v>-0.1759572007385088</v>
       </c>
       <c r="AG4" t="b">
         <v>0</v>
@@ -1710,7 +1710,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>lstm_reg</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1721,7 +1721,7 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'lags': 36, 'epochs': 50, 'validation_split': 0.2, 'shuffle': True, 'hidden_layers_struct': {'lstm': {'units': 72, 'dropout': 0}}, 'verbose': 0, 'random_seed': 1}</t>
+          <t>{'lags': 36, 'epochs': 50, 'validation_split': 0.2, 'shuffle': True, 'hidden_layers_struct': {'lstm': {'units': 72, 'dropout': 0.2}}, 'verbose': 0, 'random_seed': 1}</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1745,19 +1745,19 @@
         <v>74</v>
       </c>
       <c r="K5" t="n">
-        <v>373438.6810262525</v>
+        <v>371871.1030461728</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6056934052883802</v>
+        <v>0.6032933817640902</v>
       </c>
       <c r="M5" t="n">
-        <v>241603.5461384541</v>
+        <v>240078.7161212096</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.1899359675031</v>
+        <v>-0.179966981924564</v>
       </c>
       <c r="O5" t="n">
-        <v>1315746.260910034</v>
+        <v>1328141.913982391</v>
       </c>
       <c r="P5" t="n">
         <v>1208889</v>
@@ -1766,19 +1766,19 @@
         <v>0.95</v>
       </c>
       <c r="R5" t="n">
-        <v>576715.2117697989</v>
+        <v>420156.9803979879</v>
       </c>
       <c r="S5" t="n">
-        <v>237895.4059969409</v>
+        <v>241624.6844911569</v>
       </c>
       <c r="T5" t="n">
-        <v>0.2540559766803423</v>
+        <v>0.2587740659909527</v>
       </c>
       <c r="U5" t="n">
-        <v>141191.4236473025</v>
+        <v>146553.044892825</v>
       </c>
       <c r="V5" t="n">
-        <v>0.01129258713359538</v>
+        <v>-0.01994858384402076</v>
       </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
@@ -1789,16 +1789,16 @@
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="n">
-        <v>373438.6810262525</v>
+        <v>371871.1030461728</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.6056934052883802</v>
+        <v>0.6032933817640902</v>
       </c>
       <c r="AE5" t="n">
-        <v>241603.5461384541</v>
+        <v>240078.7161212096</v>
       </c>
       <c r="AF5" t="n">
-        <v>-0.1899359675031</v>
+        <v>-0.179966981924564</v>
       </c>
       <c r="AG5" t="b">
         <v>0</v>
@@ -1859,7 +1859,7 @@
         <v>0.95</v>
       </c>
       <c r="R6" t="n">
-        <v>243467.2046482276</v>
+        <v>279183.5201572702</v>
       </c>
       <c r="S6" t="n">
         <v>128770.1567042093</v>
@@ -5175,7 +5175,7 @@
         <v>44470</v>
       </c>
       <c r="B251" t="n">
-        <v>1208418.465496859</v>
+        <v>1211546.308557985</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
@@ -5188,7 +5188,7 @@
         <v>44501</v>
       </c>
       <c r="B252" t="n">
-        <v>1202729.178977962</v>
+        <v>1199095.539001358</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>44531</v>
       </c>
       <c r="B253" t="n">
-        <v>1244009.386001022</v>
+        <v>1235712.517828663</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
@@ -5214,7 +5214,7 @@
         <v>44562</v>
       </c>
       <c r="B254" t="n">
-        <v>1176601.048771082</v>
+        <v>1188163.683969016</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>44593</v>
       </c>
       <c r="B255" t="n">
-        <v>1148527.332432505</v>
+        <v>1162252.777169714</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
@@ -5240,7 +5240,7 @@
         <v>44621</v>
       </c>
       <c r="B256" t="n">
-        <v>1209195.582897594</v>
+        <v>1219271.289998769</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>44652</v>
       </c>
       <c r="B257" t="n">
-        <v>1184202.130366284</v>
+        <v>1196263.451049419</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>44682</v>
       </c>
       <c r="B258" t="n">
-        <v>1216568.31250021</v>
+        <v>1226630.288359855</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>44713</v>
       </c>
       <c r="B259" t="n">
-        <v>1233726.372808074</v>
+        <v>1237199.2751068</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         <v>44743</v>
       </c>
       <c r="B260" t="n">
-        <v>1246513.054178071</v>
+        <v>1264907.997327664</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>44774</v>
       </c>
       <c r="B261" t="n">
-        <v>1209023.13178448</v>
+        <v>1232439.003660823</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>44805</v>
       </c>
       <c r="B262" t="n">
-        <v>1122292.664657728</v>
+        <v>1156682.150694942</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>44835</v>
       </c>
       <c r="B263" t="n">
-        <v>1192167.601259932</v>
+        <v>1200354.908369697</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
@@ -5344,7 +5344,7 @@
         <v>44866</v>
       </c>
       <c r="B264" t="n">
-        <v>1177011.084171007</v>
+        <v>1196497.9329242</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>44896</v>
       </c>
       <c r="B265" t="n">
-        <v>1214885.259328161</v>
+        <v>1223960.076342781</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>44927</v>
       </c>
       <c r="B266" t="n">
-        <v>1151938.851571055</v>
+        <v>1172916.255950015</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
@@ -5383,7 +5383,7 @@
         <v>44958</v>
       </c>
       <c r="B267" t="n">
-        <v>1112039.923507411</v>
+        <v>1136711.22604169</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>44986</v>
       </c>
       <c r="B268" t="n">
-        <v>1184874.237424061</v>
+        <v>1199776.619303842</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>45017</v>
       </c>
       <c r="B269" t="n">
-        <v>1168338.041560259</v>
+        <v>1171809.09485587</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>45047</v>
       </c>
       <c r="B270" t="n">
-        <v>1188439.528179987</v>
+        <v>1197518.182730426</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         <v>45078</v>
       </c>
       <c r="B271" t="n">
-        <v>1204201.380177498</v>
+        <v>1225667.138078246</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>45108</v>
       </c>
       <c r="B272" t="n">
-        <v>1230871.423261762</v>
+        <v>1244590.967439909</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>45139</v>
       </c>
       <c r="B273" t="n">
-        <v>1192348.414967364</v>
+        <v>1202067.670027412</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>45170</v>
       </c>
       <c r="B274" t="n">
-        <v>1108339.573889842</v>
+        <v>1113261.291341181</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>45200</v>
       </c>
       <c r="B275" t="n">
-        <v>1176946.091446302</v>
+        <v>1181471.96674383</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>45231</v>
       </c>
       <c r="B276" t="n">
-        <v>1160078.59712209</v>
+        <v>1158734.631655649</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>45261</v>
       </c>
       <c r="B277" t="n">
-        <v>1184886.800068675</v>
+        <v>1190191.416099313</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
@@ -5526,7 +5526,7 @@
         <v>45292</v>
       </c>
       <c r="B278" t="n">
-        <v>1131761.010193379</v>
+        <v>1151536.953640533</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>45323</v>
       </c>
       <c r="B279" t="n">
-        <v>1090562.234791195</v>
+        <v>1099272.951703289</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
@@ -5552,7 +5552,7 @@
         <v>45352</v>
       </c>
       <c r="B280" t="n">
-        <v>1181557.522376361</v>
+        <v>1188431.64661635</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>45383</v>
       </c>
       <c r="B281" t="n">
-        <v>1134403.576005045</v>
+        <v>1139602.093477151</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
         <v>45413</v>
       </c>
       <c r="B282" t="n">
-        <v>1160866.21773962</v>
+        <v>1165554.65472712</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>45444</v>
       </c>
       <c r="B283" t="n">
-        <v>1186740.621318059</v>
+        <v>1198795.24170575</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>45474</v>
       </c>
       <c r="B284" t="n">
-        <v>1195022.274238249</v>
+        <v>1209210.776452752</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
         <v>45505</v>
       </c>
       <c r="B285" t="n">
-        <v>1169077.517085374</v>
+        <v>1172111.841668228</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
@@ -5630,7 +5630,7 @@
         <v>45536</v>
       </c>
       <c r="B286" t="n">
-        <v>1085886.150352833</v>
+        <v>1093512.522665068</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>45566</v>
       </c>
       <c r="B287" t="n">
-        <v>1142581.558989657</v>
+        <v>1142697.888467156</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>45597</v>
       </c>
       <c r="B288" t="n">
-        <v>1133073.392816146</v>
+        <v>1133793.730275512</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
@@ -5706,12 +5706,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>lstm</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>lstm_reg</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>lstm</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -5728,16 +5728,16 @@
         <v>1371694</v>
       </c>
       <c r="C2" t="n">
-        <v>1415579.599641169</v>
+        <v>1421113.656258581</v>
       </c>
       <c r="D2" t="n">
         <v>1371378.736704977</v>
       </c>
       <c r="E2" t="n">
-        <v>1441298.955364227</v>
+        <v>1451857.458602905</v>
       </c>
       <c r="F2" t="n">
-        <v>1445119.095928192</v>
+        <v>1449429.391670227</v>
       </c>
       <c r="G2" t="n">
         <v>1449588.792445258</v>
@@ -5751,16 +5751,16 @@
         <v>1248898</v>
       </c>
       <c r="C3" t="n">
-        <v>1334368.725097724</v>
+        <v>1340524.751292505</v>
       </c>
       <c r="D3" t="n">
         <v>1173778.668947036</v>
       </c>
       <c r="E3" t="n">
-        <v>1443420.669258118</v>
+        <v>1450937.382667542</v>
       </c>
       <c r="F3" t="n">
-        <v>1444335.85477829</v>
+        <v>1442694.176292419</v>
       </c>
       <c r="G3" t="n">
         <v>1308031.957226664</v>
@@ -5774,16 +5774,16 @@
         <v>1402365</v>
       </c>
       <c r="C4" t="n">
-        <v>1388708.518745373</v>
+        <v>1389726.304871078</v>
       </c>
       <c r="D4" t="n">
         <v>1289927.832683204</v>
       </c>
       <c r="E4" t="n">
-        <v>1459141.901500702</v>
+        <v>1452463.531147003</v>
       </c>
       <c r="F4" t="n">
-        <v>1449925.454082489</v>
+        <v>1451152.803035736</v>
       </c>
       <c r="G4" t="n">
         <v>1397282.841304404</v>
@@ -5797,16 +5797,16 @@
         <v>1358981</v>
       </c>
       <c r="C5" t="n">
-        <v>1368359.667376376</v>
+        <v>1375036.785079895</v>
       </c>
       <c r="D5" t="n">
         <v>1257436.447689881</v>
       </c>
       <c r="E5" t="n">
-        <v>1435713.326496124</v>
+        <v>1446207.62487793</v>
       </c>
       <c r="F5" t="n">
-        <v>1451949.408092499</v>
+        <v>1453662.167068481</v>
       </c>
       <c r="G5" t="n">
         <v>1353513.18335489</v>
@@ -5820,16 +5820,16 @@
         <v>1397123</v>
       </c>
       <c r="C6" t="n">
-        <v>1401350.457843616</v>
+        <v>1400255.91492595</v>
       </c>
       <c r="D6" t="n">
         <v>1327838.031348249</v>
       </c>
       <c r="E6" t="n">
-        <v>1448511.397792816</v>
+        <v>1444845.813716888</v>
       </c>
       <c r="F6" t="n">
-        <v>1453658.002952576</v>
+        <v>1446886.472610474</v>
       </c>
       <c r="G6" t="n">
         <v>1395941.713699924</v>
@@ -5843,16 +5843,16 @@
         <v>1258130</v>
       </c>
       <c r="C7" t="n">
-        <v>1343826.516307293</v>
+        <v>1346142.748769686</v>
       </c>
       <c r="D7" t="n">
         <v>1196470.766436542</v>
       </c>
       <c r="E7" t="n">
-        <v>1441295.227027893</v>
+        <v>1441456.755989075</v>
       </c>
       <c r="F7" t="n">
-        <v>1448899.725811005</v>
+        <v>1442793.437194824</v>
       </c>
       <c r="G7" t="n">
         <v>1307039.743779592</v>
@@ -5866,16 +5866,16 @@
         <v>1174589</v>
       </c>
       <c r="C8" t="n">
-        <v>1327419.748122573</v>
+        <v>1329234.123242222</v>
       </c>
       <c r="D8" t="n">
         <v>1161817.713258329</v>
       </c>
       <c r="E8" t="n">
-        <v>1439302.794406891</v>
+        <v>1445234.625934601</v>
       </c>
       <c r="F8" t="n">
-        <v>1447475.549751282</v>
+        <v>1431885.680839539</v>
       </c>
       <c r="G8" t="n">
         <v>1250723.767289276</v>
@@ -5889,16 +5889,16 @@
         <v>1304802</v>
       </c>
       <c r="C9" t="n">
-        <v>1415620.844742581</v>
+        <v>1416915.001438381</v>
       </c>
       <c r="D9" t="n">
         <v>1373399.661639773</v>
       </c>
       <c r="E9" t="n">
-        <v>1438054.818553925</v>
+        <v>1445056.101570129</v>
       </c>
       <c r="F9" t="n">
-        <v>1451418.676994324</v>
+        <v>1444774.781646729</v>
       </c>
       <c r="G9" t="n">
         <v>1403870.543171661</v>
@@ -5912,16 +5912,16 @@
         <v>1229416</v>
       </c>
       <c r="C10" t="n">
-        <v>1396928.999726201</v>
+        <v>1394351.566256298</v>
       </c>
       <c r="D10" t="n">
         <v>1316747.181733518</v>
       </c>
       <c r="E10" t="n">
-        <v>1448607.269298553</v>
+        <v>1442453.432289124</v>
       </c>
       <c r="F10" t="n">
-        <v>1458105.811359406</v>
+        <v>1447912.588241577</v>
       </c>
       <c r="G10" t="n">
         <v>1355463.707727072</v>
@@ -5935,16 +5935,16 @@
         <v>1341370</v>
       </c>
       <c r="C11" t="n">
-        <v>1419315.661331712</v>
+        <v>1414108.171920324</v>
       </c>
       <c r="D11" t="n">
         <v>1368727.458233541</v>
       </c>
       <c r="E11" t="n">
-        <v>1450456.766220093</v>
+        <v>1441031.483547211</v>
       </c>
       <c r="F11" t="n">
-        <v>1456128.001564026</v>
+        <v>1443401.446537018</v>
       </c>
       <c r="G11" t="n">
         <v>1419737.83610634</v>
@@ -5958,16 +5958,16 @@
         <v>1389216</v>
       </c>
       <c r="C12" t="n">
-        <v>1437461.25702726</v>
+        <v>1438415.475656884</v>
       </c>
       <c r="D12" t="n">
         <v>1427278.942726544</v>
       </c>
       <c r="E12" t="n">
-        <v>1436122.184574127</v>
+        <v>1442435.807426453</v>
       </c>
       <c r="F12" t="n">
-        <v>1450771.39907074</v>
+        <v>1446807.257568359</v>
       </c>
       <c r="G12" t="n">
         <v>1452015.255045487</v>
@@ -5981,16 +5981,16 @@
         <v>1382725</v>
       </c>
       <c r="C13" t="n">
-        <v>1457696.03755016</v>
+        <v>1451533.66790259</v>
       </c>
       <c r="D13" t="n">
         <v>1478589.211770148</v>
       </c>
       <c r="E13" t="n">
-        <v>1441181.343299866</v>
+        <v>1442868.875480652</v>
       </c>
       <c r="F13" t="n">
-        <v>1442327.68567276</v>
+        <v>1422003.362236023</v>
       </c>
       <c r="G13" t="n">
         <v>1488903.955863715</v>
@@ -6004,16 +6004,16 @@
         <v>1287874</v>
       </c>
       <c r="C14" t="n">
-        <v>1430936.498308368</v>
+        <v>1439734.408579481</v>
       </c>
       <c r="D14" t="n">
         <v>1418384.492288574</v>
       </c>
       <c r="E14" t="n">
-        <v>1435560.222606659</v>
+        <v>1452281.13318634</v>
       </c>
       <c r="F14" t="n">
-        <v>1442460.404762268</v>
+        <v>1454241.027599335</v>
       </c>
       <c r="G14" t="n">
         <v>1437081.550422943</v>
@@ -6027,16 +6027,16 @@
         <v>1206037</v>
       </c>
       <c r="C15" t="n">
-        <v>1315474.643110548</v>
+        <v>1319026.383884234</v>
       </c>
       <c r="D15" t="n">
         <v>1118130.58358919</v>
       </c>
       <c r="E15" t="n">
-        <v>1442307.204032898</v>
+        <v>1439945.085075378</v>
       </c>
       <c r="F15" t="n">
-        <v>1454826.715343475</v>
+        <v>1451094.505413055</v>
       </c>
       <c r="G15" t="n">
         <v>1307770.316379466</v>
@@ -6050,16 +6050,16 @@
         <v>1304495</v>
       </c>
       <c r="C16" t="n">
-        <v>1390756.648849471</v>
+        <v>1389435.067496122</v>
       </c>
       <c r="D16" t="n">
         <v>1312739.866017479</v>
       </c>
       <c r="E16" t="n">
-        <v>1438512.193424225</v>
+        <v>1429958.421474457</v>
       </c>
       <c r="F16" t="n">
-        <v>1448262.277137756</v>
+        <v>1445230.800758362</v>
       </c>
       <c r="G16" t="n">
         <v>1387648.011351209</v>
@@ -6073,16 +6073,16 @@
         <v>1250473</v>
       </c>
       <c r="C17" t="n">
-        <v>1369740.488469532</v>
+        <v>1366373.440947924</v>
       </c>
       <c r="D17" t="n">
         <v>1271384.971402616</v>
       </c>
       <c r="E17" t="n">
-        <v>1435688.680740356</v>
+        <v>1433131.623054504</v>
       </c>
       <c r="F17" t="n">
-        <v>1437950.328296661</v>
+        <v>1420051.069755554</v>
       </c>
       <c r="G17" t="n">
         <v>1353534.916912147</v>
@@ -6096,16 +6096,16 @@
         <v>1306926</v>
       </c>
       <c r="C18" t="n">
-        <v>1369708.81805229</v>
+        <v>1372385.993878585</v>
       </c>
       <c r="D18" t="n">
         <v>1329224.497168158</v>
       </c>
       <c r="E18" t="n">
-        <v>1392841.961708069</v>
+        <v>1392966.594665527</v>
       </c>
       <c r="F18" t="n">
-        <v>1398256.087104797</v>
+        <v>1403645.179386139</v>
       </c>
       <c r="G18" t="n">
         <v>1392187.670630349</v>
@@ -6119,16 +6119,16 @@
         <v>1218332</v>
       </c>
       <c r="C19" t="n">
-        <v>1319804.249575287</v>
+        <v>1317571.896894328</v>
       </c>
       <c r="D19" t="n">
         <v>1221481.293581387</v>
       </c>
       <c r="E19" t="n">
-        <v>1386910.227020264</v>
+        <v>1373887.729244232</v>
       </c>
       <c r="F19" t="n">
-        <v>1385239.302883148</v>
+        <v>1381795.869548798</v>
       </c>
       <c r="G19" t="n">
         <v>1316331.529492785</v>
@@ -6142,16 +6142,16 @@
         <v>1119025</v>
       </c>
       <c r="C20" t="n">
-        <v>1280050.221620554</v>
+        <v>1282160.052677065</v>
       </c>
       <c r="D20" t="n">
         <v>1130809.765994647</v>
       </c>
       <c r="E20" t="n">
-        <v>1384539.344051361</v>
+        <v>1377410.329200745</v>
       </c>
       <c r="F20" t="n">
-        <v>1377396.965293884</v>
+        <v>1377994.709606171</v>
       </c>
       <c r="G20" t="n">
         <v>1269229.126346283</v>
@@ -6165,16 +6165,16 @@
         <v>1326162</v>
       </c>
       <c r="C21" t="n">
-        <v>1381299.247660043</v>
+        <v>1378082.11497847</v>
       </c>
       <c r="D21" t="n">
         <v>1373990.823741633</v>
       </c>
       <c r="E21" t="n">
-        <v>1381570.47467041</v>
+        <v>1380276.257762909</v>
       </c>
       <c r="F21" t="n">
-        <v>1387670.662372589</v>
+        <v>1377652.816322327</v>
       </c>
       <c r="G21" t="n">
         <v>1407541.877186089</v>
@@ -6188,16 +6188,16 @@
         <v>1233070</v>
       </c>
       <c r="C22" t="n">
-        <v>1351583.244157591</v>
+        <v>1346781.225080836</v>
       </c>
       <c r="D22" t="n">
         <v>1311730.370498945</v>
       </c>
       <c r="E22" t="n">
-        <v>1374197.374839783</v>
+        <v>1363573.456245422</v>
       </c>
       <c r="F22" t="n">
-        <v>1381197.350517273</v>
+        <v>1372106.601295471</v>
       </c>
       <c r="G22" t="n">
         <v>1362690.448602514</v>
@@ -6211,16 +6211,16 @@
         <v>1363368</v>
       </c>
       <c r="C23" t="n">
-        <v>1382166.985973793</v>
+        <v>1373358.155324673</v>
       </c>
       <c r="D23" t="n">
         <v>1380849.017945296</v>
       </c>
       <c r="E23" t="n">
-        <v>1379631.449256897</v>
+        <v>1361879.968410492</v>
       </c>
       <c r="F23" t="n">
-        <v>1381786.572917938</v>
+        <v>1370087.101921082</v>
       </c>
       <c r="G23" t="n">
         <v>1420613.97132453</v>
@@ -6234,16 +6234,16 @@
         <v>1401174</v>
       </c>
       <c r="C24" t="n">
-        <v>1395463.384732788</v>
+        <v>1394333.132126676</v>
       </c>
       <c r="D24" t="n">
         <v>1430532.815322546</v>
       </c>
       <c r="E24" t="n">
-        <v>1362314.731163025</v>
+        <v>1360266.518756866</v>
       </c>
       <c r="F24" t="n">
-        <v>1374963.7174263</v>
+        <v>1376820.622600555</v>
       </c>
       <c r="G24" t="n">
         <v>1449325.841185526</v>
@@ -6257,16 +6257,16 @@
         <v>1418008</v>
       </c>
       <c r="C25" t="n">
-        <v>1420513.312372417</v>
+        <v>1418514.198071378</v>
       </c>
       <c r="D25" t="n">
         <v>1485157.46856116</v>
       </c>
       <c r="E25" t="n">
-        <v>1375443.849674225</v>
+        <v>1373596.531650543</v>
       </c>
       <c r="F25" t="n">
-        <v>1371307.720500946</v>
+        <v>1372823.555530548</v>
       </c>
       <c r="G25" t="n">
         <v>1480997.688471583</v>
@@ -6280,16 +6280,16 @@
         <v>1112493</v>
       </c>
       <c r="C26" t="n">
-        <v>1390965.542630717</v>
+        <v>1391068.272674053</v>
       </c>
       <c r="D26" t="n">
         <v>1408371.011521128</v>
       </c>
       <c r="E26" t="n">
-        <v>1378133.384349823</v>
+        <v>1374081.893253326</v>
       </c>
       <c r="F26" t="n">
-        <v>1375030.052761078</v>
+        <v>1381403.667934418</v>
       </c>
       <c r="G26" t="n">
         <v>1434878.710783928</v>
@@ -6303,16 +6303,16 @@
         <v>1023025</v>
       </c>
       <c r="C27" t="n">
-        <v>1283050.186967988</v>
+        <v>1287376.462339816</v>
       </c>
       <c r="D27" t="n">
         <v>1142335.371852797</v>
       </c>
       <c r="E27" t="n">
-        <v>1377046.017478943</v>
+        <v>1376547.582489014</v>
       </c>
       <c r="F27" t="n">
-        <v>1374107.26530838</v>
+        <v>1376654.106384277</v>
       </c>
       <c r="G27" t="n">
         <v>1315985.688522957</v>
@@ -6326,16 +6326,16 @@
         <v>1298780</v>
       </c>
       <c r="C28" t="n">
-        <v>1352301.309319288</v>
+        <v>1349968.414638857</v>
       </c>
       <c r="D28" t="n">
         <v>1311282.825324291</v>
       </c>
       <c r="E28" t="n">
-        <v>1386110.668346405</v>
+        <v>1368876.554691315</v>
       </c>
       <c r="F28" t="n">
-        <v>1368818.014968872</v>
+        <v>1374876.077312469</v>
       </c>
       <c r="G28" t="n">
         <v>1390902.138758804</v>
@@ -6349,16 +6349,16 @@
         <v>1310910</v>
       </c>
       <c r="C29" t="n">
-        <v>1331918.625560386</v>
+        <v>1332655.571833233</v>
       </c>
       <c r="D29" t="n">
         <v>1272572.662684858</v>
       </c>
       <c r="E29" t="n">
-        <v>1369395.76184082</v>
+        <v>1367730.40599823</v>
       </c>
       <c r="F29" t="n">
-        <v>1370758.880340576</v>
+        <v>1369736.541465759</v>
       </c>
       <c r="G29" t="n">
         <v>1360050.564792242</v>
@@ -6372,16 +6372,16 @@
         <v>1371367</v>
       </c>
       <c r="C30" t="n">
-        <v>1355095.763773612</v>
+        <v>1352532.49222356</v>
       </c>
       <c r="D30" t="n">
         <v>1334645.780705447</v>
       </c>
       <c r="E30" t="n">
-        <v>1370544.670471191</v>
+        <v>1353936.965740204</v>
       </c>
       <c r="F30" t="n">
-        <v>1362030.554462433</v>
+        <v>1368559.646102905</v>
       </c>
       <c r="G30" t="n">
         <v>1396500.492503057</v>
@@ -6395,16 +6395,16 @@
         <v>1186117</v>
       </c>
       <c r="C31" t="n">
-        <v>1304478.250744264</v>
+        <v>1303503.184160309</v>
       </c>
       <c r="D31" t="n">
         <v>1218816.134605082</v>
       </c>
       <c r="E31" t="n">
-        <v>1360919.122875214</v>
+        <v>1356989.262699127</v>
       </c>
       <c r="F31" t="n">
-        <v>1360421.462604523</v>
+        <v>1353454.02513504</v>
       </c>
       <c r="G31" t="n">
         <v>1326781.820305881</v>
@@ -6418,16 +6418,16 @@
         <v>1154994</v>
       </c>
       <c r="C32" t="n">
-        <v>1273779.574124737</v>
+        <v>1274759.718456581</v>
       </c>
       <c r="D32" t="n">
         <v>1146874.388202709</v>
       </c>
       <c r="E32" t="n">
-        <v>1351993.87305069</v>
+        <v>1351290.089042664</v>
       </c>
       <c r="F32" t="n">
-        <v>1364954.683807373</v>
+        <v>1357447.751228333</v>
       </c>
       <c r="G32" t="n">
         <v>1283616.91238418</v>
@@ -6441,16 +6441,16 @@
         <v>1374882</v>
       </c>
       <c r="C33" t="n">
-        <v>1369762.574363646</v>
+        <v>1361932.030381517</v>
       </c>
       <c r="D33" t="n">
         <v>1374296.155864564</v>
       </c>
       <c r="E33" t="n">
-        <v>1356502.012718201</v>
+        <v>1353702.758430481</v>
       </c>
       <c r="F33" t="n">
-        <v>1371824.167713165</v>
+        <v>1348944.093929291</v>
       </c>
       <c r="G33" t="n">
         <v>1412133.49724506</v>
@@ -6464,16 +6464,16 @@
         <v>1359171</v>
       </c>
       <c r="C34" t="n">
-        <v>1337464.4629173</v>
+        <v>1334241.507448954</v>
       </c>
       <c r="D34" t="n">
         <v>1306832.615895119</v>
       </c>
       <c r="E34" t="n">
-        <v>1357398.217617035</v>
+        <v>1348905.261127472</v>
       </c>
       <c r="F34" t="n">
-        <v>1354592.862415314</v>
+        <v>1349739.343227386</v>
       </c>
       <c r="G34" t="n">
         <v>1370925.053083114</v>
@@ -6487,16 +6487,16 @@
         <v>1432452</v>
       </c>
       <c r="C35" t="n">
-        <v>1369401.928909891</v>
+        <v>1367919.111154744</v>
       </c>
       <c r="D35" t="n">
         <v>1393071.953705098</v>
       </c>
       <c r="E35" t="n">
-        <v>1345893.927448273</v>
+        <v>1348429.2445755</v>
       </c>
       <c r="F35" t="n">
-        <v>1354365.191799164</v>
+        <v>1349413.815887451</v>
       </c>
       <c r="G35" t="n">
         <v>1424867.307194064</v>
@@ -6510,16 +6510,16 @@
         <v>1511298</v>
       </c>
       <c r="C36" t="n">
-        <v>1385880.562720911</v>
+        <v>1381198.029780322</v>
       </c>
       <c r="D36" t="n">
         <v>1433705.085931618</v>
       </c>
       <c r="E36" t="n">
-        <v>1345728.960670471</v>
+        <v>1341783.606109619</v>
       </c>
       <c r="F36" t="n">
-        <v>1353761.298152924</v>
+        <v>1346812.018165588</v>
       </c>
       <c r="G36" t="n">
         <v>1451707.851097198</v>
@@ -6533,16 +6533,16 @@
         <v>1557029</v>
       </c>
       <c r="C37" t="n">
-        <v>1407654.438679842</v>
+        <v>1406250.17702995</v>
       </c>
       <c r="D37" t="n">
         <v>1491565.613311526</v>
       </c>
       <c r="E37" t="n">
-        <v>1343519.170883179</v>
+        <v>1346097.533348083</v>
       </c>
       <c r="F37" t="n">
-        <v>1350070.196762085</v>
+        <v>1350988.093799591</v>
       </c>
       <c r="G37" t="n">
         <v>1481253.812293578</v>
@@ -6556,16 +6556,16 @@
         <v>1458131</v>
       </c>
       <c r="C38" t="n">
-        <v>1368815.960691554</v>
+        <v>1371231.891635451</v>
       </c>
       <c r="D38" t="n">
         <v>1398550.245062909</v>
       </c>
       <c r="E38" t="n">
-        <v>1341597.964012146</v>
+        <v>1350031.65447998</v>
       </c>
       <c r="F38" t="n">
-        <v>1347566.158924103</v>
+        <v>1350523.649616241</v>
       </c>
       <c r="G38" t="n">
         <v>1438710.709625464</v>
@@ -6579,16 +6579,16 @@
         <v>1270202</v>
       </c>
       <c r="C39" t="n">
-        <v>1278003.648524953</v>
+        <v>1281743.906581684</v>
       </c>
       <c r="D39" t="n">
         <v>1166742.526980172</v>
       </c>
       <c r="E39" t="n">
-        <v>1356228.197887421</v>
+        <v>1350505.20161438</v>
       </c>
       <c r="F39" t="n">
-        <v>1343032.986141205</v>
+        <v>1351707.081672668</v>
       </c>
       <c r="G39" t="n">
         <v>1328730.230762212</v>
@@ -6602,16 +6602,16 @@
         <v>1417738</v>
       </c>
       <c r="C40" t="n">
-        <v>1335680.198041957</v>
+        <v>1337736.478350482</v>
       </c>
       <c r="D40" t="n">
         <v>1309530.064847699</v>
       </c>
       <c r="E40" t="n">
-        <v>1347303.577522278</v>
+        <v>1348620.503387451</v>
       </c>
       <c r="F40" t="n">
-        <v>1351571.990005493</v>
+        <v>1355311.0271492</v>
       </c>
       <c r="G40" t="n">
         <v>1398254.063654049</v>
@@ -6625,16 +6625,16 @@
         <v>1397043</v>
       </c>
       <c r="C41" t="n">
-        <v>1318005.880684792</v>
+        <v>1318786.942379473</v>
       </c>
       <c r="D41" t="n">
         <v>1273773.520920137</v>
       </c>
       <c r="E41" t="n">
-        <v>1340097.4296875</v>
+        <v>1333857.114643097</v>
       </c>
       <c r="F41" t="n">
-        <v>1349067.952167511</v>
+        <v>1354344.27437973</v>
       </c>
       <c r="G41" t="n">
         <v>1369785.291396979</v>
@@ -6648,16 +6648,16 @@
         <v>1404491</v>
       </c>
       <c r="C42" t="n">
-        <v>1340023.098161201</v>
+        <v>1339748.484078792</v>
       </c>
       <c r="D42" t="n">
         <v>1340034.905853413</v>
       </c>
       <c r="E42" t="n">
-        <v>1333223.297466278</v>
+        <v>1337175.624500275</v>
       </c>
       <c r="F42" t="n">
-        <v>1339061.630065918</v>
+        <v>1334680.399093628</v>
       </c>
       <c r="G42" t="n">
         <v>1403642.001148021</v>
@@ -6671,16 +6671,16 @@
         <v>1314022</v>
       </c>
       <c r="C43" t="n">
-        <v>1290508.588003609</v>
+        <v>1289365.315962357</v>
       </c>
       <c r="D43" t="n">
         <v>1216329.433511052</v>
       </c>
       <c r="E43" t="n">
-        <v>1331123.08203125</v>
+        <v>1327157.487930298</v>
       </c>
       <c r="F43" t="n">
-        <v>1343690.383834839</v>
+        <v>1337424.890415192</v>
       </c>
       <c r="G43" t="n">
         <v>1339140.318595059</v>
@@ -6694,16 +6694,16 @@
         <v>1220092</v>
       </c>
       <c r="C44" t="n">
-        <v>1265096.22007142</v>
+        <v>1267441.69106481</v>
       </c>
       <c r="D44" t="n">
         <v>1163066.568077434</v>
       </c>
       <c r="E44" t="n">
-        <v>1325788.752716064</v>
+        <v>1328283.300243378</v>
       </c>
       <c r="F44" t="n">
-        <v>1337392.400627136</v>
+        <v>1333752.624385834</v>
       </c>
       <c r="G44" t="n">
         <v>1299223.751447777</v>
@@ -6717,16 +6717,16 @@
         <v>1492492</v>
       </c>
       <c r="C45" t="n">
-        <v>1350456.507626673</v>
+        <v>1354059.33643045</v>
       </c>
       <c r="D45" t="n">
         <v>1374319.152569304</v>
       </c>
       <c r="E45" t="n">
-        <v>1324651.174354553</v>
+        <v>1338496.181861877</v>
       </c>
       <c r="F45" t="n">
-        <v>1335955.683799744</v>
+        <v>1336918.32087326</v>
       </c>
       <c r="G45" t="n">
         <v>1418326.656699599</v>
@@ -6740,16 +6740,16 @@
         <v>1415841</v>
       </c>
       <c r="C46" t="n">
-        <v>1315434.805913346</v>
+        <v>1316171.268118915</v>
       </c>
       <c r="D46" t="n">
         <v>1302063.573736749</v>
       </c>
       <c r="E46" t="n">
-        <v>1319427.533050537</v>
+        <v>1323044.551914215</v>
       </c>
       <c r="F46" t="n">
-        <v>1321507.170005798</v>
+        <v>1319672.247489929</v>
       </c>
       <c r="G46" t="n">
         <v>1380203.813550549</v>
@@ -6763,16 +6763,16 @@
         <v>1514742</v>
       </c>
       <c r="C47" t="n">
-        <v>1365229.099238668</v>
+        <v>1365314.815098395</v>
       </c>
       <c r="D47" t="n">
         <v>1405389.065136445</v>
       </c>
       <c r="E47" t="n">
-        <v>1333244.311725616</v>
+        <v>1334122.455982208</v>
       </c>
       <c r="F47" t="n">
-        <v>1335318.670906067</v>
+        <v>1338921.212203979</v>
       </c>
       <c r="G47" t="n">
         <v>1430212.316481638</v>
@@ -6786,16 +6786,16 @@
         <v>1519625</v>
       </c>
       <c r="C48" t="n">
-        <v>1376327.952357434</v>
+        <v>1368451.964508303</v>
       </c>
       <c r="D48" t="n">
         <v>1436794.167009013</v>
       </c>
       <c r="E48" t="n">
-        <v>1326230.923721313</v>
+        <v>1321534.043079376</v>
       </c>
       <c r="F48" t="n">
-        <v>1335589.871059418</v>
+        <v>1319878.032287598</v>
       </c>
       <c r="G48" t="n">
         <v>1455110.1775877</v>
@@ -6809,16 +6809,16 @@
         <v>1555592</v>
       </c>
       <c r="C49" t="n">
-        <v>1399741.972536616</v>
+        <v>1395925.893212318</v>
       </c>
       <c r="D49" t="n">
         <v>1497815.444471089</v>
       </c>
       <c r="E49" t="n">
-        <v>1336015.046661377</v>
+        <v>1327777.747520447</v>
       </c>
       <c r="F49" t="n">
-        <v>1321503.247989655</v>
+        <v>1326563.714054108</v>
       </c>
       <c r="G49" t="n">
         <v>1482508.821303661</v>
@@ -6832,16 +6832,16 @@
         <v>1463393</v>
       </c>
       <c r="C50" t="n">
-        <v>1355516.512862185</v>
+        <v>1357753.452486125</v>
       </c>
       <c r="D50" t="n">
         <v>1388934.656967112</v>
       </c>
       <c r="E50" t="n">
-        <v>1330295.77872467</v>
+        <v>1340449.006961823</v>
       </c>
       <c r="F50" t="n">
-        <v>1325104.578788757</v>
+        <v>1326241.140331268</v>
       </c>
       <c r="G50" t="n">
         <v>1443126.497203158</v>
@@ -6855,16 +6855,16 @@
         <v>1261890</v>
       </c>
       <c r="C51" t="n">
-        <v>1280075.213269551</v>
+        <v>1283862.732670211</v>
       </c>
       <c r="D51" t="n">
         <v>1191334.589209257</v>
       </c>
       <c r="E51" t="n">
-        <v>1338490.807247162</v>
+        <v>1340691.106723785</v>
       </c>
       <c r="F51" t="n">
-        <v>1333408.455364227</v>
+        <v>1336405.747257233</v>
       </c>
       <c r="G51" t="n">
         <v>1341272.755533305</v>
@@ -6878,16 +6878,16 @@
         <v>1467633</v>
       </c>
       <c r="C52" t="n">
-        <v>1330059.065293582</v>
+        <v>1322375.831340072</v>
       </c>
       <c r="D52" t="n">
         <v>1307483.752945394</v>
       </c>
       <c r="E52" t="n">
-        <v>1339690.024208069</v>
+        <v>1329781.655670166</v>
       </c>
       <c r="F52" t="n">
-        <v>1341533.27495575</v>
+        <v>1324125.963130951</v>
       </c>
       <c r="G52" t="n">
         <v>1405691.589424837</v>
@@ -6901,16 +6901,16 @@
         <v>1370563</v>
       </c>
       <c r="C53" t="n">
-        <v>1314989.814393386</v>
+        <v>1309329.748766034</v>
       </c>
       <c r="D53" t="n">
         <v>1274992.367952098</v>
       </c>
       <c r="E53" t="n">
-        <v>1337518.244083405</v>
+        <v>1321868.673370361</v>
       </c>
       <c r="F53" t="n">
-        <v>1338352.180923462</v>
+        <v>1331856.450630188</v>
       </c>
       <c r="G53" t="n">
         <v>1379336.581679736</v>
@@ -6924,16 +6924,16 @@
         <v>1504928</v>
       </c>
       <c r="C54" t="n">
-        <v>1332832.5735125</v>
+        <v>1331616.873293822</v>
       </c>
       <c r="D54" t="n">
         <v>1345393.951610486</v>
       </c>
       <c r="E54" t="n">
-        <v>1322083.464279175</v>
+        <v>1314651.969985962</v>
       </c>
       <c r="F54" t="n">
-        <v>1317165.885494232</v>
+        <v>1322329.921836853</v>
       </c>
       <c r="G54" t="n">
         <v>1410711.657479159</v>
@@ -6947,16 +6947,16 @@
         <v>1364156</v>
       </c>
       <c r="C55" t="n">
-        <v>1279824.235676992</v>
+        <v>1276171.829238397</v>
       </c>
       <c r="D55" t="n">
         <v>1214026.686698785</v>
       </c>
       <c r="E55" t="n">
-        <v>1319845.978279114</v>
+        <v>1307345.738109589</v>
       </c>
       <c r="F55" t="n">
-        <v>1319526.55185318</v>
+        <v>1314348.473724365</v>
       </c>
       <c r="G55" t="n">
         <v>1350974.821797265</v>
@@ -6970,16 +6970,16 @@
         <v>1285706</v>
       </c>
       <c r="C56" t="n">
-        <v>1260775.42638779</v>
+        <v>1262121.303932686</v>
       </c>
       <c r="D56" t="n">
         <v>1179373.633520537</v>
       </c>
       <c r="E56" t="n">
-        <v>1314157.11807251</v>
+        <v>1314749.778289795</v>
       </c>
       <c r="F56" t="n">
-        <v>1310258.97296524</v>
+        <v>1307233.355400085</v>
       </c>
       <c r="G56" t="n">
         <v>1314009.610737554</v>
@@ -6993,16 +6993,16 @@
         <v>772175</v>
       </c>
       <c r="C57" t="n">
-        <v>1350683.927248998</v>
+        <v>1343821.430019413</v>
       </c>
       <c r="D57" t="n">
         <v>1390955.581902011</v>
       </c>
       <c r="E57" t="n">
-        <v>1314184.475345612</v>
+        <v>1304120.678760529</v>
       </c>
       <c r="F57" t="n">
-        <v>1324113.664463043</v>
+        <v>1315325.588363647</v>
       </c>
       <c r="G57" t="n">
         <v>1424343.55212118</v>
@@ -7016,16 +7016,16 @@
         <v>77286</v>
       </c>
       <c r="C58" t="n">
-        <v>1322682.279168028</v>
+        <v>1318989.850025045</v>
       </c>
       <c r="D58" t="n">
         <v>1334303.101995763</v>
       </c>
       <c r="E58" t="n">
-        <v>1315476.41651535</v>
+        <v>1307660.225700378</v>
       </c>
       <c r="F58" t="n">
-        <v>1306124.005870819</v>
+        <v>1303147.873497009</v>
       </c>
       <c r="G58" t="n">
         <v>1389037.197272894</v>
@@ -7039,16 +7039,16 @@
         <v>166444</v>
       </c>
       <c r="C59" t="n">
-        <v>1350045.982016947</v>
+        <v>1346069.634978609</v>
       </c>
       <c r="D59" t="n">
         <v>1386283.378495736</v>
       </c>
       <c r="E59" t="n">
-        <v>1317640.01366806</v>
+        <v>1314098.384670258</v>
       </c>
       <c r="F59" t="n">
-        <v>1323359.862644196</v>
+        <v>1317498.385307312</v>
       </c>
       <c r="G59" t="n">
         <v>1435366.337884995</v>
@@ -7062,16 +7062,16 @@
         <v>264643</v>
       </c>
       <c r="C60" t="n">
-        <v>1366339.934467033</v>
+        <v>1364276.629600735</v>
       </c>
       <c r="D60" t="n">
         <v>1444834.862988789</v>
       </c>
       <c r="E60" t="n">
-        <v>1307597.32818222</v>
+        <v>1303475.143955231</v>
       </c>
       <c r="F60" t="n">
-        <v>1308355.681476593</v>
+        <v>1313452.414085388</v>
       </c>
       <c r="G60" t="n">
         <v>1458434.462175169</v>
@@ -7085,16 +7085,16 @@
         <v>428883</v>
       </c>
       <c r="C61" t="n">
-        <v>1392920.058969032</v>
+        <v>1388802.868814928</v>
       </c>
       <c r="D61" t="n">
         <v>1496145.132032323</v>
       </c>
       <c r="E61" t="n">
-        <v>1317107.587871552</v>
+        <v>1315840.389297485</v>
       </c>
       <c r="F61" t="n">
-        <v>1318924.740264893</v>
+        <v>1316467.379261017</v>
       </c>
       <c r="G61" t="n">
         <v>1483818.315368107</v>
@@ -7108,16 +7108,16 @@
         <v>483007</v>
       </c>
       <c r="C62" t="n">
-        <v>1369456.542714487</v>
+        <v>1368448.808557638</v>
       </c>
       <c r="D62" t="n">
         <v>1435940.412550807</v>
       </c>
       <c r="E62" t="n">
-        <v>1314819.648281097</v>
+        <v>1323552.719314575</v>
       </c>
       <c r="F62" t="n">
-        <v>1325286.492549896</v>
+        <v>1319798.623565674</v>
       </c>
       <c r="G62" t="n">
         <v>1447341.949175804</v>
@@ -7131,16 +7131,16 @@
         <v>519640</v>
       </c>
       <c r="C63" t="n">
-        <v>1250285.078111008</v>
+        <v>1259374.160956194</v>
       </c>
       <c r="D63" t="n">
         <v>1135686.503851507</v>
       </c>
       <c r="E63" t="n">
-        <v>1320477.761817932</v>
+        <v>1333967.996334076</v>
       </c>
       <c r="F63" t="n">
-        <v>1321544.889148712</v>
+        <v>1329062.570957184</v>
       </c>
       <c r="G63" t="n">
         <v>1352997.419658903</v>
@@ -7154,16 +7154,16 @@
         <v>649593</v>
       </c>
       <c r="C64" t="n">
-        <v>1333060.876588151</v>
+        <v>1326447.027922041</v>
       </c>
       <c r="D64" t="n">
         <v>1330295.786279677</v>
       </c>
       <c r="E64" t="n">
-        <v>1330608.523197174</v>
+        <v>1316300.766204834</v>
       </c>
       <c r="F64" t="n">
-        <v>1329498.495788574</v>
+        <v>1321963.334377289</v>
       </c>
       <c r="G64" t="n">
         <v>1412671.610996155</v>
@@ -7177,16 +7177,16 @@
         <v>658643</v>
       </c>
       <c r="C65" t="n">
-        <v>1308236.928586461</v>
+        <v>1311263.172943317</v>
       </c>
       <c r="D65" t="n">
         <v>1288940.891664901</v>
       </c>
       <c r="E65" t="n">
-        <v>1314682.135616302</v>
+        <v>1319521.855117798</v>
       </c>
       <c r="F65" t="n">
-        <v>1317960.263233185</v>
+        <v>1322206.063598633</v>
       </c>
       <c r="G65" t="n">
         <v>1388261.101673773</v>
@@ -7200,16 +7200,16 @@
         <v>672566</v>
       </c>
       <c r="C66" t="n">
-        <v>1334338.146520694</v>
+        <v>1330568.064375259</v>
       </c>
       <c r="D66" t="n">
         <v>1346780.417430443</v>
       </c>
       <c r="E66" t="n">
-        <v>1319169.987323761</v>
+        <v>1311122.252296448</v>
       </c>
       <c r="F66" t="n">
-        <v>1322664.503707886</v>
+        <v>1319840.555244446</v>
       </c>
       <c r="G66" t="n">
         <v>1417325.942874076</v>
@@ -7223,16 +7223,16 @@
         <v>600143</v>
       </c>
       <c r="C67" t="n">
-        <v>1287472.723513127</v>
+        <v>1285016.060243364</v>
       </c>
       <c r="D67" t="n">
         <v>1239037.213843595</v>
       </c>
       <c r="E67" t="n">
-        <v>1319086.462905884</v>
+        <v>1310424.278682709</v>
       </c>
       <c r="F67" t="n">
-        <v>1311809.186161041</v>
+        <v>1308438.818534851</v>
       </c>
       <c r="G67" t="n">
         <v>1361993.037345718</v>
@@ -7246,16 +7246,16 @@
         <v>535741</v>
       </c>
       <c r="C68" t="n">
-        <v>1249965.826599811</v>
+        <v>1251096.670332358</v>
       </c>
       <c r="D68" t="n">
         <v>1148365.686256883</v>
       </c>
       <c r="E68" t="n">
-        <v>1306781.355144501</v>
+        <v>1316735.286857605</v>
       </c>
       <c r="F68" t="n">
-        <v>1320236.630455017</v>
+        <v>1305404.679058075</v>
       </c>
       <c r="G68" t="n">
         <v>1327753.365620558</v>
@@ -7269,16 +7269,16 @@
         <v>922854</v>
       </c>
       <c r="C69" t="n">
-        <v>1349229.609701491</v>
+        <v>1343745.955636244</v>
       </c>
       <c r="D69" t="n">
         <v>1391546.744003869</v>
       </c>
       <c r="E69" t="n">
-        <v>1316434.502113342</v>
+        <v>1306127.588947296</v>
       </c>
       <c r="F69" t="n">
-        <v>1315292.808055878</v>
+        <v>1311672.690315247</v>
       </c>
       <c r="G69" t="n">
         <v>1429957.489121509</v>
@@ -7292,16 +7292,16 @@
         <v>1014469</v>
       </c>
       <c r="C70" t="n">
-        <v>1324374.995825299</v>
+        <v>1316103.041588176</v>
       </c>
       <c r="D70" t="n">
         <v>1329286.290761213</v>
       </c>
       <c r="E70" t="n">
-        <v>1318041.947692871</v>
+        <v>1304877.531036377</v>
       </c>
       <c r="F70" t="n">
-        <v>1315192.433494568</v>
+        <v>1301563.330554962</v>
       </c>
       <c r="G70" t="n">
         <v>1397254.037885939</v>
@@ -7315,16 +7315,16 @@
         <v>1124904</v>
       </c>
       <c r="C71" t="n">
-        <v>1352340.960114374</v>
+        <v>1350352.639301928</v>
       </c>
       <c r="D71" t="n">
         <v>1398404.938207567</v>
       </c>
       <c r="E71" t="n">
-        <v>1314558.422637939</v>
+        <v>1314018.49174881</v>
       </c>
       <c r="F71" t="n">
-        <v>1317507.681938171</v>
+        <v>1316262.466022491</v>
       </c>
       <c r="G71" t="n">
         <v>1440169.83769288</v>
@@ -7338,16 +7338,16 @@
         <v>1290654</v>
       </c>
       <c r="C72" t="n">
-        <v>1369633.525260794</v>
+        <v>1364542.20481152</v>
       </c>
       <c r="D72" t="n">
         <v>1448088.735584804</v>
       </c>
       <c r="E72" t="n">
-        <v>1305308.952812195</v>
+        <v>1305907.859203339</v>
       </c>
       <c r="F72" t="n">
-        <v>1317358.790584564</v>
+        <v>1307466.110111237</v>
       </c>
       <c r="G72" t="n">
         <v>1461538.702955248</v>
@@ -7361,16 +7361,16 @@
         <v>1506711</v>
       </c>
       <c r="C73" t="n">
-        <v>1394158.563987966</v>
+        <v>1394496.511985237</v>
       </c>
       <c r="D73" t="n">
         <v>1502713.388823533</v>
       </c>
       <c r="E73" t="n">
-        <v>1313518.943099976</v>
+        <v>1332071.386798859</v>
       </c>
       <c r="F73" t="n">
-        <v>1317840.230171204</v>
+        <v>1310990.162666321</v>
       </c>
       <c r="G73" t="n">
         <v>1485052.530775602</v>
@@ -7384,16 +7384,16 @@
         <v>1327579</v>
       </c>
       <c r="C74" t="n">
-        <v>1367107.491121416</v>
+        <v>1364604.341393907</v>
       </c>
       <c r="D74" t="n">
         <v>1425926.931783305</v>
       </c>
       <c r="E74" t="n">
-        <v>1322918.466358185</v>
+        <v>1321828.049030304</v>
       </c>
       <c r="F74" t="n">
-        <v>1321971.081569672</v>
+        <v>1320683.74029541</v>
       </c>
       <c r="G74" t="n">
         <v>1451264.808305948</v>
@@ -7407,16 +7407,16 @@
         <v>1208889</v>
       </c>
       <c r="C75" t="n">
-        <v>1258963.228447851</v>
+        <v>1266899.805340369</v>
       </c>
       <c r="D75" t="n">
         <v>1159891.29211512</v>
       </c>
       <c r="E75" t="n">
-        <v>1322464.626144409</v>
+        <v>1328672.015621185</v>
       </c>
       <c r="F75" t="n">
-        <v>1315746.260910034</v>
+        <v>1328141.913982391</v>
       </c>
       <c r="G75" t="n">
         <v>1363873.412643671</v>
@@ -7464,12 +7464,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>lstm</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>lstm_reg</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>lstm</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -7486,16 +7486,16 @@
         <v>1371694</v>
       </c>
       <c r="C2" t="n">
-        <v>1415579.599641169</v>
+        <v>1421113.656258581</v>
       </c>
       <c r="D2" t="n">
         <v>1371378.736704977</v>
       </c>
       <c r="E2" t="n">
-        <v>1441298.955364227</v>
+        <v>1451857.458602905</v>
       </c>
       <c r="F2" t="n">
-        <v>1445119.095928192</v>
+        <v>1449429.391670227</v>
       </c>
       <c r="G2" t="n">
         <v>1449588.792445258</v>
@@ -7509,16 +7509,16 @@
         <v>1248898</v>
       </c>
       <c r="C3" t="n">
-        <v>1334368.725097724</v>
+        <v>1340524.751292505</v>
       </c>
       <c r="D3" t="n">
         <v>1173778.668947036</v>
       </c>
       <c r="E3" t="n">
-        <v>1443420.669258118</v>
+        <v>1450937.382667542</v>
       </c>
       <c r="F3" t="n">
-        <v>1444335.85477829</v>
+        <v>1442694.176292419</v>
       </c>
       <c r="G3" t="n">
         <v>1308031.957226664</v>
@@ -7532,16 +7532,16 @@
         <v>1402365</v>
       </c>
       <c r="C4" t="n">
-        <v>1388708.518745373</v>
+        <v>1389726.304871078</v>
       </c>
       <c r="D4" t="n">
         <v>1289927.832683204</v>
       </c>
       <c r="E4" t="n">
-        <v>1459141.901500702</v>
+        <v>1452463.531147003</v>
       </c>
       <c r="F4" t="n">
-        <v>1449925.454082489</v>
+        <v>1451152.803035736</v>
       </c>
       <c r="G4" t="n">
         <v>1397282.841304404</v>
@@ -7555,16 +7555,16 @@
         <v>1358981</v>
       </c>
       <c r="C5" t="n">
-        <v>1368359.667376376</v>
+        <v>1375036.785079895</v>
       </c>
       <c r="D5" t="n">
         <v>1257436.447689881</v>
       </c>
       <c r="E5" t="n">
-        <v>1435713.326496124</v>
+        <v>1446207.62487793</v>
       </c>
       <c r="F5" t="n">
-        <v>1451949.408092499</v>
+        <v>1453662.167068481</v>
       </c>
       <c r="G5" t="n">
         <v>1353513.18335489</v>
@@ -7578,16 +7578,16 @@
         <v>1397123</v>
       </c>
       <c r="C6" t="n">
-        <v>1401350.457843616</v>
+        <v>1400255.91492595</v>
       </c>
       <c r="D6" t="n">
         <v>1327838.031348249</v>
       </c>
       <c r="E6" t="n">
-        <v>1448511.397792816</v>
+        <v>1444845.813716888</v>
       </c>
       <c r="F6" t="n">
-        <v>1453658.002952576</v>
+        <v>1446886.472610474</v>
       </c>
       <c r="G6" t="n">
         <v>1395941.713699924</v>
@@ -7601,16 +7601,16 @@
         <v>1258130</v>
       </c>
       <c r="C7" t="n">
-        <v>1343826.516307293</v>
+        <v>1346142.748769686</v>
       </c>
       <c r="D7" t="n">
         <v>1196470.766436542</v>
       </c>
       <c r="E7" t="n">
-        <v>1441295.227027893</v>
+        <v>1441456.755989075</v>
       </c>
       <c r="F7" t="n">
-        <v>1448899.725811005</v>
+        <v>1442793.437194824</v>
       </c>
       <c r="G7" t="n">
         <v>1307039.743779592</v>
@@ -7624,16 +7624,16 @@
         <v>1174589</v>
       </c>
       <c r="C8" t="n">
-        <v>1327419.748122573</v>
+        <v>1329234.123242222</v>
       </c>
       <c r="D8" t="n">
         <v>1161817.713258329</v>
       </c>
       <c r="E8" t="n">
-        <v>1439302.794406891</v>
+        <v>1445234.625934601</v>
       </c>
       <c r="F8" t="n">
-        <v>1447475.549751282</v>
+        <v>1431885.680839539</v>
       </c>
       <c r="G8" t="n">
         <v>1250723.767289276</v>
@@ -7647,16 +7647,16 @@
         <v>1304802</v>
       </c>
       <c r="C9" t="n">
-        <v>1415620.844742581</v>
+        <v>1416915.001438381</v>
       </c>
       <c r="D9" t="n">
         <v>1373399.661639773</v>
       </c>
       <c r="E9" t="n">
-        <v>1438054.818553925</v>
+        <v>1445056.101570129</v>
       </c>
       <c r="F9" t="n">
-        <v>1451418.676994324</v>
+        <v>1444774.781646729</v>
       </c>
       <c r="G9" t="n">
         <v>1403870.543171661</v>
@@ -7670,16 +7670,16 @@
         <v>1229416</v>
       </c>
       <c r="C10" t="n">
-        <v>1396928.999726201</v>
+        <v>1394351.566256298</v>
       </c>
       <c r="D10" t="n">
         <v>1316747.181733518</v>
       </c>
       <c r="E10" t="n">
-        <v>1448607.269298553</v>
+        <v>1442453.432289124</v>
       </c>
       <c r="F10" t="n">
-        <v>1458105.811359406</v>
+        <v>1447912.588241577</v>
       </c>
       <c r="G10" t="n">
         <v>1355463.707727072</v>
@@ -7693,16 +7693,16 @@
         <v>1341370</v>
       </c>
       <c r="C11" t="n">
-        <v>1419315.661331712</v>
+        <v>1414108.171920324</v>
       </c>
       <c r="D11" t="n">
         <v>1368727.458233541</v>
       </c>
       <c r="E11" t="n">
-        <v>1450456.766220093</v>
+        <v>1441031.483547211</v>
       </c>
       <c r="F11" t="n">
-        <v>1456128.001564026</v>
+        <v>1443401.446537018</v>
       </c>
       <c r="G11" t="n">
         <v>1419737.83610634</v>
@@ -7716,16 +7716,16 @@
         <v>1389216</v>
       </c>
       <c r="C12" t="n">
-        <v>1437461.25702726</v>
+        <v>1438415.475656884</v>
       </c>
       <c r="D12" t="n">
         <v>1427278.942726544</v>
       </c>
       <c r="E12" t="n">
-        <v>1436122.184574127</v>
+        <v>1442435.807426453</v>
       </c>
       <c r="F12" t="n">
-        <v>1450771.39907074</v>
+        <v>1446807.257568359</v>
       </c>
       <c r="G12" t="n">
         <v>1452015.255045487</v>
@@ -7739,16 +7739,16 @@
         <v>1382725</v>
       </c>
       <c r="C13" t="n">
-        <v>1457696.03755016</v>
+        <v>1451533.66790259</v>
       </c>
       <c r="D13" t="n">
         <v>1478589.211770148</v>
       </c>
       <c r="E13" t="n">
-        <v>1441181.343299866</v>
+        <v>1442868.875480652</v>
       </c>
       <c r="F13" t="n">
-        <v>1442327.68567276</v>
+        <v>1422003.362236023</v>
       </c>
       <c r="G13" t="n">
         <v>1488903.955863715</v>
@@ -7762,16 +7762,16 @@
         <v>1287874</v>
       </c>
       <c r="C14" t="n">
-        <v>1430936.498308368</v>
+        <v>1439734.408579481</v>
       </c>
       <c r="D14" t="n">
         <v>1418384.492288574</v>
       </c>
       <c r="E14" t="n">
-        <v>1435560.222606659</v>
+        <v>1452281.13318634</v>
       </c>
       <c r="F14" t="n">
-        <v>1442460.404762268</v>
+        <v>1454241.027599335</v>
       </c>
       <c r="G14" t="n">
         <v>1437081.550422943</v>
@@ -7785,16 +7785,16 @@
         <v>1206037</v>
       </c>
       <c r="C15" t="n">
-        <v>1315474.643110548</v>
+        <v>1319026.383884234</v>
       </c>
       <c r="D15" t="n">
         <v>1118130.58358919</v>
       </c>
       <c r="E15" t="n">
-        <v>1442307.204032898</v>
+        <v>1439945.085075378</v>
       </c>
       <c r="F15" t="n">
-        <v>1454826.715343475</v>
+        <v>1451094.505413055</v>
       </c>
       <c r="G15" t="n">
         <v>1307770.316379466</v>
@@ -7808,16 +7808,16 @@
         <v>1304495</v>
       </c>
       <c r="C16" t="n">
-        <v>1390756.648849471</v>
+        <v>1389435.067496122</v>
       </c>
       <c r="D16" t="n">
         <v>1312739.866017479</v>
       </c>
       <c r="E16" t="n">
-        <v>1438512.193424225</v>
+        <v>1429958.421474457</v>
       </c>
       <c r="F16" t="n">
-        <v>1448262.277137756</v>
+        <v>1445230.800758362</v>
       </c>
       <c r="G16" t="n">
         <v>1387648.011351209</v>
@@ -7831,16 +7831,16 @@
         <v>1250473</v>
       </c>
       <c r="C17" t="n">
-        <v>1369740.488469532</v>
+        <v>1366373.440947924</v>
       </c>
       <c r="D17" t="n">
         <v>1271384.971402616</v>
       </c>
       <c r="E17" t="n">
-        <v>1435688.680740356</v>
+        <v>1433131.623054504</v>
       </c>
       <c r="F17" t="n">
-        <v>1437950.328296661</v>
+        <v>1420051.069755554</v>
       </c>
       <c r="G17" t="n">
         <v>1353534.916912147</v>
@@ -7854,16 +7854,16 @@
         <v>1306926</v>
       </c>
       <c r="C18" t="n">
-        <v>1369708.81805229</v>
+        <v>1372385.993878585</v>
       </c>
       <c r="D18" t="n">
         <v>1329224.497168158</v>
       </c>
       <c r="E18" t="n">
-        <v>1392841.961708069</v>
+        <v>1392966.594665527</v>
       </c>
       <c r="F18" t="n">
-        <v>1398256.087104797</v>
+        <v>1403645.179386139</v>
       </c>
       <c r="G18" t="n">
         <v>1392187.670630349</v>
@@ -7877,16 +7877,16 @@
         <v>1218332</v>
       </c>
       <c r="C19" t="n">
-        <v>1319804.249575287</v>
+        <v>1317571.896894328</v>
       </c>
       <c r="D19" t="n">
         <v>1221481.293581387</v>
       </c>
       <c r="E19" t="n">
-        <v>1386910.227020264</v>
+        <v>1373887.729244232</v>
       </c>
       <c r="F19" t="n">
-        <v>1385239.302883148</v>
+        <v>1381795.869548798</v>
       </c>
       <c r="G19" t="n">
         <v>1316331.529492785</v>
@@ -7900,16 +7900,16 @@
         <v>1119025</v>
       </c>
       <c r="C20" t="n">
-        <v>1280050.221620554</v>
+        <v>1282160.052677065</v>
       </c>
       <c r="D20" t="n">
         <v>1130809.765994647</v>
       </c>
       <c r="E20" t="n">
-        <v>1384539.344051361</v>
+        <v>1377410.329200745</v>
       </c>
       <c r="F20" t="n">
-        <v>1377396.965293884</v>
+        <v>1377994.709606171</v>
       </c>
       <c r="G20" t="n">
         <v>1269229.126346283</v>
@@ -7923,16 +7923,16 @@
         <v>1326162</v>
       </c>
       <c r="C21" t="n">
-        <v>1381299.247660043</v>
+        <v>1378082.11497847</v>
       </c>
       <c r="D21" t="n">
         <v>1373990.823741633</v>
       </c>
       <c r="E21" t="n">
-        <v>1381570.47467041</v>
+        <v>1380276.257762909</v>
       </c>
       <c r="F21" t="n">
-        <v>1387670.662372589</v>
+        <v>1377652.816322327</v>
       </c>
       <c r="G21" t="n">
         <v>1407541.877186089</v>
@@ -7946,16 +7946,16 @@
         <v>1233070</v>
       </c>
       <c r="C22" t="n">
-        <v>1351583.244157591</v>
+        <v>1346781.225080836</v>
       </c>
       <c r="D22" t="n">
         <v>1311730.370498945</v>
       </c>
       <c r="E22" t="n">
-        <v>1374197.374839783</v>
+        <v>1363573.456245422</v>
       </c>
       <c r="F22" t="n">
-        <v>1381197.350517273</v>
+        <v>1372106.601295471</v>
       </c>
       <c r="G22" t="n">
         <v>1362690.448602514</v>
@@ -7969,16 +7969,16 @@
         <v>1363368</v>
       </c>
       <c r="C23" t="n">
-        <v>1382166.985973793</v>
+        <v>1373358.155324673</v>
       </c>
       <c r="D23" t="n">
         <v>1380849.017945296</v>
       </c>
       <c r="E23" t="n">
-        <v>1379631.449256897</v>
+        <v>1361879.968410492</v>
       </c>
       <c r="F23" t="n">
-        <v>1381786.572917938</v>
+        <v>1370087.101921082</v>
       </c>
       <c r="G23" t="n">
         <v>1420613.97132453</v>
@@ -7992,16 +7992,16 @@
         <v>1401174</v>
       </c>
       <c r="C24" t="n">
-        <v>1395463.384732788</v>
+        <v>1394333.132126676</v>
       </c>
       <c r="D24" t="n">
         <v>1430532.815322546</v>
       </c>
       <c r="E24" t="n">
-        <v>1362314.731163025</v>
+        <v>1360266.518756866</v>
       </c>
       <c r="F24" t="n">
-        <v>1374963.7174263</v>
+        <v>1376820.622600555</v>
       </c>
       <c r="G24" t="n">
         <v>1449325.841185526</v>
@@ -8015,16 +8015,16 @@
         <v>1418008</v>
       </c>
       <c r="C25" t="n">
-        <v>1420513.312372417</v>
+        <v>1418514.198071378</v>
       </c>
       <c r="D25" t="n">
         <v>1485157.46856116</v>
       </c>
       <c r="E25" t="n">
-        <v>1375443.849674225</v>
+        <v>1373596.531650543</v>
       </c>
       <c r="F25" t="n">
-        <v>1371307.720500946</v>
+        <v>1372823.555530548</v>
       </c>
       <c r="G25" t="n">
         <v>1480997.688471583</v>
@@ -8038,16 +8038,16 @@
         <v>1112493</v>
       </c>
       <c r="C26" t="n">
-        <v>1390965.542630717</v>
+        <v>1391068.272674053</v>
       </c>
       <c r="D26" t="n">
         <v>1408371.011521128</v>
       </c>
       <c r="E26" t="n">
-        <v>1378133.384349823</v>
+        <v>1374081.893253326</v>
       </c>
       <c r="F26" t="n">
-        <v>1375030.052761078</v>
+        <v>1381403.667934418</v>
       </c>
       <c r="G26" t="n">
         <v>1434878.710783928</v>
@@ -8061,16 +8061,16 @@
         <v>1023025</v>
       </c>
       <c r="C27" t="n">
-        <v>1283050.186967988</v>
+        <v>1287376.462339816</v>
       </c>
       <c r="D27" t="n">
         <v>1142335.371852797</v>
       </c>
       <c r="E27" t="n">
-        <v>1377046.017478943</v>
+        <v>1376547.582489014</v>
       </c>
       <c r="F27" t="n">
-        <v>1374107.26530838</v>
+        <v>1376654.106384277</v>
       </c>
       <c r="G27" t="n">
         <v>1315985.688522957</v>
@@ -8084,16 +8084,16 @@
         <v>1298780</v>
       </c>
       <c r="C28" t="n">
-        <v>1352301.309319288</v>
+        <v>1349968.414638857</v>
       </c>
       <c r="D28" t="n">
         <v>1311282.825324291</v>
       </c>
       <c r="E28" t="n">
-        <v>1386110.668346405</v>
+        <v>1368876.554691315</v>
       </c>
       <c r="F28" t="n">
-        <v>1368818.014968872</v>
+        <v>1374876.077312469</v>
       </c>
       <c r="G28" t="n">
         <v>1390902.138758804</v>
@@ -8107,16 +8107,16 @@
         <v>1310910</v>
       </c>
       <c r="C29" t="n">
-        <v>1331918.625560386</v>
+        <v>1332655.571833233</v>
       </c>
       <c r="D29" t="n">
         <v>1272572.662684858</v>
       </c>
       <c r="E29" t="n">
-        <v>1369395.76184082</v>
+        <v>1367730.40599823</v>
       </c>
       <c r="F29" t="n">
-        <v>1370758.880340576</v>
+        <v>1369736.541465759</v>
       </c>
       <c r="G29" t="n">
         <v>1360050.564792242</v>
@@ -8130,16 +8130,16 @@
         <v>1371367</v>
       </c>
       <c r="C30" t="n">
-        <v>1355095.763773612</v>
+        <v>1352532.49222356</v>
       </c>
       <c r="D30" t="n">
         <v>1334645.780705447</v>
       </c>
       <c r="E30" t="n">
-        <v>1370544.670471191</v>
+        <v>1353936.965740204</v>
       </c>
       <c r="F30" t="n">
-        <v>1362030.554462433</v>
+        <v>1368559.646102905</v>
       </c>
       <c r="G30" t="n">
         <v>1396500.492503057</v>
@@ -8153,16 +8153,16 @@
         <v>1186117</v>
       </c>
       <c r="C31" t="n">
-        <v>1304478.250744264</v>
+        <v>1303503.184160309</v>
       </c>
       <c r="D31" t="n">
         <v>1218816.134605082</v>
       </c>
       <c r="E31" t="n">
-        <v>1360919.122875214</v>
+        <v>1356989.262699127</v>
       </c>
       <c r="F31" t="n">
-        <v>1360421.462604523</v>
+        <v>1353454.02513504</v>
       </c>
       <c r="G31" t="n">
         <v>1326781.820305881</v>
@@ -8176,16 +8176,16 @@
         <v>1154994</v>
       </c>
       <c r="C32" t="n">
-        <v>1273779.574124737</v>
+        <v>1274759.718456581</v>
       </c>
       <c r="D32" t="n">
         <v>1146874.388202709</v>
       </c>
       <c r="E32" t="n">
-        <v>1351993.87305069</v>
+        <v>1351290.089042664</v>
       </c>
       <c r="F32" t="n">
-        <v>1364954.683807373</v>
+        <v>1357447.751228333</v>
       </c>
       <c r="G32" t="n">
         <v>1283616.91238418</v>
@@ -8199,16 +8199,16 @@
         <v>1374882</v>
       </c>
       <c r="C33" t="n">
-        <v>1369762.574363646</v>
+        <v>1361932.030381517</v>
       </c>
       <c r="D33" t="n">
         <v>1374296.155864564</v>
       </c>
       <c r="E33" t="n">
-        <v>1356502.012718201</v>
+        <v>1353702.758430481</v>
       </c>
       <c r="F33" t="n">
-        <v>1371824.167713165</v>
+        <v>1348944.093929291</v>
       </c>
       <c r="G33" t="n">
         <v>1412133.49724506</v>
@@ -8222,16 +8222,16 @@
         <v>1359171</v>
       </c>
       <c r="C34" t="n">
-        <v>1337464.4629173</v>
+        <v>1334241.507448954</v>
       </c>
       <c r="D34" t="n">
         <v>1306832.615895119</v>
       </c>
       <c r="E34" t="n">
-        <v>1357398.217617035</v>
+        <v>1348905.261127472</v>
       </c>
       <c r="F34" t="n">
-        <v>1354592.862415314</v>
+        <v>1349739.343227386</v>
       </c>
       <c r="G34" t="n">
         <v>1370925.053083114</v>
@@ -8245,16 +8245,16 @@
         <v>1432452</v>
       </c>
       <c r="C35" t="n">
-        <v>1369401.928909891</v>
+        <v>1367919.111154744</v>
       </c>
       <c r="D35" t="n">
         <v>1393071.953705098</v>
       </c>
       <c r="E35" t="n">
-        <v>1345893.927448273</v>
+        <v>1348429.2445755</v>
       </c>
       <c r="F35" t="n">
-        <v>1354365.191799164</v>
+        <v>1349413.815887451</v>
       </c>
       <c r="G35" t="n">
         <v>1424867.307194064</v>
@@ -8268,16 +8268,16 @@
         <v>1511298</v>
       </c>
       <c r="C36" t="n">
-        <v>1385880.562720911</v>
+        <v>1381198.029780322</v>
       </c>
       <c r="D36" t="n">
         <v>1433705.085931618</v>
       </c>
       <c r="E36" t="n">
-        <v>1345728.960670471</v>
+        <v>1341783.606109619</v>
       </c>
       <c r="F36" t="n">
-        <v>1353761.298152924</v>
+        <v>1346812.018165588</v>
       </c>
       <c r="G36" t="n">
         <v>1451707.851097198</v>
@@ -8291,16 +8291,16 @@
         <v>1557029</v>
       </c>
       <c r="C37" t="n">
-        <v>1407654.438679842</v>
+        <v>1406250.17702995</v>
       </c>
       <c r="D37" t="n">
         <v>1491565.613311526</v>
       </c>
       <c r="E37" t="n">
-        <v>1343519.170883179</v>
+        <v>1346097.533348083</v>
       </c>
       <c r="F37" t="n">
-        <v>1350070.196762085</v>
+        <v>1350988.093799591</v>
       </c>
       <c r="G37" t="n">
         <v>1481253.812293578</v>
@@ -8314,16 +8314,16 @@
         <v>1458131</v>
       </c>
       <c r="C38" t="n">
-        <v>1368815.960691554</v>
+        <v>1371231.891635451</v>
       </c>
       <c r="D38" t="n">
         <v>1398550.245062909</v>
       </c>
       <c r="E38" t="n">
-        <v>1341597.964012146</v>
+        <v>1350031.65447998</v>
       </c>
       <c r="F38" t="n">
-        <v>1347566.158924103</v>
+        <v>1350523.649616241</v>
       </c>
       <c r="G38" t="n">
         <v>1438710.709625464</v>
@@ -8337,16 +8337,16 @@
         <v>1270202</v>
       </c>
       <c r="C39" t="n">
-        <v>1278003.648524953</v>
+        <v>1281743.906581684</v>
       </c>
       <c r="D39" t="n">
         <v>1166742.526980172</v>
       </c>
       <c r="E39" t="n">
-        <v>1356228.197887421</v>
+        <v>1350505.20161438</v>
       </c>
       <c r="F39" t="n">
-        <v>1343032.986141205</v>
+        <v>1351707.081672668</v>
       </c>
       <c r="G39" t="n">
         <v>1328730.230762212</v>
@@ -8360,16 +8360,16 @@
         <v>1417738</v>
       </c>
       <c r="C40" t="n">
-        <v>1335680.198041957</v>
+        <v>1337736.478350482</v>
       </c>
       <c r="D40" t="n">
         <v>1309530.064847699</v>
       </c>
       <c r="E40" t="n">
-        <v>1347303.577522278</v>
+        <v>1348620.503387451</v>
       </c>
       <c r="F40" t="n">
-        <v>1351571.990005493</v>
+        <v>1355311.0271492</v>
       </c>
       <c r="G40" t="n">
         <v>1398254.063654049</v>
@@ -8383,16 +8383,16 @@
         <v>1397043</v>
       </c>
       <c r="C41" t="n">
-        <v>1318005.880684792</v>
+        <v>1318786.942379473</v>
       </c>
       <c r="D41" t="n">
         <v>1273773.520920137</v>
       </c>
       <c r="E41" t="n">
-        <v>1340097.4296875</v>
+        <v>1333857.114643097</v>
       </c>
       <c r="F41" t="n">
-        <v>1349067.952167511</v>
+        <v>1354344.27437973</v>
       </c>
       <c r="G41" t="n">
         <v>1369785.291396979</v>
@@ -8406,16 +8406,16 @@
         <v>1404491</v>
       </c>
       <c r="C42" t="n">
-        <v>1340023.098161201</v>
+        <v>1339748.484078792</v>
       </c>
       <c r="D42" t="n">
         <v>1340034.905853413</v>
       </c>
       <c r="E42" t="n">
-        <v>1333223.297466278</v>
+        <v>1337175.624500275</v>
       </c>
       <c r="F42" t="n">
-        <v>1339061.630065918</v>
+        <v>1334680.399093628</v>
       </c>
       <c r="G42" t="n">
         <v>1403642.001148021</v>
@@ -8429,16 +8429,16 @@
         <v>1314022</v>
       </c>
       <c r="C43" t="n">
-        <v>1290508.588003609</v>
+        <v>1289365.315962357</v>
       </c>
       <c r="D43" t="n">
         <v>1216329.433511052</v>
       </c>
       <c r="E43" t="n">
-        <v>1331123.08203125</v>
+        <v>1327157.487930298</v>
       </c>
       <c r="F43" t="n">
-        <v>1343690.383834839</v>
+        <v>1337424.890415192</v>
       </c>
       <c r="G43" t="n">
         <v>1339140.318595059</v>
@@ -8452,16 +8452,16 @@
         <v>1220092</v>
       </c>
       <c r="C44" t="n">
-        <v>1265096.22007142</v>
+        <v>1267441.69106481</v>
       </c>
       <c r="D44" t="n">
         <v>1163066.568077434</v>
       </c>
       <c r="E44" t="n">
-        <v>1325788.752716064</v>
+        <v>1328283.300243378</v>
       </c>
       <c r="F44" t="n">
-        <v>1337392.400627136</v>
+        <v>1333752.624385834</v>
       </c>
       <c r="G44" t="n">
         <v>1299223.751447777</v>
@@ -8475,16 +8475,16 @@
         <v>1492492</v>
       </c>
       <c r="C45" t="n">
-        <v>1350456.507626673</v>
+        <v>1354059.33643045</v>
       </c>
       <c r="D45" t="n">
         <v>1374319.152569304</v>
       </c>
       <c r="E45" t="n">
-        <v>1324651.174354553</v>
+        <v>1338496.181861877</v>
       </c>
       <c r="F45" t="n">
-        <v>1335955.683799744</v>
+        <v>1336918.32087326</v>
       </c>
       <c r="G45" t="n">
         <v>1418326.656699599</v>
@@ -8498,16 +8498,16 @@
         <v>1415841</v>
       </c>
       <c r="C46" t="n">
-        <v>1315434.805913346</v>
+        <v>1316171.268118915</v>
       </c>
       <c r="D46" t="n">
         <v>1302063.573736749</v>
       </c>
       <c r="E46" t="n">
-        <v>1319427.533050537</v>
+        <v>1323044.551914215</v>
       </c>
       <c r="F46" t="n">
-        <v>1321507.170005798</v>
+        <v>1319672.247489929</v>
       </c>
       <c r="G46" t="n">
         <v>1380203.813550549</v>
@@ -8521,16 +8521,16 @@
         <v>1514742</v>
       </c>
       <c r="C47" t="n">
-        <v>1365229.099238668</v>
+        <v>1365314.815098395</v>
       </c>
       <c r="D47" t="n">
         <v>1405389.065136445</v>
       </c>
       <c r="E47" t="n">
-        <v>1333244.311725616</v>
+        <v>1334122.455982208</v>
       </c>
       <c r="F47" t="n">
-        <v>1335318.670906067</v>
+        <v>1338921.212203979</v>
       </c>
       <c r="G47" t="n">
         <v>1430212.316481638</v>
@@ -8544,16 +8544,16 @@
         <v>1519625</v>
       </c>
       <c r="C48" t="n">
-        <v>1376327.952357434</v>
+        <v>1368451.964508303</v>
       </c>
       <c r="D48" t="n">
         <v>1436794.167009013</v>
       </c>
       <c r="E48" t="n">
-        <v>1326230.923721313</v>
+        <v>1321534.043079376</v>
       </c>
       <c r="F48" t="n">
-        <v>1335589.871059418</v>
+        <v>1319878.032287598</v>
       </c>
       <c r="G48" t="n">
         <v>1455110.1775877</v>
@@ -8567,16 +8567,16 @@
         <v>1555592</v>
       </c>
       <c r="C49" t="n">
-        <v>1399741.972536616</v>
+        <v>1395925.893212318</v>
       </c>
       <c r="D49" t="n">
         <v>1497815.444471089</v>
       </c>
       <c r="E49" t="n">
-        <v>1336015.046661377</v>
+        <v>1327777.747520447</v>
       </c>
       <c r="F49" t="n">
-        <v>1321503.247989655</v>
+        <v>1326563.714054108</v>
       </c>
       <c r="G49" t="n">
         <v>1482508.821303661</v>
@@ -8590,16 +8590,16 @@
         <v>1463393</v>
       </c>
       <c r="C50" t="n">
-        <v>1355516.512862185</v>
+        <v>1357753.452486125</v>
       </c>
       <c r="D50" t="n">
         <v>1388934.656967112</v>
       </c>
       <c r="E50" t="n">
-        <v>1330295.77872467</v>
+        <v>1340449.006961823</v>
       </c>
       <c r="F50" t="n">
-        <v>1325104.578788757</v>
+        <v>1326241.140331268</v>
       </c>
       <c r="G50" t="n">
         <v>1443126.497203158</v>
@@ -8613,16 +8613,16 @@
         <v>1261890</v>
       </c>
       <c r="C51" t="n">
-        <v>1280075.213269551</v>
+        <v>1283862.732670211</v>
       </c>
       <c r="D51" t="n">
         <v>1191334.589209257</v>
       </c>
       <c r="E51" t="n">
-        <v>1338490.807247162</v>
+        <v>1340691.106723785</v>
       </c>
       <c r="F51" t="n">
-        <v>1333408.455364227</v>
+        <v>1336405.747257233</v>
       </c>
       <c r="G51" t="n">
         <v>1341272.755533305</v>
@@ -8636,16 +8636,16 @@
         <v>1467633</v>
       </c>
       <c r="C52" t="n">
-        <v>1330059.065293582</v>
+        <v>1322375.831340072</v>
       </c>
       <c r="D52" t="n">
         <v>1307483.752945394</v>
       </c>
       <c r="E52" t="n">
-        <v>1339690.024208069</v>
+        <v>1329781.655670166</v>
       </c>
       <c r="F52" t="n">
-        <v>1341533.27495575</v>
+        <v>1324125.963130951</v>
       </c>
       <c r="G52" t="n">
         <v>1405691.589424837</v>
@@ -8659,16 +8659,16 @@
         <v>1370563</v>
       </c>
       <c r="C53" t="n">
-        <v>1314989.814393386</v>
+        <v>1309329.748766034</v>
       </c>
       <c r="D53" t="n">
         <v>1274992.367952098</v>
       </c>
       <c r="E53" t="n">
-        <v>1337518.244083405</v>
+        <v>1321868.673370361</v>
       </c>
       <c r="F53" t="n">
-        <v>1338352.180923462</v>
+        <v>1331856.450630188</v>
       </c>
       <c r="G53" t="n">
         <v>1379336.581679736</v>
@@ -8682,16 +8682,16 @@
         <v>1504928</v>
       </c>
       <c r="C54" t="n">
-        <v>1332832.5735125</v>
+        <v>1331616.873293822</v>
       </c>
       <c r="D54" t="n">
         <v>1345393.951610486</v>
       </c>
       <c r="E54" t="n">
-        <v>1322083.464279175</v>
+        <v>1314651.969985962</v>
       </c>
       <c r="F54" t="n">
-        <v>1317165.885494232</v>
+        <v>1322329.921836853</v>
       </c>
       <c r="G54" t="n">
         <v>1410711.657479159</v>
@@ -8705,16 +8705,16 @@
         <v>1364156</v>
       </c>
       <c r="C55" t="n">
-        <v>1279824.235676992</v>
+        <v>1276171.829238397</v>
       </c>
       <c r="D55" t="n">
         <v>1214026.686698785</v>
       </c>
       <c r="E55" t="n">
-        <v>1319845.978279114</v>
+        <v>1307345.738109589</v>
       </c>
       <c r="F55" t="n">
-        <v>1319526.55185318</v>
+        <v>1314348.473724365</v>
       </c>
       <c r="G55" t="n">
         <v>1350974.821797265</v>
@@ -8728,16 +8728,16 @@
         <v>1285706</v>
       </c>
       <c r="C56" t="n">
-        <v>1260775.42638779</v>
+        <v>1262121.303932686</v>
       </c>
       <c r="D56" t="n">
         <v>1179373.633520537</v>
       </c>
       <c r="E56" t="n">
-        <v>1314157.11807251</v>
+        <v>1314749.778289795</v>
       </c>
       <c r="F56" t="n">
-        <v>1310258.97296524</v>
+        <v>1307233.355400085</v>
       </c>
       <c r="G56" t="n">
         <v>1314009.610737554</v>
@@ -8751,16 +8751,16 @@
         <v>772175</v>
       </c>
       <c r="C57" t="n">
-        <v>1350683.927248998</v>
+        <v>1343821.430019413</v>
       </c>
       <c r="D57" t="n">
         <v>1390955.581902011</v>
       </c>
       <c r="E57" t="n">
-        <v>1314184.475345612</v>
+        <v>1304120.678760529</v>
       </c>
       <c r="F57" t="n">
-        <v>1324113.664463043</v>
+        <v>1315325.588363647</v>
       </c>
       <c r="G57" t="n">
         <v>1424343.55212118</v>
@@ -8774,16 +8774,16 @@
         <v>77286</v>
       </c>
       <c r="C58" t="n">
-        <v>1322682.279168028</v>
+        <v>1318989.850025045</v>
       </c>
       <c r="D58" t="n">
         <v>1334303.101995763</v>
       </c>
       <c r="E58" t="n">
-        <v>1315476.41651535</v>
+        <v>1307660.225700378</v>
       </c>
       <c r="F58" t="n">
-        <v>1306124.005870819</v>
+        <v>1303147.873497009</v>
       </c>
       <c r="G58" t="n">
         <v>1389037.197272894</v>
@@ -8797,16 +8797,16 @@
         <v>166444</v>
       </c>
       <c r="C59" t="n">
-        <v>1350045.982016947</v>
+        <v>1346069.634978609</v>
       </c>
       <c r="D59" t="n">
         <v>1386283.378495736</v>
       </c>
       <c r="E59" t="n">
-        <v>1317640.01366806</v>
+        <v>1314098.384670258</v>
       </c>
       <c r="F59" t="n">
-        <v>1323359.862644196</v>
+        <v>1317498.385307312</v>
       </c>
       <c r="G59" t="n">
         <v>1435366.337884995</v>
@@ -8820,16 +8820,16 @@
         <v>264643</v>
       </c>
       <c r="C60" t="n">
-        <v>1366339.934467033</v>
+        <v>1364276.629600735</v>
       </c>
       <c r="D60" t="n">
         <v>1444834.862988789</v>
       </c>
       <c r="E60" t="n">
-        <v>1307597.32818222</v>
+        <v>1303475.143955231</v>
       </c>
       <c r="F60" t="n">
-        <v>1308355.681476593</v>
+        <v>1313452.414085388</v>
       </c>
       <c r="G60" t="n">
         <v>1458434.462175169</v>
@@ -8843,16 +8843,16 @@
         <v>428883</v>
       </c>
       <c r="C61" t="n">
-        <v>1392920.058969032</v>
+        <v>1388802.868814928</v>
       </c>
       <c r="D61" t="n">
         <v>1496145.132032323</v>
       </c>
       <c r="E61" t="n">
-        <v>1317107.587871552</v>
+        <v>1315840.389297485</v>
       </c>
       <c r="F61" t="n">
-        <v>1318924.740264893</v>
+        <v>1316467.379261017</v>
       </c>
       <c r="G61" t="n">
         <v>1483818.315368107</v>
@@ -8866,16 +8866,16 @@
         <v>483007</v>
       </c>
       <c r="C62" t="n">
-        <v>1369456.542714487</v>
+        <v>1368448.808557638</v>
       </c>
       <c r="D62" t="n">
         <v>1435940.412550807</v>
       </c>
       <c r="E62" t="n">
-        <v>1314819.648281097</v>
+        <v>1323552.719314575</v>
       </c>
       <c r="F62" t="n">
-        <v>1325286.492549896</v>
+        <v>1319798.623565674</v>
       </c>
       <c r="G62" t="n">
         <v>1447341.949175804</v>
@@ -8889,16 +8889,16 @@
         <v>519640</v>
       </c>
       <c r="C63" t="n">
-        <v>1250285.078111008</v>
+        <v>1259374.160956194</v>
       </c>
       <c r="D63" t="n">
         <v>1135686.503851507</v>
       </c>
       <c r="E63" t="n">
-        <v>1320477.761817932</v>
+        <v>1333967.996334076</v>
       </c>
       <c r="F63" t="n">
-        <v>1321544.889148712</v>
+        <v>1329062.570957184</v>
       </c>
       <c r="G63" t="n">
         <v>1352997.419658903</v>
@@ -8912,16 +8912,16 @@
         <v>649593</v>
       </c>
       <c r="C64" t="n">
-        <v>1333060.876588151</v>
+        <v>1326447.027922041</v>
       </c>
       <c r="D64" t="n">
         <v>1330295.786279677</v>
       </c>
       <c r="E64" t="n">
-        <v>1330608.523197174</v>
+        <v>1316300.766204834</v>
       </c>
       <c r="F64" t="n">
-        <v>1329498.495788574</v>
+        <v>1321963.334377289</v>
       </c>
       <c r="G64" t="n">
         <v>1412671.610996155</v>
@@ -8935,16 +8935,16 @@
         <v>658643</v>
       </c>
       <c r="C65" t="n">
-        <v>1308236.928586461</v>
+        <v>1311263.172943317</v>
       </c>
       <c r="D65" t="n">
         <v>1288940.891664901</v>
       </c>
       <c r="E65" t="n">
-        <v>1314682.135616302</v>
+        <v>1319521.855117798</v>
       </c>
       <c r="F65" t="n">
-        <v>1317960.263233185</v>
+        <v>1322206.063598633</v>
       </c>
       <c r="G65" t="n">
         <v>1388261.101673773</v>
@@ -8958,16 +8958,16 @@
         <v>672566</v>
       </c>
       <c r="C66" t="n">
-        <v>1334338.146520694</v>
+        <v>1330568.064375259</v>
       </c>
       <c r="D66" t="n">
         <v>1346780.417430443</v>
       </c>
       <c r="E66" t="n">
-        <v>1319169.987323761</v>
+        <v>1311122.252296448</v>
       </c>
       <c r="F66" t="n">
-        <v>1322664.503707886</v>
+        <v>1319840.555244446</v>
       </c>
       <c r="G66" t="n">
         <v>1417325.942874076</v>
@@ -8981,16 +8981,16 @@
         <v>600143</v>
       </c>
       <c r="C67" t="n">
-        <v>1287472.723513127</v>
+        <v>1285016.060243364</v>
       </c>
       <c r="D67" t="n">
         <v>1239037.213843595</v>
       </c>
       <c r="E67" t="n">
-        <v>1319086.462905884</v>
+        <v>1310424.278682709</v>
       </c>
       <c r="F67" t="n">
-        <v>1311809.186161041</v>
+        <v>1308438.818534851</v>
       </c>
       <c r="G67" t="n">
         <v>1361993.037345718</v>
@@ -9004,16 +9004,16 @@
         <v>535741</v>
       </c>
       <c r="C68" t="n">
-        <v>1249965.826599811</v>
+        <v>1251096.670332358</v>
       </c>
       <c r="D68" t="n">
         <v>1148365.686256883</v>
       </c>
       <c r="E68" t="n">
-        <v>1306781.355144501</v>
+        <v>1316735.286857605</v>
       </c>
       <c r="F68" t="n">
-        <v>1320236.630455017</v>
+        <v>1305404.679058075</v>
       </c>
       <c r="G68" t="n">
         <v>1327753.365620558</v>
@@ -9027,16 +9027,16 @@
         <v>922854</v>
       </c>
       <c r="C69" t="n">
-        <v>1349229.609701491</v>
+        <v>1343745.955636244</v>
       </c>
       <c r="D69" t="n">
         <v>1391546.744003869</v>
       </c>
       <c r="E69" t="n">
-        <v>1316434.502113342</v>
+        <v>1306127.588947296</v>
       </c>
       <c r="F69" t="n">
-        <v>1315292.808055878</v>
+        <v>1311672.690315247</v>
       </c>
       <c r="G69" t="n">
         <v>1429957.489121509</v>
@@ -9050,16 +9050,16 @@
         <v>1014469</v>
       </c>
       <c r="C70" t="n">
-        <v>1324374.995825299</v>
+        <v>1316103.041588176</v>
       </c>
       <c r="D70" t="n">
         <v>1329286.290761213</v>
       </c>
       <c r="E70" t="n">
-        <v>1318041.947692871</v>
+        <v>1304877.531036377</v>
       </c>
       <c r="F70" t="n">
-        <v>1315192.433494568</v>
+        <v>1301563.330554962</v>
       </c>
       <c r="G70" t="n">
         <v>1397254.037885939</v>
@@ -9073,16 +9073,16 @@
         <v>1124904</v>
       </c>
       <c r="C71" t="n">
-        <v>1352340.960114374</v>
+        <v>1350352.639301928</v>
       </c>
       <c r="D71" t="n">
         <v>1398404.938207567</v>
       </c>
       <c r="E71" t="n">
-        <v>1314558.422637939</v>
+        <v>1314018.49174881</v>
       </c>
       <c r="F71" t="n">
-        <v>1317507.681938171</v>
+        <v>1316262.466022491</v>
       </c>
       <c r="G71" t="n">
         <v>1440169.83769288</v>
@@ -9096,16 +9096,16 @@
         <v>1290654</v>
       </c>
       <c r="C72" t="n">
-        <v>1369633.525260794</v>
+        <v>1364542.20481152</v>
       </c>
       <c r="D72" t="n">
         <v>1448088.735584804</v>
       </c>
       <c r="E72" t="n">
-        <v>1305308.952812195</v>
+        <v>1305907.859203339</v>
       </c>
       <c r="F72" t="n">
-        <v>1317358.790584564</v>
+        <v>1307466.110111237</v>
       </c>
       <c r="G72" t="n">
         <v>1461538.702955248</v>
@@ -9119,16 +9119,16 @@
         <v>1506711</v>
       </c>
       <c r="C73" t="n">
-        <v>1394158.563987966</v>
+        <v>1394496.511985237</v>
       </c>
       <c r="D73" t="n">
         <v>1502713.388823533</v>
       </c>
       <c r="E73" t="n">
-        <v>1313518.943099976</v>
+        <v>1332071.386798859</v>
       </c>
       <c r="F73" t="n">
-        <v>1317840.230171204</v>
+        <v>1310990.162666321</v>
       </c>
       <c r="G73" t="n">
         <v>1485052.530775602</v>
@@ -9142,16 +9142,16 @@
         <v>1327579</v>
       </c>
       <c r="C74" t="n">
-        <v>1367107.491121416</v>
+        <v>1364604.341393907</v>
       </c>
       <c r="D74" t="n">
         <v>1425926.931783305</v>
       </c>
       <c r="E74" t="n">
-        <v>1322918.466358185</v>
+        <v>1321828.049030304</v>
       </c>
       <c r="F74" t="n">
-        <v>1321971.081569672</v>
+        <v>1320683.74029541</v>
       </c>
       <c r="G74" t="n">
         <v>1451264.808305948</v>
@@ -9165,16 +9165,16 @@
         <v>1208889</v>
       </c>
       <c r="C75" t="n">
-        <v>1258963.228447851</v>
+        <v>1266899.805340369</v>
       </c>
       <c r="D75" t="n">
         <v>1159891.29211512</v>
       </c>
       <c r="E75" t="n">
-        <v>1322464.626144409</v>
+        <v>1328672.015621185</v>
       </c>
       <c r="F75" t="n">
-        <v>1315746.260910034</v>
+        <v>1328141.913982391</v>
       </c>
       <c r="G75" t="n">
         <v>1363873.412643671</v>
@@ -9217,12 +9217,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>lstm</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>lstm_reg</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>lstm</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -9236,16 +9236,16 @@
         <v>44470</v>
       </c>
       <c r="B2" t="n">
-        <v>1208418.465496859</v>
+        <v>1211546.308557985</v>
       </c>
       <c r="C2" t="n">
         <v>1057111.739627392</v>
       </c>
       <c r="D2" t="n">
-        <v>1312055.458506107</v>
+        <v>1310350.665505886</v>
       </c>
       <c r="E2" t="n">
-        <v>1290982.822359562</v>
+        <v>1290658.287760973</v>
       </c>
       <c r="F2" t="n">
         <v>1347792.900415261</v>
@@ -9256,16 +9256,16 @@
         <v>44501</v>
       </c>
       <c r="B3" t="n">
-        <v>1202729.178977962</v>
+        <v>1199095.539001358</v>
       </c>
       <c r="C3" t="n">
         <v>1019108.227142296</v>
       </c>
       <c r="D3" t="n">
-        <v>1334021.046508312</v>
+        <v>1317793.12377429</v>
       </c>
       <c r="E3" t="n">
-        <v>1306377.892237663</v>
+        <v>1294532.884037256</v>
       </c>
       <c r="F3" t="n">
         <v>1298344.021334112</v>
@@ -9276,16 +9276,16 @@
         <v>44531</v>
       </c>
       <c r="B4" t="n">
-        <v>1244009.386001022</v>
+        <v>1235712.517828663</v>
       </c>
       <c r="C4" t="n">
         <v>1075661.78528517</v>
       </c>
       <c r="D4" t="n">
-        <v>1353054.904373646</v>
+        <v>1342441.788036585</v>
       </c>
       <c r="E4" t="n">
-        <v>1347428.169930935</v>
+        <v>1315690.39281702</v>
       </c>
       <c r="F4" t="n">
         <v>1356420.000567853</v>
@@ -9296,16 +9296,16 @@
         <v>44562</v>
       </c>
       <c r="B5" t="n">
-        <v>1176601.048771082</v>
+        <v>1188163.683969016</v>
       </c>
       <c r="C5" t="n">
         <v>954410.4069234929</v>
       </c>
       <c r="D5" t="n">
-        <v>1335587.382423639</v>
+        <v>1312253.372311354</v>
       </c>
       <c r="E5" t="n">
-        <v>1307532.710574627</v>
+        <v>1350363.386727333</v>
       </c>
       <c r="F5" t="n">
         <v>1246429.385679257</v>
@@ -9316,16 +9316,16 @@
         <v>44593</v>
       </c>
       <c r="B6" t="n">
-        <v>1148527.332432505</v>
+        <v>1162252.777169714</v>
       </c>
       <c r="C6" t="n">
         <v>883969.0031716685</v>
       </c>
       <c r="D6" t="n">
-        <v>1331310.719251394</v>
+        <v>1336031.748004913</v>
       </c>
       <c r="E6" t="n">
-        <v>1315033.891529799</v>
+        <v>1332934.76855731</v>
       </c>
       <c r="F6" t="n">
         <v>1198825.148344165</v>
@@ -9336,16 +9336,16 @@
         <v>44621</v>
       </c>
       <c r="B7" t="n">
-        <v>1209195.582897594</v>
+        <v>1219271.289998769</v>
       </c>
       <c r="C7" t="n">
         <v>1069371.750742973</v>
       </c>
       <c r="D7" t="n">
-        <v>1326948.72467494</v>
+        <v>1306881.164014101</v>
       </c>
       <c r="E7" t="n">
-        <v>1274855.095209837</v>
+        <v>1316666.198713541</v>
       </c>
       <c r="F7" t="n">
         <v>1243938.058940163</v>
@@ -9356,16 +9356,16 @@
         <v>44652</v>
       </c>
       <c r="B8" t="n">
-        <v>1184202.130366284</v>
+        <v>1196263.451049419</v>
       </c>
       <c r="C8" t="n">
         <v>984689.8680264672</v>
       </c>
       <c r="D8" t="n">
-        <v>1326726.863023996</v>
+        <v>1333878.368730307</v>
       </c>
       <c r="E8" t="n">
-        <v>1318848.847577333</v>
+        <v>1333570.074624777</v>
       </c>
       <c r="F8" t="n">
         <v>1109656.530928148</v>
@@ -9376,16 +9376,16 @@
         <v>44682</v>
       </c>
       <c r="B9" t="n">
-        <v>1216568.31250021</v>
+        <v>1226630.288359855</v>
       </c>
       <c r="C9" t="n">
         <v>1069481.52140316</v>
       </c>
       <c r="D9" t="n">
-        <v>1321489.166381121</v>
+        <v>1352758.35480547</v>
       </c>
       <c r="E9" t="n">
-        <v>1314857.264698505</v>
+        <v>1303629.395234346</v>
       </c>
       <c r="F9" t="n">
         <v>1170828.907684048</v>
@@ -9396,16 +9396,16 @@
         <v>44713</v>
       </c>
       <c r="B10" t="n">
-        <v>1233726.372808074</v>
+        <v>1237199.2751068</v>
       </c>
       <c r="C10" t="n">
         <v>1115862.616357288</v>
       </c>
       <c r="D10" t="n">
-        <v>1356648.549295425</v>
+        <v>1322907.044003963</v>
       </c>
       <c r="E10" t="n">
-        <v>1269763.74651289</v>
+        <v>1304762.743088961</v>
       </c>
       <c r="F10" t="n">
         <v>1225790.349169269</v>
@@ -9416,16 +9416,16 @@
         <v>44743</v>
       </c>
       <c r="B11" t="n">
-        <v>1246513.054178071</v>
+        <v>1264907.997327664</v>
       </c>
       <c r="C11" t="n">
         <v>1175289.75699975</v>
       </c>
       <c r="D11" t="n">
-        <v>1327186.643310547</v>
+        <v>1315097.568943262</v>
       </c>
       <c r="E11" t="n">
-        <v>1258289.608781099</v>
+        <v>1326363.241137028</v>
       </c>
       <c r="F11" t="n">
         <v>1270634.899421986</v>
@@ -9436,16 +9436,16 @@
         <v>44774</v>
       </c>
       <c r="B12" t="n">
-        <v>1209023.13178448</v>
+        <v>1232439.003660823</v>
       </c>
       <c r="C12" t="n">
         <v>1075114.972014124</v>
       </c>
       <c r="D12" t="n">
-        <v>1318599.918437958</v>
+        <v>1322792.167747974</v>
       </c>
       <c r="E12" t="n">
-        <v>1279175.800397158</v>
+        <v>1341854.744677305</v>
       </c>
       <c r="F12" t="n">
         <v>1209312.264306093</v>
@@ -9456,16 +9456,16 @@
         <v>44805</v>
       </c>
       <c r="B13" t="n">
-        <v>1122292.664657728</v>
+        <v>1156682.150694942</v>
       </c>
       <c r="C13" t="n">
         <v>871638.2891642457</v>
       </c>
       <c r="D13" t="n">
-        <v>1310012.18426919</v>
+        <v>1346901.225571394</v>
       </c>
       <c r="E13" t="n">
-        <v>1272927.247754097</v>
+        <v>1329026.498490334</v>
       </c>
       <c r="F13" t="n">
         <v>1108396.293617264</v>
@@ -9476,16 +9476,16 @@
         <v>44835</v>
       </c>
       <c r="B14" t="n">
-        <v>1192167.601259932</v>
+        <v>1200354.908369697</v>
       </c>
       <c r="C14" t="n">
         <v>1014560.360414656</v>
       </c>
       <c r="D14" t="n">
-        <v>1314699.906248808</v>
+        <v>1285188.452996969</v>
       </c>
       <c r="E14" t="n">
-        <v>1302675.426836967</v>
+        <v>1344147.223316193</v>
       </c>
       <c r="F14" t="n">
         <v>1237766.473044301</v>
@@ -9496,16 +9496,16 @@
         <v>44866</v>
       </c>
       <c r="B15" t="n">
-        <v>1177011.084171007</v>
+        <v>1196497.9329242</v>
       </c>
       <c r="C15" t="n">
         <v>976368.9218259578</v>
       </c>
       <c r="D15" t="n">
-        <v>1327917.557252407</v>
+        <v>1327021.210491419</v>
       </c>
       <c r="E15" t="n">
-        <v>1292677.981168985</v>
+        <v>1341310.091757536</v>
       </c>
       <c r="F15" t="n">
         <v>1200636.272540732</v>
@@ -9516,16 +9516,16 @@
         <v>44896</v>
       </c>
       <c r="B16" t="n">
-        <v>1214885.259328161</v>
+        <v>1223960.076342781</v>
       </c>
       <c r="C16" t="n">
         <v>1036449.257176335</v>
       </c>
       <c r="D16" t="n">
-        <v>1326801.275678635</v>
+        <v>1328933.184470892</v>
       </c>
       <c r="E16" t="n">
-        <v>1338536.087087154</v>
+        <v>1351003.647521496</v>
       </c>
       <c r="F16" t="n">
         <v>1249796.444702622</v>
@@ -9536,16 +9536,16 @@
         <v>44927</v>
       </c>
       <c r="B17" t="n">
-        <v>1151938.851571055</v>
+        <v>1172916.255950015</v>
       </c>
       <c r="C17" t="n">
         <v>911042.9781594393</v>
       </c>
       <c r="D17" t="n">
-        <v>1326582.992441416</v>
+        <v>1337852.793574095</v>
       </c>
       <c r="E17" t="n">
-        <v>1300735.100810289</v>
+        <v>1338300.278798103</v>
       </c>
       <c r="F17" t="n">
         <v>1153196.502364391</v>
@@ -9556,16 +9556,16 @@
         <v>44958</v>
       </c>
       <c r="B18" t="n">
-        <v>1112039.923507411</v>
+        <v>1136711.22604169</v>
       </c>
       <c r="C18" t="n">
         <v>840986.0842959856</v>
       </c>
       <c r="D18" t="n">
-        <v>1341759.136802912</v>
+        <v>1292312.340689659</v>
       </c>
       <c r="E18" t="n">
-        <v>1247047.333907843</v>
+        <v>1355391.975552797</v>
       </c>
       <c r="F18" t="n">
         <v>1104523.021297441</v>
@@ -9576,16 +9576,16 @@
         <v>44986</v>
       </c>
       <c r="B19" t="n">
-        <v>1184874.237424061</v>
+        <v>1199776.619303842</v>
       </c>
       <c r="C19" t="n">
         <v>1016654.928907793</v>
       </c>
       <c r="D19" t="n">
-        <v>1310149.907320499</v>
+        <v>1310975.970365763</v>
       </c>
       <c r="E19" t="n">
-        <v>1285953.224237919</v>
+        <v>1320094.135553598</v>
       </c>
       <c r="F19" t="n">
         <v>1181481.792384498</v>
@@ -9596,16 +9596,16 @@
         <v>45017</v>
       </c>
       <c r="B20" t="n">
-        <v>1168338.041560259</v>
+        <v>1171809.09485587</v>
       </c>
       <c r="C20" t="n">
         <v>944263.2911370449</v>
       </c>
       <c r="D20" t="n">
-        <v>1345153.491606474</v>
+        <v>1320934.787516356</v>
       </c>
       <c r="E20" t="n">
-        <v>1304262.866217852</v>
+        <v>1319161.362375975</v>
       </c>
       <c r="F20" t="n">
         <v>1071596.372078709</v>
@@ -9616,16 +9616,16 @@
         <v>45047</v>
       </c>
       <c r="B21" t="n">
-        <v>1188439.528179987</v>
+        <v>1197518.182730426</v>
       </c>
       <c r="C21" t="n">
         <v>1032167.643175513</v>
       </c>
       <c r="D21" t="n">
-        <v>1320525.380284548</v>
+        <v>1294861.731083155</v>
       </c>
       <c r="E21" t="n">
-        <v>1272298.364480495</v>
+        <v>1314149.839831352</v>
       </c>
       <c r="F21" t="n">
         <v>1137950.738434617</v>
@@ -9636,16 +9636,16 @@
         <v>45078</v>
       </c>
       <c r="B22" t="n">
-        <v>1204201.380177498</v>
+        <v>1225667.138078246</v>
       </c>
       <c r="C22" t="n">
         <v>1072603.363461965</v>
       </c>
       <c r="D22" t="n">
-        <v>1332198.991642952</v>
+        <v>1322975.309127331</v>
       </c>
       <c r="E22" t="n">
-        <v>1252846.841505527</v>
+        <v>1322712.892120838</v>
       </c>
       <c r="F22" t="n">
         <v>1202866.003668486</v>
@@ -9656,16 +9656,16 @@
         <v>45108</v>
       </c>
       <c r="B23" t="n">
-        <v>1230871.423261762</v>
+        <v>1244590.967439909</v>
       </c>
       <c r="C23" t="n">
         <v>1130994.680279411</v>
       </c>
       <c r="D23" t="n">
-        <v>1325814.367524147</v>
+        <v>1292211.135809183</v>
       </c>
       <c r="E23" t="n">
-        <v>1265051.617916584</v>
+        <v>1336450.881181717</v>
       </c>
       <c r="F23" t="n">
         <v>1270281.903504328</v>
@@ -9676,16 +9676,16 @@
         <v>45139</v>
       </c>
       <c r="B24" t="n">
-        <v>1192348.414967364</v>
+        <v>1202067.670027412</v>
       </c>
       <c r="C24" t="n">
         <v>1027807.104642885</v>
       </c>
       <c r="D24" t="n">
-        <v>1340786.450549126</v>
+        <v>1287922.085820198</v>
       </c>
       <c r="E24" t="n">
-        <v>1263818.074477673</v>
+        <v>1334938.129718065</v>
       </c>
       <c r="F24" t="n">
         <v>1199318.994302101</v>
@@ -9696,16 +9696,16 @@
         <v>45170</v>
       </c>
       <c r="B25" t="n">
-        <v>1108339.573889842</v>
+        <v>1113261.291341181</v>
       </c>
       <c r="C25" t="n">
         <v>827740.0790805862</v>
       </c>
       <c r="D25" t="n">
-        <v>1308936.549805164</v>
+        <v>1258041.046658516</v>
       </c>
       <c r="E25" t="n">
-        <v>1284929.430895805</v>
+        <v>1327103.055236101</v>
       </c>
       <c r="F25" t="n">
         <v>1106443.890426653</v>
@@ -9716,16 +9716,16 @@
         <v>45200</v>
       </c>
       <c r="B26" t="n">
-        <v>1176946.091446302</v>
+        <v>1181471.96674383</v>
       </c>
       <c r="C26" t="n">
         <v>972047.6119460586</v>
       </c>
       <c r="D26" t="n">
-        <v>1319721.246492624</v>
+        <v>1314237.006319523</v>
       </c>
       <c r="E26" t="n">
-        <v>1303137.225715876</v>
+        <v>1305699.645205498</v>
       </c>
       <c r="F26" t="n">
         <v>1228493.051414931</v>
@@ -9736,16 +9736,16 @@
         <v>45231</v>
       </c>
       <c r="B27" t="n">
-        <v>1160078.59712209</v>
+        <v>1158734.631655649</v>
       </c>
       <c r="C27" t="n">
         <v>933696.1773781833</v>
       </c>
       <c r="D27" t="n">
-        <v>1303051.343786478</v>
+        <v>1301731.276138783</v>
       </c>
       <c r="E27" t="n">
-        <v>1317177.544859409</v>
+        <v>1293579.190902472</v>
       </c>
       <c r="F27" t="n">
         <v>1194460.678753387</v>
@@ -9756,16 +9756,16 @@
         <v>45261</v>
       </c>
       <c r="B28" t="n">
-        <v>1184886.800068675</v>
+        <v>1190191.416099313</v>
       </c>
       <c r="C28" t="n">
         <v>997163.0093521329</v>
       </c>
       <c r="D28" t="n">
-        <v>1321014.338406086</v>
+        <v>1290673.610712051</v>
       </c>
       <c r="E28" t="n">
-        <v>1294106.961049795</v>
+        <v>1325882.35738492</v>
       </c>
       <c r="F28" t="n">
         <v>1240468.799917643</v>
@@ -9776,16 +9776,16 @@
         <v>45292</v>
       </c>
       <c r="B29" t="n">
-        <v>1131761.010193379</v>
+        <v>1151536.953640533</v>
       </c>
       <c r="C29" t="n">
         <v>867584.5562597736</v>
       </c>
       <c r="D29" t="n">
-        <v>1324035.437131882</v>
+        <v>1344578.376292944</v>
       </c>
       <c r="E29" t="n">
-        <v>1292119.473365307</v>
+        <v>1314351.056787729</v>
       </c>
       <c r="F29" t="n">
         <v>1149914.524549843</v>
@@ -9796,16 +9796,16 @@
         <v>45323</v>
       </c>
       <c r="B30" t="n">
-        <v>1090562.234791195</v>
+        <v>1099272.951703289</v>
       </c>
       <c r="C30" t="n">
         <v>797923.118819838</v>
       </c>
       <c r="D30" t="n">
-        <v>1332167.244690418</v>
+        <v>1290779.770319223</v>
       </c>
       <c r="E30" t="n">
-        <v>1240245.044679403</v>
+        <v>1284840.704586267</v>
       </c>
       <c r="F30" t="n">
         <v>1103160.166103928</v>
@@ -9816,16 +9816,16 @@
         <v>45352</v>
       </c>
       <c r="B31" t="n">
-        <v>1181557.522376361</v>
+        <v>1188431.64661635</v>
       </c>
       <c r="C31" t="n">
         <v>1001335.013865733</v>
       </c>
       <c r="D31" t="n">
-        <v>1325619.573361635</v>
+        <v>1315188.589107752</v>
       </c>
       <c r="E31" t="n">
-        <v>1280006.818169117</v>
+        <v>1297315.697110653</v>
       </c>
       <c r="F31" t="n">
         <v>1177151.177785314</v>
@@ -9836,16 +9836,16 @@
         <v>45383</v>
       </c>
       <c r="B32" t="n">
-        <v>1134403.576005045</v>
+        <v>1139602.093477151</v>
       </c>
       <c r="C32" t="n">
         <v>892741.818635744</v>
       </c>
       <c r="D32" t="n">
-        <v>1329799.160592318</v>
+        <v>1308693.951705456</v>
       </c>
       <c r="E32" t="n">
-        <v>1271060.416840076</v>
+        <v>1287387.801124811</v>
       </c>
       <c r="F32" t="n">
         <v>1072371.741406494</v>
@@ -9856,16 +9856,16 @@
         <v>45413</v>
       </c>
       <c r="B33" t="n">
-        <v>1160866.21773962</v>
+        <v>1165554.65472712</v>
       </c>
       <c r="C33" t="n">
         <v>970482.3984224815</v>
       </c>
       <c r="D33" t="n">
-        <v>1316015.84495759</v>
+        <v>1294944.585124016</v>
       </c>
       <c r="E33" t="n">
-        <v>1264328.227818966</v>
+        <v>1283868.660611868</v>
       </c>
       <c r="F33" t="n">
         <v>1136214.618807078</v>
@@ -9876,16 +9876,16 @@
         <v>45444</v>
       </c>
       <c r="B34" t="n">
-        <v>1186740.621318059</v>
+        <v>1198795.24170575</v>
       </c>
       <c r="C34" t="n">
         <v>1028405.166160821</v>
       </c>
       <c r="D34" t="n">
-        <v>1324994.819026947</v>
+        <v>1309184.469648361</v>
       </c>
       <c r="E34" t="n">
-        <v>1259669.591920137</v>
+        <v>1302025.715360403</v>
       </c>
       <c r="F34" t="n">
         <v>1197295.508752041</v>
@@ -9896,16 +9896,16 @@
         <v>45474</v>
       </c>
       <c r="B35" t="n">
-        <v>1195022.274238249</v>
+        <v>1209210.776452752</v>
       </c>
       <c r="C35" t="n">
         <v>1089871.107064312</v>
       </c>
       <c r="D35" t="n">
-        <v>1303625.266295433</v>
+        <v>1278669.500732183</v>
       </c>
       <c r="E35" t="n">
-        <v>1219147.267882586</v>
+        <v>1283250.329071045</v>
       </c>
       <c r="F35" t="n">
         <v>1262064.967049131</v>
@@ -9916,16 +9916,16 @@
         <v>45505</v>
       </c>
       <c r="B36" t="n">
-        <v>1169077.517085374</v>
+        <v>1172111.841668228</v>
       </c>
       <c r="C36" t="n">
         <v>996075.9628164764</v>
       </c>
       <c r="D36" t="n">
-        <v>1288711.630694628</v>
+        <v>1296591.389471054</v>
       </c>
       <c r="E36" t="n">
-        <v>1278795.112229347</v>
+        <v>1265578.745784521</v>
       </c>
       <c r="F36" t="n">
         <v>1194284.782417555</v>
@@ -9936,16 +9936,16 @@
         <v>45536</v>
       </c>
       <c r="B37" t="n">
-        <v>1085886.150352833</v>
+        <v>1093512.522665068</v>
       </c>
       <c r="C37" t="n">
         <v>786317.0369747566</v>
       </c>
       <c r="D37" t="n">
-        <v>1276958.284938097</v>
+        <v>1289825.893676043</v>
       </c>
       <c r="E37" t="n">
-        <v>1294879.714905977</v>
+        <v>1280505.226973057</v>
       </c>
       <c r="F37" t="n">
         <v>1106924.579893974</v>
@@ -9956,16 +9956,16 @@
         <v>45566</v>
       </c>
       <c r="B38" t="n">
-        <v>1142581.558989657</v>
+        <v>1142697.888467156</v>
       </c>
       <c r="C38" t="n">
         <v>926119.7779288591</v>
       </c>
       <c r="D38" t="n">
-        <v>1283510.635730982</v>
+        <v>1250447.65273428</v>
       </c>
       <c r="E38" t="n">
-        <v>1282790.548784494</v>
+        <v>1297311.751680136</v>
       </c>
       <c r="F38" t="n">
         <v>1222275.364939007</v>
@@ -9976,16 +9976,16 @@
         <v>45597</v>
       </c>
       <c r="B39" t="n">
-        <v>1133073.392816146</v>
+        <v>1133793.730275512</v>
       </c>
       <c r="C39" t="n">
         <v>888332.8863462904</v>
       </c>
       <c r="D39" t="n">
-        <v>1319587.835888624</v>
+        <v>1300401.482546091</v>
       </c>
       <c r="E39" t="n">
-        <v>1268167.773991585</v>
+        <v>1268152.909811497</v>
       </c>
       <c r="F39" t="n">
         <v>1190668.589798859</v>

--- a/fcst_results/orig_series_IAH-Dom_results.xlsx
+++ b/fcst_results/orig_series_IAH-Dom_results.xlsx
@@ -479,10 +479,10 @@
         <v>44470</v>
       </c>
       <c r="B2" t="n">
-        <v>1290658.287760973</v>
+        <v>1307838.527316809</v>
       </c>
       <c r="C2" t="n">
-        <v>1310350.665505886</v>
+        <v>1314139.93037796</v>
       </c>
       <c r="D2" t="n">
         <v>1347792.900415261</v>
@@ -491,7 +491,7 @@
         <v>1057111.739627392</v>
       </c>
       <c r="F2" t="n">
-        <v>1211546.308557985</v>
+        <v>1215224.983253838</v>
       </c>
     </row>
     <row r="3">
@@ -499,10 +499,10 @@
         <v>44501</v>
       </c>
       <c r="B3" t="n">
-        <v>1294532.884037256</v>
+        <v>1291034.204710484</v>
       </c>
       <c r="C3" t="n">
-        <v>1317793.12377429</v>
+        <v>1337717.272623539</v>
       </c>
       <c r="D3" t="n">
         <v>1298344.021334112</v>
@@ -511,7 +511,7 @@
         <v>1019108.227142296</v>
       </c>
       <c r="F3" t="n">
-        <v>1199095.539001358</v>
+        <v>1200695.330945351</v>
       </c>
     </row>
     <row r="4">
@@ -519,10 +519,10 @@
         <v>44531</v>
       </c>
       <c r="B4" t="n">
-        <v>1315690.39281702</v>
+        <v>1339006.786123276</v>
       </c>
       <c r="C4" t="n">
-        <v>1342441.788036585</v>
+        <v>1305540.543426037</v>
       </c>
       <c r="D4" t="n">
         <v>1356420.000567853</v>
@@ -531,7 +531,7 @@
         <v>1075661.78528517</v>
       </c>
       <c r="F4" t="n">
-        <v>1235712.517828663</v>
+        <v>1229455.838294964</v>
       </c>
     </row>
     <row r="5">
@@ -539,10 +539,10 @@
         <v>44562</v>
       </c>
       <c r="B5" t="n">
-        <v>1350363.386727333</v>
+        <v>1340729.746454716</v>
       </c>
       <c r="C5" t="n">
-        <v>1312253.372311354</v>
+        <v>1331103.905288935</v>
       </c>
       <c r="D5" t="n">
         <v>1246429.385679257</v>
@@ -551,7 +551,7 @@
         <v>954410.4069234929</v>
       </c>
       <c r="F5" t="n">
-        <v>1188163.683969016</v>
+        <v>1187106.959418585</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         <v>44593</v>
       </c>
       <c r="B6" t="n">
-        <v>1332934.76855731</v>
+        <v>1346133.151179314</v>
       </c>
       <c r="C6" t="n">
-        <v>1336031.748004913</v>
+        <v>1342401.783206224</v>
       </c>
       <c r="D6" t="n">
         <v>1198825.148344165</v>
@@ -571,7 +571,7 @@
         <v>883969.0031716685</v>
       </c>
       <c r="F6" t="n">
-        <v>1162252.777169714</v>
+        <v>1163370.410014224</v>
       </c>
     </row>
     <row r="7">
@@ -579,10 +579,10 @@
         <v>44621</v>
       </c>
       <c r="B7" t="n">
-        <v>1316666.198713541</v>
+        <v>1334078.301127911</v>
       </c>
       <c r="C7" t="n">
-        <v>1306881.164014101</v>
+        <v>1352935.073390961</v>
       </c>
       <c r="D7" t="n">
         <v>1243938.058940163</v>
@@ -591,7 +591,7 @@
         <v>1069371.750742973</v>
       </c>
       <c r="F7" t="n">
-        <v>1219271.289998769</v>
+        <v>1235182.779247027</v>
       </c>
     </row>
     <row r="8">
@@ -599,10 +599,10 @@
         <v>44652</v>
       </c>
       <c r="B8" t="n">
-        <v>1333570.074624777</v>
+        <v>1329774.478713036</v>
       </c>
       <c r="C8" t="n">
-        <v>1333878.368730307</v>
+        <v>1308068.830353975</v>
       </c>
       <c r="D8" t="n">
         <v>1109656.530928148</v>
@@ -611,7 +611,7 @@
         <v>984689.8680264672</v>
       </c>
       <c r="F8" t="n">
-        <v>1196263.451049419</v>
+        <v>1184093.774048613</v>
       </c>
     </row>
     <row r="9">
@@ -619,10 +619,10 @@
         <v>44682</v>
       </c>
       <c r="B9" t="n">
-        <v>1303629.395234346</v>
+        <v>1332802.550757885</v>
       </c>
       <c r="C9" t="n">
-        <v>1352758.35480547</v>
+        <v>1309127.582045555</v>
       </c>
       <c r="D9" t="n">
         <v>1170828.907684048</v>
@@ -631,7 +631,7 @@
         <v>1069481.52140316</v>
       </c>
       <c r="F9" t="n">
-        <v>1226630.288359855</v>
+        <v>1219820.273421651</v>
       </c>
     </row>
     <row r="10">
@@ -639,10 +639,10 @@
         <v>44713</v>
       </c>
       <c r="B10" t="n">
-        <v>1304762.743088961</v>
+        <v>1291917.981146336</v>
       </c>
       <c r="C10" t="n">
-        <v>1322907.044003963</v>
+        <v>1315839.493388891</v>
       </c>
       <c r="D10" t="n">
         <v>1225790.349169269</v>
@@ -651,7 +651,7 @@
         <v>1115862.616357288</v>
       </c>
       <c r="F10" t="n">
-        <v>1237199.2751068</v>
+        <v>1229171.569933584</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +659,10 @@
         <v>44743</v>
       </c>
       <c r="B11" t="n">
-        <v>1326363.241137028</v>
+        <v>1305655.327927828</v>
       </c>
       <c r="C11" t="n">
-        <v>1315097.568943262</v>
+        <v>1316436.446201563</v>
       </c>
       <c r="D11" t="n">
         <v>1270634.899421986</v>
@@ -671,7 +671,7 @@
         <v>1175289.75699975</v>
       </c>
       <c r="F11" t="n">
-        <v>1264907.997327664</v>
+        <v>1257701.607124263</v>
       </c>
     </row>
     <row r="12">
@@ -679,10 +679,10 @@
         <v>44774</v>
       </c>
       <c r="B12" t="n">
-        <v>1341854.744677305</v>
+        <v>1339965.25047636</v>
       </c>
       <c r="C12" t="n">
-        <v>1322792.167747974</v>
+        <v>1327236.741102695</v>
       </c>
       <c r="D12" t="n">
         <v>1209312.264306093</v>
@@ -691,7 +691,7 @@
         <v>1075114.972014124</v>
       </c>
       <c r="F12" t="n">
-        <v>1232439.003660823</v>
+        <v>1230606.195732811</v>
       </c>
     </row>
     <row r="13">
@@ -699,10 +699,10 @@
         <v>44805</v>
       </c>
       <c r="B13" t="n">
-        <v>1329026.498490334</v>
+        <v>1318626.802417994</v>
       </c>
       <c r="C13" t="n">
-        <v>1346901.225571394</v>
+        <v>1345002.188933849</v>
       </c>
       <c r="D13" t="n">
         <v>1108396.293617264</v>
@@ -711,7 +711,7 @@
         <v>871638.2891642457</v>
       </c>
       <c r="F13" t="n">
-        <v>1156682.150694942</v>
+        <v>1148056.833845486</v>
       </c>
     </row>
     <row r="14">
@@ -719,10 +719,10 @@
         <v>44835</v>
       </c>
       <c r="B14" t="n">
-        <v>1344147.223316193</v>
+        <v>1329592.163121462</v>
       </c>
       <c r="C14" t="n">
-        <v>1285188.452996969</v>
+        <v>1337208.587349415</v>
       </c>
       <c r="D14" t="n">
         <v>1237766.473044301</v>
@@ -731,7 +731,7 @@
         <v>1014560.360414656</v>
       </c>
       <c r="F14" t="n">
-        <v>1200354.908369697</v>
+        <v>1208206.565740119</v>
       </c>
     </row>
     <row r="15">
@@ -739,10 +739,10 @@
         <v>44866</v>
       </c>
       <c r="B15" t="n">
-        <v>1341310.091757536</v>
+        <v>1318430.907205105</v>
       </c>
       <c r="C15" t="n">
-        <v>1327021.210491419</v>
+        <v>1346007.906698942</v>
       </c>
       <c r="D15" t="n">
         <v>1200636.272540732</v>
@@ -751,7 +751,7 @@
         <v>976368.9218259578</v>
       </c>
       <c r="F15" t="n">
-        <v>1196497.9329242</v>
+        <v>1191504.189581265</v>
       </c>
     </row>
     <row r="16">
@@ -759,10 +759,10 @@
         <v>44896</v>
       </c>
       <c r="B16" t="n">
-        <v>1351003.647521496</v>
+        <v>1334422.929895878</v>
       </c>
       <c r="C16" t="n">
-        <v>1328933.184470892</v>
+        <v>1320026.787972212</v>
       </c>
       <c r="D16" t="n">
         <v>1249796.444702622</v>
@@ -771,7 +771,7 @@
         <v>1036449.257176335</v>
       </c>
       <c r="F16" t="n">
-        <v>1223960.076342781</v>
+        <v>1213531.604011212</v>
       </c>
     </row>
     <row r="17">
@@ -779,10 +779,10 @@
         <v>44927</v>
       </c>
       <c r="B17" t="n">
-        <v>1338300.278798103</v>
+        <v>1363501.395087004</v>
       </c>
       <c r="C17" t="n">
-        <v>1337852.793574095</v>
+        <v>1327713.128899097</v>
       </c>
       <c r="D17" t="n">
         <v>1153196.502364391</v>
@@ -791,7 +791,7 @@
         <v>911042.9781594393</v>
       </c>
       <c r="F17" t="n">
-        <v>1172916.255950015</v>
+        <v>1173123.004089883</v>
       </c>
     </row>
     <row r="18">
@@ -799,10 +799,10 @@
         <v>44958</v>
       </c>
       <c r="B18" t="n">
-        <v>1355391.975552797</v>
+        <v>1330388.589560747</v>
       </c>
       <c r="C18" t="n">
-        <v>1292312.340689659</v>
+        <v>1316784.011103868</v>
       </c>
       <c r="D18" t="n">
         <v>1104523.021297441</v>
@@ -811,7 +811,7 @@
         <v>840986.0842959856</v>
       </c>
       <c r="F18" t="n">
-        <v>1136711.22604169</v>
+        <v>1131676.279659655</v>
       </c>
     </row>
     <row r="19">
@@ -819,10 +819,10 @@
         <v>44986</v>
       </c>
       <c r="B19" t="n">
-        <v>1320094.135553598</v>
+        <v>1334289.42753768</v>
       </c>
       <c r="C19" t="n">
-        <v>1310975.970365763</v>
+        <v>1323047.519681215</v>
       </c>
       <c r="D19" t="n">
         <v>1181481.792384498</v>
@@ -831,7 +831,7 @@
         <v>1016654.928907793</v>
       </c>
       <c r="F19" t="n">
-        <v>1199776.619303842</v>
+        <v>1204416.826496448</v>
       </c>
     </row>
     <row r="20">
@@ -839,10 +839,10 @@
         <v>45017</v>
       </c>
       <c r="B20" t="n">
-        <v>1319161.362375975</v>
+        <v>1347515.519927502</v>
       </c>
       <c r="C20" t="n">
-        <v>1320934.787516356</v>
+        <v>1297481.313438177</v>
       </c>
       <c r="D20" t="n">
         <v>1071596.372078709</v>
@@ -851,7 +851,7 @@
         <v>944263.2911370449</v>
       </c>
       <c r="F20" t="n">
-        <v>1171809.09485587</v>
+        <v>1169598.730863536</v>
       </c>
     </row>
     <row r="21">
@@ -859,10 +859,10 @@
         <v>45047</v>
       </c>
       <c r="B21" t="n">
-        <v>1314149.839831352</v>
+        <v>1316691.064101219</v>
       </c>
       <c r="C21" t="n">
-        <v>1294861.731083155</v>
+        <v>1276836.985888243</v>
       </c>
       <c r="D21" t="n">
         <v>1137950.738434617</v>
@@ -871,7 +871,7 @@
         <v>1032167.643175513</v>
       </c>
       <c r="F21" t="n">
-        <v>1197518.182730426</v>
+        <v>1190414.586281943</v>
       </c>
     </row>
     <row r="22">
@@ -879,10 +879,10 @@
         <v>45078</v>
       </c>
       <c r="B22" t="n">
-        <v>1322712.892120838</v>
+        <v>1314169.658738136</v>
       </c>
       <c r="C22" t="n">
-        <v>1322975.309127331</v>
+        <v>1283778.649743557</v>
       </c>
       <c r="D22" t="n">
         <v>1202866.003668486</v>
@@ -891,7 +891,7 @@
         <v>1072603.363461965</v>
       </c>
       <c r="F22" t="n">
-        <v>1225667.138078246</v>
+        <v>1209345.380814952</v>
       </c>
     </row>
     <row r="23">
@@ -899,10 +899,10 @@
         <v>45108</v>
       </c>
       <c r="B23" t="n">
-        <v>1336450.881181717</v>
+        <v>1289993.345087528</v>
       </c>
       <c r="C23" t="n">
-        <v>1292211.135809183</v>
+        <v>1334621.02720952</v>
       </c>
       <c r="D23" t="n">
         <v>1270281.903504328</v>
@@ -911,7 +911,7 @@
         <v>1130994.680279411</v>
       </c>
       <c r="F23" t="n">
-        <v>1244590.967439909</v>
+        <v>1241277.172707813</v>
       </c>
     </row>
     <row r="24">
@@ -919,10 +919,10 @@
         <v>45139</v>
       </c>
       <c r="B24" t="n">
-        <v>1334938.129718065</v>
+        <v>1335668.034363747</v>
       </c>
       <c r="C24" t="n">
-        <v>1287922.085820198</v>
+        <v>1327780.20121789</v>
       </c>
       <c r="D24" t="n">
         <v>1199318.994302101</v>
@@ -931,7 +931,7 @@
         <v>1027807.104642885</v>
       </c>
       <c r="F24" t="n">
-        <v>1202067.670027412</v>
+        <v>1211057.248265326</v>
       </c>
     </row>
     <row r="25">
@@ -939,10 +939,10 @@
         <v>45170</v>
       </c>
       <c r="B25" t="n">
-        <v>1327103.055236101</v>
+        <v>1324442.550508738</v>
       </c>
       <c r="C25" t="n">
-        <v>1258041.046658516</v>
+        <v>1350819.863862753</v>
       </c>
       <c r="D25" t="n">
         <v>1106443.890426653</v>
@@ -951,7 +951,7 @@
         <v>827740.0790805862</v>
       </c>
       <c r="F25" t="n">
-        <v>1113261.291341181</v>
+        <v>1134608.705696406</v>
       </c>
     </row>
     <row r="26">
@@ -959,10 +959,10 @@
         <v>45200</v>
       </c>
       <c r="B26" t="n">
-        <v>1305699.645205498</v>
+        <v>1345540.969584942</v>
       </c>
       <c r="C26" t="n">
-        <v>1314237.006319523</v>
+        <v>1324654.594460487</v>
       </c>
       <c r="D26" t="n">
         <v>1228493.051414931</v>
@@ -971,7 +971,7 @@
         <v>972047.6119460586</v>
       </c>
       <c r="F26" t="n">
-        <v>1181471.96674383</v>
+        <v>1192819.465140053</v>
       </c>
     </row>
     <row r="27">
@@ -979,10 +979,10 @@
         <v>45231</v>
       </c>
       <c r="B27" t="n">
-        <v>1293579.190902472</v>
+        <v>1314020.099395275</v>
       </c>
       <c r="C27" t="n">
-        <v>1301731.276138783</v>
+        <v>1316488.562586069</v>
       </c>
       <c r="D27" t="n">
         <v>1194460.678753387</v>
@@ -991,7 +991,7 @@
         <v>933696.1773781833</v>
       </c>
       <c r="F27" t="n">
-        <v>1158734.631655649</v>
+        <v>1165257.406102471</v>
       </c>
     </row>
     <row r="28">
@@ -999,10 +999,10 @@
         <v>45261</v>
       </c>
       <c r="B28" t="n">
-        <v>1325882.35738492</v>
+        <v>1317327.379464865</v>
       </c>
       <c r="C28" t="n">
-        <v>1290673.610712051</v>
+        <v>1311516.494346619</v>
       </c>
       <c r="D28" t="n">
         <v>1240468.799917643</v>
@@ -1011,7 +1011,7 @@
         <v>997163.0093521329</v>
       </c>
       <c r="F28" t="n">
-        <v>1190191.416099313</v>
+        <v>1190673.989344995</v>
       </c>
     </row>
     <row r="29">
@@ -1019,10 +1019,10 @@
         <v>45292</v>
       </c>
       <c r="B29" t="n">
-        <v>1314351.056787729</v>
+        <v>1322030.791412354</v>
       </c>
       <c r="C29" t="n">
-        <v>1344578.376292944</v>
+        <v>1304524.273928165</v>
       </c>
       <c r="D29" t="n">
         <v>1149914.524549843</v>
@@ -1031,7 +1031,7 @@
         <v>867584.5562597736</v>
       </c>
       <c r="F29" t="n">
-        <v>1151536.953640533</v>
+        <v>1137429.439504247</v>
       </c>
     </row>
     <row r="30">
@@ -1039,10 +1039,10 @@
         <v>45323</v>
       </c>
       <c r="B30" t="n">
-        <v>1284840.704586267</v>
+        <v>1288188.264748812</v>
       </c>
       <c r="C30" t="n">
-        <v>1290779.770319223</v>
+        <v>1300524.157908916</v>
       </c>
       <c r="D30" t="n">
         <v>1103160.166103928</v>
@@ -1051,7 +1051,7 @@
         <v>797923.118819838</v>
       </c>
       <c r="F30" t="n">
-        <v>1099272.951703289</v>
+        <v>1097957.551176961</v>
       </c>
     </row>
     <row r="31">
@@ -1059,10 +1059,10 @@
         <v>45352</v>
       </c>
       <c r="B31" t="n">
-        <v>1297315.697110653</v>
+        <v>1280894.264772892</v>
       </c>
       <c r="C31" t="n">
-        <v>1315188.589107752</v>
+        <v>1295488.412256002</v>
       </c>
       <c r="D31" t="n">
         <v>1177151.177785314</v>
@@ -1071,7 +1071,7 @@
         <v>1001335.013865733</v>
       </c>
       <c r="F31" t="n">
-        <v>1188431.64661635</v>
+        <v>1174636.570677281</v>
       </c>
     </row>
     <row r="32">
@@ -1079,10 +1079,10 @@
         <v>45383</v>
       </c>
       <c r="B32" t="n">
-        <v>1287387.801124811</v>
+        <v>1283594.040297031</v>
       </c>
       <c r="C32" t="n">
-        <v>1308693.951705456</v>
+        <v>1279908.641177177</v>
       </c>
       <c r="D32" t="n">
         <v>1072371.741406494</v>
@@ -1091,7 +1091,7 @@
         <v>892741.818635744</v>
       </c>
       <c r="F32" t="n">
-        <v>1139602.093477151</v>
+        <v>1125871.087535722</v>
       </c>
     </row>
     <row r="33">
@@ -1099,10 +1099,10 @@
         <v>45413</v>
       </c>
       <c r="B33" t="n">
-        <v>1283868.660611868</v>
+        <v>1295327.383638382</v>
       </c>
       <c r="C33" t="n">
-        <v>1294944.585124016</v>
+        <v>1281265.961029291</v>
       </c>
       <c r="D33" t="n">
         <v>1136214.618807078</v>
@@ -1111,7 +1111,7 @@
         <v>970482.3984224815</v>
       </c>
       <c r="F33" t="n">
-        <v>1165554.65472712</v>
+        <v>1161677.282055685</v>
       </c>
     </row>
     <row r="34">
@@ -1119,10 +1119,10 @@
         <v>45444</v>
       </c>
       <c r="B34" t="n">
-        <v>1302025.715360403</v>
+        <v>1276032.668587923</v>
       </c>
       <c r="C34" t="n">
-        <v>1309184.469648361</v>
+        <v>1282429.679523468</v>
       </c>
       <c r="D34" t="n">
         <v>1197295.508752041</v>
@@ -1131,7 +1131,7 @@
         <v>1028405.166160821</v>
       </c>
       <c r="F34" t="n">
-        <v>1198795.24170575</v>
+        <v>1180507.866429185</v>
       </c>
     </row>
     <row r="35">
@@ -1139,10 +1139,10 @@
         <v>45474</v>
       </c>
       <c r="B35" t="n">
-        <v>1283250.329071045</v>
+        <v>1294546.096641779</v>
       </c>
       <c r="C35" t="n">
-        <v>1278669.500732183</v>
+        <v>1301950.476917982</v>
       </c>
       <c r="D35" t="n">
         <v>1262064.967049131</v>
@@ -1151,7 +1151,7 @@
         <v>1089871.107064312</v>
       </c>
       <c r="F35" t="n">
-        <v>1209210.776452752</v>
+        <v>1217326.261131451</v>
       </c>
     </row>
     <row r="36">
@@ -1159,10 +1159,10 @@
         <v>45505</v>
       </c>
       <c r="B36" t="n">
-        <v>1265578.745784521</v>
+        <v>1297463.146106958</v>
       </c>
       <c r="C36" t="n">
-        <v>1296591.389471054</v>
+        <v>1291060.354656935</v>
       </c>
       <c r="D36" t="n">
         <v>1194284.782417555</v>
@@ -1171,7 +1171,7 @@
         <v>996075.9628164764</v>
       </c>
       <c r="F36" t="n">
-        <v>1172111.841668228</v>
+        <v>1176901.216686602</v>
       </c>
     </row>
     <row r="37">
@@ -1179,10 +1179,10 @@
         <v>45536</v>
       </c>
       <c r="B37" t="n">
-        <v>1280505.226973057</v>
+        <v>1276674.122186661</v>
       </c>
       <c r="C37" t="n">
-        <v>1289825.893676043</v>
+        <v>1331011.23354888</v>
       </c>
       <c r="D37" t="n">
         <v>1106924.579893974</v>
@@ -1191,7 +1191,7 @@
         <v>786317.0369747566</v>
       </c>
       <c r="F37" t="n">
-        <v>1093512.522665068</v>
+        <v>1098908.824382021</v>
       </c>
     </row>
     <row r="38">
@@ -1199,10 +1199,10 @@
         <v>45566</v>
       </c>
       <c r="B38" t="n">
-        <v>1297311.751680136</v>
+        <v>1280374.385486603</v>
       </c>
       <c r="C38" t="n">
-        <v>1250447.65273428</v>
+        <v>1313655.468212128</v>
       </c>
       <c r="D38" t="n">
         <v>1222275.364939007</v>
@@ -1211,7 +1211,7 @@
         <v>926119.7779288591</v>
       </c>
       <c r="F38" t="n">
-        <v>1142697.888467156</v>
+        <v>1152488.221760281</v>
       </c>
     </row>
     <row r="39">
@@ -1219,10 +1219,10 @@
         <v>45597</v>
       </c>
       <c r="B39" t="n">
-        <v>1268152.909811497</v>
+        <v>1303895.207146168</v>
       </c>
       <c r="C39" t="n">
-        <v>1300401.482546091</v>
+        <v>1304899.456844091</v>
       </c>
       <c r="D39" t="n">
         <v>1190668.589798859</v>
@@ -1231,7 +1231,7 @@
         <v>888332.8863462904</v>
       </c>
       <c r="F39" t="n">
-        <v>1133793.730275512</v>
+        <v>1141471.383418109</v>
       </c>
     </row>
   </sheetData>
@@ -1452,19 +1452,19 @@
         <v>74</v>
       </c>
       <c r="K2" t="n">
-        <v>367518.7754264147</v>
+        <v>367559.6794466489</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5931639702427994</v>
+        <v>0.5937184491186042</v>
       </c>
       <c r="M2" t="n">
-        <v>217841.6404862554</v>
+        <v>216977.3702939822</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.1525082756502592</v>
+        <v>-0.1527648331291784</v>
       </c>
       <c r="O2" t="n">
-        <v>1266899.805340369</v>
+        <v>1264106.269881393</v>
       </c>
       <c r="P2" t="n">
         <v>1208889</v>
@@ -1473,19 +1473,19 @@
         <v>0.95</v>
       </c>
       <c r="R2" t="n">
-        <v>286748.0033899179</v>
+        <v>423725.4834820167</v>
       </c>
       <c r="S2" t="n">
-        <v>207456.4333823263</v>
+        <v>207006.5247818041</v>
       </c>
       <c r="T2" t="n">
-        <v>0.2231711537628974</v>
+        <v>0.2224357474959508</v>
       </c>
       <c r="U2" t="n">
-        <v>120104.472129366</v>
+        <v>119690.5615605275</v>
       </c>
       <c r="V2" t="n">
-        <v>0.2481183362292271</v>
+        <v>0.2513759957925761</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
@@ -1493,25 +1493,25 @@
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>['prophet', 'lstm', 'lstm_reg', 'arima']</t>
+          <t>['prophet', 'lstm_reg', 'lstm', 'arima']</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>(0.3721153800160033, 0.2976529992471939, 0.29640294982625703, 0.033828670910545755)</t>
+          <t>(0.38207787828831286, 0.2981995358787721, 0.2849882332612502, 0.0347343525716648)</t>
         </is>
       </c>
       <c r="AC2" t="n">
-        <v>367518.7754264147</v>
+        <v>367559.6794466489</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.5931639702427994</v>
+        <v>0.5937184491186042</v>
       </c>
       <c r="AE2" t="n">
-        <v>217841.6404862554</v>
+        <v>216977.3702939822</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.1525082756502592</v>
+        <v>-0.1527648331291784</v>
       </c>
       <c r="AG2" t="b">
         <v>1</v>
@@ -1572,7 +1572,7 @@
         <v>0.95</v>
       </c>
       <c r="R3" t="n">
-        <v>452490.5052793503</v>
+        <v>375955.2623922906</v>
       </c>
       <c r="S3" t="n">
         <v>182502.3521054634</v>
@@ -1613,7 +1613,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>lstm_reg</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1624,7 +1624,7 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'lags': 36, 'epochs': 50, 'validation_split': 0.2, 'shuffle': True, 'hidden_layers_struct': {'lstm': {'units': 72, 'dropout': 0}}, 'verbose': 0, 'random_seed': 1}</t>
+          <t>{'lags': 36, 'epochs': 50, 'validation_split': 0.2, 'shuffle': True, 'hidden_layers_struct': {'lstm': {'units': 72, 'dropout': 0.2}}, 'verbose': 0, 'random_seed': 1}</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1648,19 +1648,19 @@
         <v>74</v>
       </c>
       <c r="K4" t="n">
-        <v>371238.7164114352</v>
+        <v>371797.9253098427</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6031487115468043</v>
+        <v>0.6039853206769626</v>
       </c>
       <c r="M4" t="n">
-        <v>239747.160870784</v>
+        <v>239228.7391904367</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.1759572007385088</v>
+        <v>-0.1795026338418384</v>
       </c>
       <c r="O4" t="n">
-        <v>1328672.015621185</v>
+        <v>1328077.757545471</v>
       </c>
       <c r="P4" t="n">
         <v>1208889</v>
@@ -1669,19 +1669,19 @@
         <v>0.95</v>
       </c>
       <c r="R4" t="n">
-        <v>454606.4966175871</v>
+        <v>459669.5373308897</v>
       </c>
       <c r="S4" t="n">
-        <v>239406.0305777734</v>
+        <v>240765.2130271242</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2570623135716903</v>
+        <v>0.2583820134614749</v>
       </c>
       <c r="U4" t="n">
-        <v>141890.9648280369</v>
+        <v>145782.5900646504</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.001303770082354161</v>
+        <v>-0.01270546943270157</v>
       </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
@@ -1692,16 +1692,16 @@
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="n">
-        <v>371238.7164114352</v>
+        <v>371797.9253098427</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.6031487115468043</v>
+        <v>0.6039853206769626</v>
       </c>
       <c r="AE4" t="n">
-        <v>239747.160870784</v>
+        <v>239228.7391904367</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.1759572007385088</v>
+        <v>-0.1795026338418384</v>
       </c>
       <c r="AG4" t="b">
         <v>0</v>
@@ -1710,7 +1710,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>lstm_reg</t>
+          <t>lstm</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1721,7 +1721,7 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'lags': 36, 'epochs': 50, 'validation_split': 0.2, 'shuffle': True, 'hidden_layers_struct': {'lstm': {'units': 72, 'dropout': 0.2}}, 'verbose': 0, 'random_seed': 1}</t>
+          <t>{'lags': 36, 'epochs': 50, 'validation_split': 0.2, 'shuffle': True, 'hidden_layers_struct': {'lstm': {'units': 72, 'dropout': 0}}, 'verbose': 0, 'random_seed': 1}</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1745,19 +1745,19 @@
         <v>74</v>
       </c>
       <c r="K5" t="n">
-        <v>371871.1030461728</v>
+        <v>371188.6693435474</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6032933817640902</v>
+        <v>0.6054744188061221</v>
       </c>
       <c r="M5" t="n">
-        <v>240078.7161212096</v>
+        <v>239853.0918652818</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.179966981924564</v>
+        <v>-0.1756401581444771</v>
       </c>
       <c r="O5" t="n">
-        <v>1328141.913982391</v>
+        <v>1324728.501018524</v>
       </c>
       <c r="P5" t="n">
         <v>1208889</v>
@@ -1766,19 +1766,19 @@
         <v>0.95</v>
       </c>
       <c r="R5" t="n">
-        <v>420156.9803979879</v>
+        <v>502994.2652569041</v>
       </c>
       <c r="S5" t="n">
-        <v>241624.6844911569</v>
+        <v>240968.8191716373</v>
       </c>
       <c r="T5" t="n">
-        <v>0.2587740659909527</v>
+        <v>0.257246478290808</v>
       </c>
       <c r="U5" t="n">
-        <v>146553.044892825</v>
+        <v>142262.9175880326</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.01994858384402076</v>
+        <v>-0.01441900801617613</v>
       </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
@@ -1789,16 +1789,16 @@
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="n">
-        <v>371871.1030461728</v>
+        <v>371188.6693435474</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.6032933817640902</v>
+        <v>0.6054744188061221</v>
       </c>
       <c r="AE5" t="n">
-        <v>240078.7161212096</v>
+        <v>239853.0918652818</v>
       </c>
       <c r="AF5" t="n">
-        <v>-0.179966981924564</v>
+        <v>-0.1756401581444771</v>
       </c>
       <c r="AG5" t="b">
         <v>0</v>
@@ -1859,7 +1859,7 @@
         <v>0.95</v>
       </c>
       <c r="R6" t="n">
-        <v>279183.5201572702</v>
+        <v>196881.0151508701</v>
       </c>
       <c r="S6" t="n">
         <v>128770.1567042093</v>
@@ -5175,7 +5175,7 @@
         <v>44470</v>
       </c>
       <c r="B251" t="n">
-        <v>1211546.308557985</v>
+        <v>1215224.983253838</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
@@ -5188,7 +5188,7 @@
         <v>44501</v>
       </c>
       <c r="B252" t="n">
-        <v>1199095.539001358</v>
+        <v>1200695.330945351</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>44531</v>
       </c>
       <c r="B253" t="n">
-        <v>1235712.517828663</v>
+        <v>1229455.838294964</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
@@ -5214,7 +5214,7 @@
         <v>44562</v>
       </c>
       <c r="B254" t="n">
-        <v>1188163.683969016</v>
+        <v>1187106.959418585</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>44593</v>
       </c>
       <c r="B255" t="n">
-        <v>1162252.777169714</v>
+        <v>1163370.410014224</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
@@ -5240,7 +5240,7 @@
         <v>44621</v>
       </c>
       <c r="B256" t="n">
-        <v>1219271.289998769</v>
+        <v>1235182.779247027</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>44652</v>
       </c>
       <c r="B257" t="n">
-        <v>1196263.451049419</v>
+        <v>1184093.774048613</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>44682</v>
       </c>
       <c r="B258" t="n">
-        <v>1226630.288359855</v>
+        <v>1219820.273421651</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>44713</v>
       </c>
       <c r="B259" t="n">
-        <v>1237199.2751068</v>
+        <v>1229171.569933584</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         <v>44743</v>
       </c>
       <c r="B260" t="n">
-        <v>1264907.997327664</v>
+        <v>1257701.607124263</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>44774</v>
       </c>
       <c r="B261" t="n">
-        <v>1232439.003660823</v>
+        <v>1230606.195732811</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>44805</v>
       </c>
       <c r="B262" t="n">
-        <v>1156682.150694942</v>
+        <v>1148056.833845486</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>44835</v>
       </c>
       <c r="B263" t="n">
-        <v>1200354.908369697</v>
+        <v>1208206.565740119</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
@@ -5344,7 +5344,7 @@
         <v>44866</v>
       </c>
       <c r="B264" t="n">
-        <v>1196497.9329242</v>
+        <v>1191504.189581265</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>44896</v>
       </c>
       <c r="B265" t="n">
-        <v>1223960.076342781</v>
+        <v>1213531.604011212</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>44927</v>
       </c>
       <c r="B266" t="n">
-        <v>1172916.255950015</v>
+        <v>1173123.004089883</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
@@ -5383,7 +5383,7 @@
         <v>44958</v>
       </c>
       <c r="B267" t="n">
-        <v>1136711.22604169</v>
+        <v>1131676.279659655</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>44986</v>
       </c>
       <c r="B268" t="n">
-        <v>1199776.619303842</v>
+        <v>1204416.826496448</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>45017</v>
       </c>
       <c r="B269" t="n">
-        <v>1171809.09485587</v>
+        <v>1169598.730863536</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>45047</v>
       </c>
       <c r="B270" t="n">
-        <v>1197518.182730426</v>
+        <v>1190414.586281943</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         <v>45078</v>
       </c>
       <c r="B271" t="n">
-        <v>1225667.138078246</v>
+        <v>1209345.380814952</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>45108</v>
       </c>
       <c r="B272" t="n">
-        <v>1244590.967439909</v>
+        <v>1241277.172707813</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>45139</v>
       </c>
       <c r="B273" t="n">
-        <v>1202067.670027412</v>
+        <v>1211057.248265326</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>45170</v>
       </c>
       <c r="B274" t="n">
-        <v>1113261.291341181</v>
+        <v>1134608.705696406</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>45200</v>
       </c>
       <c r="B275" t="n">
-        <v>1181471.96674383</v>
+        <v>1192819.465140053</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>45231</v>
       </c>
       <c r="B276" t="n">
-        <v>1158734.631655649</v>
+        <v>1165257.406102471</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>45261</v>
       </c>
       <c r="B277" t="n">
-        <v>1190191.416099313</v>
+        <v>1190673.989344995</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
@@ -5526,7 +5526,7 @@
         <v>45292</v>
       </c>
       <c r="B278" t="n">
-        <v>1151536.953640533</v>
+        <v>1137429.439504247</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>45323</v>
       </c>
       <c r="B279" t="n">
-        <v>1099272.951703289</v>
+        <v>1097957.551176961</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
@@ -5552,7 +5552,7 @@
         <v>45352</v>
       </c>
       <c r="B280" t="n">
-        <v>1188431.64661635</v>
+        <v>1174636.570677281</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>45383</v>
       </c>
       <c r="B281" t="n">
-        <v>1139602.093477151</v>
+        <v>1125871.087535722</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
         <v>45413</v>
       </c>
       <c r="B282" t="n">
-        <v>1165554.65472712</v>
+        <v>1161677.282055685</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>45444</v>
       </c>
       <c r="B283" t="n">
-        <v>1198795.24170575</v>
+        <v>1180507.866429185</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>45474</v>
       </c>
       <c r="B284" t="n">
-        <v>1209210.776452752</v>
+        <v>1217326.261131451</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
         <v>45505</v>
       </c>
       <c r="B285" t="n">
-        <v>1172111.841668228</v>
+        <v>1176901.216686602</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
@@ -5630,7 +5630,7 @@
         <v>45536</v>
       </c>
       <c r="B286" t="n">
-        <v>1093512.522665068</v>
+        <v>1098908.824382021</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>45566</v>
       </c>
       <c r="B287" t="n">
-        <v>1142697.888467156</v>
+        <v>1152488.221760281</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>45597</v>
       </c>
       <c r="B288" t="n">
-        <v>1133793.730275512</v>
+        <v>1141471.383418109</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
@@ -5706,12 +5706,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>lstm_reg</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>lstm</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>lstm_reg</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -5728,16 +5728,16 @@
         <v>1371694</v>
       </c>
       <c r="C2" t="n">
-        <v>1421113.656258581</v>
+        <v>1416161.847186513</v>
       </c>
       <c r="D2" t="n">
         <v>1371378.736704977</v>
       </c>
       <c r="E2" t="n">
-        <v>1451857.458602905</v>
+        <v>1442521.36548233</v>
       </c>
       <c r="F2" t="n">
-        <v>1449429.391670227</v>
+        <v>1444546.094211578</v>
       </c>
       <c r="G2" t="n">
         <v>1449588.792445258</v>
@@ -5751,16 +5751,16 @@
         <v>1248898</v>
       </c>
       <c r="C3" t="n">
-        <v>1340524.751292505</v>
+        <v>1334469.744966368</v>
       </c>
       <c r="D3" t="n">
         <v>1173778.668947036</v>
       </c>
       <c r="E3" t="n">
-        <v>1450937.382667542</v>
+        <v>1448019.208976746</v>
       </c>
       <c r="F3" t="n">
-        <v>1442694.176292419</v>
+        <v>1434313.893032074</v>
       </c>
       <c r="G3" t="n">
         <v>1308031.957226664</v>
@@ -5774,16 +5774,16 @@
         <v>1402365</v>
       </c>
       <c r="C4" t="n">
-        <v>1389726.304871078</v>
+        <v>1383225.662126585</v>
       </c>
       <c r="D4" t="n">
         <v>1289927.832683204</v>
       </c>
       <c r="E4" t="n">
-        <v>1452463.531147003</v>
+        <v>1437463.078315735</v>
       </c>
       <c r="F4" t="n">
-        <v>1451152.803035736</v>
+        <v>1449843.140163422</v>
       </c>
       <c r="G4" t="n">
         <v>1397282.841304404</v>
@@ -5797,16 +5797,16 @@
         <v>1358981</v>
       </c>
       <c r="C5" t="n">
-        <v>1375036.785079895</v>
+        <v>1372906.85404329</v>
       </c>
       <c r="D5" t="n">
         <v>1257436.447689881</v>
       </c>
       <c r="E5" t="n">
-        <v>1446207.62487793</v>
+        <v>1447186.337375641</v>
       </c>
       <c r="F5" t="n">
-        <v>1453662.167068481</v>
+        <v>1452356.474632263</v>
       </c>
       <c r="G5" t="n">
         <v>1353513.18335489</v>
@@ -5820,16 +5820,16 @@
         <v>1397123</v>
       </c>
       <c r="C6" t="n">
-        <v>1400255.91492595</v>
+        <v>1397887.027839406</v>
       </c>
       <c r="D6" t="n">
         <v>1327838.031348249</v>
       </c>
       <c r="E6" t="n">
-        <v>1444845.813716888</v>
+        <v>1440635.456756592</v>
       </c>
       <c r="F6" t="n">
-        <v>1446886.472610474</v>
+        <v>1447307.241996765</v>
       </c>
       <c r="G6" t="n">
         <v>1395941.713699924</v>
@@ -5843,16 +5843,16 @@
         <v>1258130</v>
       </c>
       <c r="C7" t="n">
-        <v>1346142.748769686</v>
+        <v>1344557.657819244</v>
       </c>
       <c r="D7" t="n">
         <v>1196470.766436542</v>
       </c>
       <c r="E7" t="n">
-        <v>1441456.755989075</v>
+        <v>1442808.93157959</v>
       </c>
       <c r="F7" t="n">
-        <v>1442793.437194824</v>
+        <v>1444861.453361511</v>
       </c>
       <c r="G7" t="n">
         <v>1307039.743779592</v>
@@ -5866,16 +5866,16 @@
         <v>1174589</v>
       </c>
       <c r="C8" t="n">
-        <v>1329234.123242222</v>
+        <v>1329372.605695265</v>
       </c>
       <c r="D8" t="n">
         <v>1161817.713258329</v>
       </c>
       <c r="E8" t="n">
-        <v>1445234.625934601</v>
+        <v>1443167.723426819</v>
       </c>
       <c r="F8" t="n">
-        <v>1431885.680839539</v>
+        <v>1444525.370471954</v>
       </c>
       <c r="G8" t="n">
         <v>1250723.767289276</v>
@@ -5889,16 +5889,16 @@
         <v>1304802</v>
       </c>
       <c r="C9" t="n">
-        <v>1416915.001438381</v>
+        <v>1412375.959703969</v>
       </c>
       <c r="D9" t="n">
         <v>1373399.661639773</v>
       </c>
       <c r="E9" t="n">
-        <v>1445056.101570129</v>
+        <v>1430226.23223114</v>
       </c>
       <c r="F9" t="n">
-        <v>1444774.781646729</v>
+        <v>1446989.558689117</v>
       </c>
       <c r="G9" t="n">
         <v>1403870.543171661</v>
@@ -5912,16 +5912,16 @@
         <v>1229416</v>
       </c>
       <c r="C10" t="n">
-        <v>1394351.566256298</v>
+        <v>1390784.632440973</v>
       </c>
       <c r="D10" t="n">
         <v>1316747.181733518</v>
       </c>
       <c r="E10" t="n">
-        <v>1442453.432289124</v>
+        <v>1436061.078594208</v>
       </c>
       <c r="F10" t="n">
-        <v>1447912.588241577</v>
+        <v>1446974.693763733</v>
       </c>
       <c r="G10" t="n">
         <v>1355463.707727072</v>
@@ -5935,16 +5935,16 @@
         <v>1341370</v>
       </c>
       <c r="C11" t="n">
-        <v>1414108.171920324</v>
+        <v>1413998.305666599</v>
       </c>
       <c r="D11" t="n">
         <v>1368727.458233541</v>
       </c>
       <c r="E11" t="n">
-        <v>1441031.483547211</v>
+        <v>1437481.526317596</v>
       </c>
       <c r="F11" t="n">
-        <v>1443401.446537018</v>
+        <v>1449420.627658844</v>
       </c>
       <c r="G11" t="n">
         <v>1419737.83610634</v>
@@ -5958,16 +5958,16 @@
         <v>1389216</v>
       </c>
       <c r="C12" t="n">
-        <v>1438415.475656884</v>
+        <v>1434356.900454609</v>
       </c>
       <c r="D12" t="n">
         <v>1427278.942726544</v>
       </c>
       <c r="E12" t="n">
-        <v>1442435.807426453</v>
+        <v>1433683.61051178</v>
       </c>
       <c r="F12" t="n">
-        <v>1446807.257568359</v>
+        <v>1442398.475643158</v>
       </c>
       <c r="G12" t="n">
         <v>1452015.255045487</v>
@@ -5981,16 +5981,16 @@
         <v>1382725</v>
       </c>
       <c r="C13" t="n">
-        <v>1451533.66790259</v>
+        <v>1456992.652296189</v>
       </c>
       <c r="D13" t="n">
         <v>1478589.211770148</v>
       </c>
       <c r="E13" t="n">
-        <v>1442868.875480652</v>
+        <v>1434602.233848572</v>
       </c>
       <c r="F13" t="n">
-        <v>1422003.362236023</v>
+        <v>1447577.619010925</v>
       </c>
       <c r="G13" t="n">
         <v>1488903.955863715</v>
@@ -6004,16 +6004,16 @@
         <v>1287874</v>
       </c>
       <c r="C14" t="n">
-        <v>1439734.408579481</v>
+        <v>1430410.790610833</v>
       </c>
       <c r="D14" t="n">
         <v>1418384.492288574</v>
       </c>
       <c r="E14" t="n">
-        <v>1452281.13318634</v>
+        <v>1434417.511730194</v>
       </c>
       <c r="F14" t="n">
-        <v>1454241.027599335</v>
+        <v>1441528.70803833</v>
       </c>
       <c r="G14" t="n">
         <v>1437081.550422943</v>
@@ -6027,16 +6027,16 @@
         <v>1206037</v>
       </c>
       <c r="C15" t="n">
-        <v>1319026.383884234</v>
+        <v>1316080.577172277</v>
       </c>
       <c r="D15" t="n">
         <v>1118130.58358919</v>
       </c>
       <c r="E15" t="n">
-        <v>1439945.085075378</v>
+        <v>1442977.529853821</v>
       </c>
       <c r="F15" t="n">
-        <v>1451094.505413055</v>
+        <v>1449701.366542816</v>
       </c>
       <c r="G15" t="n">
         <v>1307770.316379466</v>
@@ -6050,16 +6050,16 @@
         <v>1304495</v>
       </c>
       <c r="C16" t="n">
-        <v>1389435.067496122</v>
+        <v>1389558.338663742</v>
       </c>
       <c r="D16" t="n">
         <v>1312739.866017479</v>
       </c>
       <c r="E16" t="n">
-        <v>1429958.421474457</v>
+        <v>1440363.142944336</v>
       </c>
       <c r="F16" t="n">
-        <v>1445230.800758362</v>
+        <v>1439620.138774872</v>
       </c>
       <c r="G16" t="n">
         <v>1387648.011351209</v>
@@ -6073,16 +6073,16 @@
         <v>1250473</v>
       </c>
       <c r="C17" t="n">
-        <v>1366373.440947924</v>
+        <v>1359770.1071817</v>
       </c>
       <c r="D17" t="n">
         <v>1271384.971402616</v>
       </c>
       <c r="E17" t="n">
-        <v>1433131.623054504</v>
+        <v>1408765.10515213</v>
       </c>
       <c r="F17" t="n">
-        <v>1420051.069755554</v>
+        <v>1427759.913536072</v>
       </c>
       <c r="G17" t="n">
         <v>1353534.916912147</v>
@@ -6096,16 +6096,16 @@
         <v>1306926</v>
       </c>
       <c r="C18" t="n">
-        <v>1372385.993878585</v>
+        <v>1367789.029348925</v>
       </c>
       <c r="D18" t="n">
         <v>1329224.497168158</v>
       </c>
       <c r="E18" t="n">
-        <v>1392966.594665527</v>
+        <v>1383745.256832123</v>
       </c>
       <c r="F18" t="n">
-        <v>1403645.179386139</v>
+        <v>1399822.085205078</v>
       </c>
       <c r="G18" t="n">
         <v>1392187.670630349</v>
@@ -6119,16 +6119,16 @@
         <v>1218332</v>
       </c>
       <c r="C19" t="n">
-        <v>1317571.896894328</v>
+        <v>1317044.931547296</v>
       </c>
       <c r="D19" t="n">
         <v>1221481.293581387</v>
       </c>
       <c r="E19" t="n">
-        <v>1373887.729244232</v>
+        <v>1377911.378868103</v>
       </c>
       <c r="F19" t="n">
-        <v>1381795.869548798</v>
+        <v>1381564.034816742</v>
       </c>
       <c r="G19" t="n">
         <v>1316331.529492785</v>
@@ -6142,16 +6142,16 @@
         <v>1119025</v>
       </c>
       <c r="C20" t="n">
-        <v>1282160.052677065</v>
+        <v>1278783.444259861</v>
       </c>
       <c r="D20" t="n">
         <v>1130809.765994647</v>
       </c>
       <c r="E20" t="n">
-        <v>1377410.329200745</v>
+        <v>1378645.522186279</v>
       </c>
       <c r="F20" t="n">
-        <v>1377994.709606171</v>
+        <v>1373841.778709412</v>
       </c>
       <c r="G20" t="n">
         <v>1269229.126346283</v>
@@ -6165,16 +6165,16 @@
         <v>1326162</v>
       </c>
       <c r="C21" t="n">
-        <v>1378082.11497847</v>
+        <v>1377101.475187847</v>
       </c>
       <c r="D21" t="n">
         <v>1373990.823741633</v>
       </c>
       <c r="E21" t="n">
-        <v>1380276.257762909</v>
+        <v>1378861.814113617</v>
       </c>
       <c r="F21" t="n">
-        <v>1377652.816322327</v>
+        <v>1375719.843402863</v>
       </c>
       <c r="G21" t="n">
         <v>1407541.877186089</v>
@@ -6188,16 +6188,16 @@
         <v>1233070</v>
       </c>
       <c r="C22" t="n">
-        <v>1346781.225080836</v>
+        <v>1349294.852080008</v>
       </c>
       <c r="D22" t="n">
         <v>1311730.370498945</v>
       </c>
       <c r="E22" t="n">
-        <v>1363573.456245422</v>
+        <v>1375772.233791351</v>
       </c>
       <c r="F22" t="n">
-        <v>1372106.601295471</v>
+        <v>1370319.324012756</v>
       </c>
       <c r="G22" t="n">
         <v>1362690.448602514</v>
@@ -6211,16 +6211,16 @@
         <v>1363368</v>
       </c>
       <c r="C23" t="n">
-        <v>1373358.155324673</v>
+        <v>1380592.284978632</v>
       </c>
       <c r="D23" t="n">
         <v>1380849.017945296</v>
       </c>
       <c r="E23" t="n">
-        <v>1361879.968410492</v>
+        <v>1374649.859294891</v>
       </c>
       <c r="F23" t="n">
-        <v>1370087.101921082</v>
+        <v>1381588.147953033</v>
       </c>
       <c r="G23" t="n">
         <v>1420613.97132453</v>
@@ -6234,16 +6234,16 @@
         <v>1401174</v>
       </c>
       <c r="C24" t="n">
-        <v>1394333.132126676</v>
+        <v>1397627.342573105</v>
       </c>
       <c r="D24" t="n">
         <v>1430532.815322546</v>
       </c>
       <c r="E24" t="n">
-        <v>1360266.518756866</v>
+        <v>1373221.034919739</v>
       </c>
       <c r="F24" t="n">
-        <v>1376820.622600555</v>
+        <v>1372748.359344482</v>
       </c>
       <c r="G24" t="n">
         <v>1449325.841185526</v>
@@ -6257,16 +6257,16 @@
         <v>1418008</v>
       </c>
       <c r="C25" t="n">
-        <v>1418514.198071378</v>
+        <v>1417287.648349569</v>
       </c>
       <c r="D25" t="n">
         <v>1485157.46856116</v>
       </c>
       <c r="E25" t="n">
-        <v>1373596.531650543</v>
+        <v>1365827.743968964</v>
       </c>
       <c r="F25" t="n">
-        <v>1372823.555530548</v>
+        <v>1372376.445690155</v>
       </c>
       <c r="G25" t="n">
         <v>1480997.688471583</v>
@@ -6280,16 +6280,16 @@
         <v>1112493</v>
       </c>
       <c r="C26" t="n">
-        <v>1391068.272674053</v>
+        <v>1381846.234309178</v>
       </c>
       <c r="D26" t="n">
         <v>1408371.011521128</v>
       </c>
       <c r="E26" t="n">
-        <v>1374081.893253326</v>
+        <v>1367716.025272369</v>
       </c>
       <c r="F26" t="n">
-        <v>1381403.667934418</v>
+        <v>1354606.662101746</v>
       </c>
       <c r="G26" t="n">
         <v>1434878.710783928</v>
@@ -6303,16 +6303,16 @@
         <v>1023025</v>
       </c>
       <c r="C27" t="n">
-        <v>1287376.462339816</v>
+        <v>1276527.501285183</v>
       </c>
       <c r="D27" t="n">
         <v>1142335.371852797</v>
       </c>
       <c r="E27" t="n">
-        <v>1376547.582489014</v>
+        <v>1362059.84853363</v>
       </c>
       <c r="F27" t="n">
-        <v>1376654.106384277</v>
+        <v>1362129.573265076</v>
       </c>
       <c r="G27" t="n">
         <v>1315985.688522957</v>
@@ -6326,16 +6326,16 @@
         <v>1298780</v>
       </c>
       <c r="C28" t="n">
-        <v>1349968.414638857</v>
+        <v>1345563.793007804</v>
       </c>
       <c r="D28" t="n">
         <v>1311282.825324291</v>
       </c>
       <c r="E28" t="n">
-        <v>1368876.554691315</v>
+        <v>1362078.006015778</v>
       </c>
       <c r="F28" t="n">
-        <v>1374876.077312469</v>
+        <v>1368717.979347229</v>
       </c>
       <c r="G28" t="n">
         <v>1390902.138758804</v>
@@ -6349,16 +6349,16 @@
         <v>1310910</v>
       </c>
       <c r="C29" t="n">
-        <v>1332655.571833233</v>
+        <v>1332584.257793681</v>
       </c>
       <c r="D29" t="n">
         <v>1272572.662684858</v>
       </c>
       <c r="E29" t="n">
-        <v>1367730.40599823</v>
+        <v>1370428.559425354</v>
       </c>
       <c r="F29" t="n">
-        <v>1369736.541465759</v>
+        <v>1370094.316493988</v>
       </c>
       <c r="G29" t="n">
         <v>1360050.564792242</v>
@@ -6372,16 +6372,16 @@
         <v>1371367</v>
       </c>
       <c r="C30" t="n">
-        <v>1352532.49222356</v>
+        <v>1357045.66902951</v>
       </c>
       <c r="D30" t="n">
         <v>1334645.780705447</v>
       </c>
       <c r="E30" t="n">
-        <v>1353936.965740204</v>
+        <v>1364182.095046997</v>
       </c>
       <c r="F30" t="n">
-        <v>1368559.646102905</v>
+        <v>1374800.735866547</v>
       </c>
       <c r="G30" t="n">
         <v>1396500.492503057</v>
@@ -6395,16 +6395,16 @@
         <v>1186117</v>
       </c>
       <c r="C31" t="n">
-        <v>1303503.184160309</v>
+        <v>1306494.222937706</v>
       </c>
       <c r="D31" t="n">
         <v>1218816.134605082</v>
       </c>
       <c r="E31" t="n">
-        <v>1356989.262699127</v>
+        <v>1364553.91186142</v>
       </c>
       <c r="F31" t="n">
-        <v>1353454.02513504</v>
+        <v>1360818.603054047</v>
       </c>
       <c r="G31" t="n">
         <v>1326781.820305881</v>
@@ -6418,16 +6418,16 @@
         <v>1154994</v>
       </c>
       <c r="C32" t="n">
-        <v>1274759.718456581</v>
+        <v>1273073.597778071</v>
       </c>
       <c r="D32" t="n">
         <v>1146874.388202709</v>
       </c>
       <c r="E32" t="n">
-        <v>1351290.089042664</v>
+        <v>1355907.851482391</v>
       </c>
       <c r="F32" t="n">
-        <v>1357447.751228333</v>
+        <v>1354307.03943634</v>
       </c>
       <c r="G32" t="n">
         <v>1283616.91238418</v>
@@ -6441,16 +6441,16 @@
         <v>1374882</v>
       </c>
       <c r="C33" t="n">
-        <v>1361932.030381517</v>
+        <v>1365546.114673462</v>
       </c>
       <c r="D33" t="n">
         <v>1374296.155864564</v>
       </c>
       <c r="E33" t="n">
-        <v>1353702.758430481</v>
+        <v>1359688.529785156</v>
       </c>
       <c r="F33" t="n">
-        <v>1348944.093929291</v>
+        <v>1354266.172996521</v>
       </c>
       <c r="G33" t="n">
         <v>1412133.49724506</v>
@@ -6464,16 +6464,16 @@
         <v>1359171</v>
       </c>
       <c r="C34" t="n">
-        <v>1334241.507448954</v>
+        <v>1336495.707285171</v>
       </c>
       <c r="D34" t="n">
         <v>1306832.615895119</v>
       </c>
       <c r="E34" t="n">
-        <v>1348905.261127472</v>
+        <v>1350391.608406067</v>
       </c>
       <c r="F34" t="n">
-        <v>1349739.343227386</v>
+        <v>1357528.079929352</v>
       </c>
       <c r="G34" t="n">
         <v>1370925.053083114</v>
@@ -6487,16 +6487,16 @@
         <v>1432452</v>
       </c>
       <c r="C35" t="n">
-        <v>1367919.111154744</v>
+        <v>1368522.437899459</v>
       </c>
       <c r="D35" t="n">
         <v>1393071.953705098</v>
       </c>
       <c r="E35" t="n">
-        <v>1348429.2445755</v>
+        <v>1343110.845424652</v>
       </c>
       <c r="F35" t="n">
-        <v>1349413.815887451</v>
+        <v>1355331.702468872</v>
       </c>
       <c r="G35" t="n">
         <v>1424867.307194064</v>
@@ -6510,16 +6510,16 @@
         <v>1511298</v>
       </c>
       <c r="C36" t="n">
-        <v>1381198.029780322</v>
+        <v>1385013.874278572</v>
       </c>
       <c r="D36" t="n">
         <v>1433705.085931618</v>
       </c>
       <c r="E36" t="n">
-        <v>1341783.606109619</v>
+        <v>1349147.07036972</v>
       </c>
       <c r="F36" t="n">
-        <v>1346812.018165588</v>
+        <v>1349135.401161194</v>
       </c>
       <c r="G36" t="n">
         <v>1451707.851097198</v>
@@ -6533,16 +6533,16 @@
         <v>1557029</v>
       </c>
       <c r="C37" t="n">
-        <v>1406250.17702995</v>
+        <v>1407559.361857813</v>
       </c>
       <c r="D37" t="n">
         <v>1491565.613311526</v>
       </c>
       <c r="E37" t="n">
-        <v>1346097.533348083</v>
+        <v>1342355.348907471</v>
       </c>
       <c r="F37" t="n">
-        <v>1350988.093799591</v>
+        <v>1354178.7265625</v>
       </c>
       <c r="G37" t="n">
         <v>1481253.812293578</v>
@@ -6556,16 +6556,16 @@
         <v>1458131</v>
       </c>
       <c r="C38" t="n">
-        <v>1371231.891635451</v>
+        <v>1369392.43790451</v>
       </c>
       <c r="D38" t="n">
         <v>1398550.245062909</v>
       </c>
       <c r="E38" t="n">
-        <v>1350031.65447998</v>
+        <v>1347416.880210876</v>
       </c>
       <c r="F38" t="n">
-        <v>1350523.649616241</v>
+        <v>1344846.942817688</v>
       </c>
       <c r="G38" t="n">
         <v>1438710.709625464</v>
@@ -6579,16 +6579,16 @@
         <v>1270202</v>
       </c>
       <c r="C39" t="n">
-        <v>1281743.906581684</v>
+        <v>1277108.477842678</v>
       </c>
       <c r="D39" t="n">
         <v>1166742.526980172</v>
       </c>
       <c r="E39" t="n">
-        <v>1350505.20161438</v>
+        <v>1347707.738864899</v>
       </c>
       <c r="F39" t="n">
-        <v>1351707.081672668</v>
+        <v>1344910.13085556</v>
       </c>
       <c r="G39" t="n">
         <v>1328730.230762212</v>
@@ -6602,16 +6602,16 @@
         <v>1417738</v>
       </c>
       <c r="C40" t="n">
-        <v>1337736.478350482</v>
+        <v>1332317.128782347</v>
       </c>
       <c r="D40" t="n">
         <v>1309530.064847699</v>
       </c>
       <c r="E40" t="n">
-        <v>1348620.503387451</v>
+        <v>1339059.402748108</v>
       </c>
       <c r="F40" t="n">
-        <v>1355311.0271492</v>
+        <v>1347776.059417725</v>
       </c>
       <c r="G40" t="n">
         <v>1398254.063654049</v>
@@ -6625,16 +6625,16 @@
         <v>1397043</v>
       </c>
       <c r="C41" t="n">
-        <v>1318786.942379473</v>
+        <v>1314914.78137336</v>
       </c>
       <c r="D41" t="n">
         <v>1273773.520920137</v>
       </c>
       <c r="E41" t="n">
-        <v>1333857.114643097</v>
+        <v>1342873.200298309</v>
       </c>
       <c r="F41" t="n">
-        <v>1354344.27437973</v>
+        <v>1334129.912654877</v>
       </c>
       <c r="G41" t="n">
         <v>1369785.291396979</v>
@@ -6648,16 +6648,16 @@
         <v>1404491</v>
       </c>
       <c r="C42" t="n">
-        <v>1339748.484078792</v>
+        <v>1339664.332859068</v>
       </c>
       <c r="D42" t="n">
         <v>1340034.905853413</v>
       </c>
       <c r="E42" t="n">
-        <v>1337175.624500275</v>
+        <v>1333019.497886658</v>
       </c>
       <c r="F42" t="n">
-        <v>1334680.399093628</v>
+        <v>1338322.79001236</v>
       </c>
       <c r="G42" t="n">
         <v>1403642.001148021</v>
@@ -6671,16 +6671,16 @@
         <v>1314022</v>
       </c>
       <c r="C43" t="n">
-        <v>1289365.315962357</v>
+        <v>1292244.518372172</v>
       </c>
       <c r="D43" t="n">
         <v>1216329.433511052</v>
       </c>
       <c r="E43" t="n">
-        <v>1327157.487930298</v>
+        <v>1339460.707313538</v>
       </c>
       <c r="F43" t="n">
-        <v>1337424.890415192</v>
+        <v>1338901.650543213</v>
       </c>
       <c r="G43" t="n">
         <v>1339140.318595059</v>
@@ -6694,16 +6694,16 @@
         <v>1220092</v>
       </c>
       <c r="C44" t="n">
-        <v>1267441.69106481</v>
+        <v>1269247.094666118</v>
       </c>
       <c r="D44" t="n">
         <v>1163066.568077434</v>
       </c>
       <c r="E44" t="n">
-        <v>1328283.300243378</v>
+        <v>1331525.59709549</v>
       </c>
       <c r="F44" t="n">
-        <v>1333752.624385834</v>
+        <v>1342782.025527954</v>
       </c>
       <c r="G44" t="n">
         <v>1299223.751447777</v>
@@ -6717,16 +6717,16 @@
         <v>1492492</v>
       </c>
       <c r="C45" t="n">
-        <v>1354059.33643045</v>
+        <v>1349575.169134987</v>
       </c>
       <c r="D45" t="n">
         <v>1374319.152569304</v>
       </c>
       <c r="E45" t="n">
-        <v>1338496.181861877</v>
+        <v>1325031.416240692</v>
       </c>
       <c r="F45" t="n">
-        <v>1336918.32087326</v>
+        <v>1333703.526554108</v>
       </c>
       <c r="G45" t="n">
         <v>1418326.656699599</v>
@@ -6740,16 +6740,16 @@
         <v>1415841</v>
       </c>
       <c r="C46" t="n">
-        <v>1316171.268118915</v>
+        <v>1323049.79251663</v>
       </c>
       <c r="D46" t="n">
         <v>1302063.573736749</v>
       </c>
       <c r="E46" t="n">
-        <v>1323044.551914215</v>
+        <v>1332729.220272064</v>
       </c>
       <c r="F46" t="n">
-        <v>1319672.247489929</v>
+        <v>1334091.515632629</v>
       </c>
       <c r="G46" t="n">
         <v>1380203.813550549</v>
@@ -6763,16 +6763,16 @@
         <v>1514742</v>
       </c>
       <c r="C47" t="n">
-        <v>1365314.815098395</v>
+        <v>1359059.480250653</v>
       </c>
       <c r="D47" t="n">
         <v>1405389.065136445</v>
       </c>
       <c r="E47" t="n">
-        <v>1334122.455982208</v>
+        <v>1319292.344543457</v>
       </c>
       <c r="F47" t="n">
-        <v>1338921.212203979</v>
+        <v>1329884.887008667</v>
       </c>
       <c r="G47" t="n">
         <v>1430212.316481638</v>
@@ -6786,16 +6786,16 @@
         <v>1519625</v>
       </c>
       <c r="C48" t="n">
-        <v>1368451.964508303</v>
+        <v>1375620.656486327</v>
       </c>
       <c r="D48" t="n">
         <v>1436794.167009013</v>
       </c>
       <c r="E48" t="n">
-        <v>1321534.043079376</v>
+        <v>1329495.009552002</v>
       </c>
       <c r="F48" t="n">
-        <v>1319878.032287598</v>
+        <v>1332182.31690979</v>
       </c>
       <c r="G48" t="n">
         <v>1455110.1775877</v>
@@ -6809,16 +6809,16 @@
         <v>1555592</v>
       </c>
       <c r="C49" t="n">
-        <v>1395925.893212318</v>
+        <v>1403185.581736133</v>
       </c>
       <c r="D49" t="n">
         <v>1497815.444471089</v>
       </c>
       <c r="E49" t="n">
-        <v>1327777.747520447</v>
+        <v>1333295.5884552</v>
       </c>
       <c r="F49" t="n">
-        <v>1326563.714054108</v>
+        <v>1339779.262180328</v>
       </c>
       <c r="G49" t="n">
         <v>1482508.821303661</v>
@@ -6832,16 +6832,16 @@
         <v>1463393</v>
       </c>
       <c r="C50" t="n">
-        <v>1357753.452486125</v>
+        <v>1358949.940296041</v>
       </c>
       <c r="D50" t="n">
         <v>1388934.656967112</v>
       </c>
       <c r="E50" t="n">
-        <v>1340449.006961823</v>
+        <v>1332841.602981567</v>
       </c>
       <c r="F50" t="n">
-        <v>1326241.140331268</v>
+        <v>1335809.261863708</v>
       </c>
       <c r="G50" t="n">
         <v>1443126.497203158</v>
@@ -6855,16 +6855,16 @@
         <v>1261890</v>
       </c>
       <c r="C51" t="n">
-        <v>1283862.732670211</v>
+        <v>1280263.657874432</v>
       </c>
       <c r="D51" t="n">
         <v>1191334.589209257</v>
       </c>
       <c r="E51" t="n">
-        <v>1340691.106723785</v>
+        <v>1331253.186443329</v>
       </c>
       <c r="F51" t="n">
-        <v>1336405.747257233</v>
+        <v>1338699.981441498</v>
       </c>
       <c r="G51" t="n">
         <v>1341272.755533305</v>
@@ -6878,16 +6878,16 @@
         <v>1467633</v>
       </c>
       <c r="C52" t="n">
-        <v>1322375.831340072</v>
+        <v>1321737.076219358</v>
       </c>
       <c r="D52" t="n">
         <v>1307483.752945394</v>
       </c>
       <c r="E52" t="n">
-        <v>1329781.655670166</v>
+        <v>1332355.418239594</v>
       </c>
       <c r="F52" t="n">
-        <v>1324125.963130951</v>
+        <v>1319503.261856079</v>
       </c>
       <c r="G52" t="n">
         <v>1405691.589424837</v>
@@ -6901,16 +6901,16 @@
         <v>1370563</v>
       </c>
       <c r="C53" t="n">
-        <v>1309329.748766034</v>
+        <v>1306762.567339546</v>
       </c>
       <c r="D53" t="n">
         <v>1274992.367952098</v>
       </c>
       <c r="E53" t="n">
-        <v>1321868.673370361</v>
+        <v>1316112.170490265</v>
       </c>
       <c r="F53" t="n">
-        <v>1331856.450630188</v>
+        <v>1330727.878379822</v>
       </c>
       <c r="G53" t="n">
         <v>1379336.581679736</v>
@@ -6924,16 +6924,16 @@
         <v>1504928</v>
       </c>
       <c r="C54" t="n">
-        <v>1331616.873293822</v>
+        <v>1328672.910404112</v>
       </c>
       <c r="D54" t="n">
         <v>1345393.951610486</v>
       </c>
       <c r="E54" t="n">
-        <v>1314651.969985962</v>
+        <v>1315527.838504791</v>
       </c>
       <c r="F54" t="n">
-        <v>1322329.921836853</v>
+        <v>1310010.917549133</v>
       </c>
       <c r="G54" t="n">
         <v>1410711.657479159</v>
@@ -6947,16 +6947,16 @@
         <v>1364156</v>
       </c>
       <c r="C55" t="n">
-        <v>1276171.829238397</v>
+        <v>1275291.000873342</v>
       </c>
       <c r="D55" t="n">
         <v>1214026.686698785</v>
       </c>
       <c r="E55" t="n">
-        <v>1307345.738109589</v>
+        <v>1314312.691379547</v>
       </c>
       <c r="F55" t="n">
-        <v>1314348.473724365</v>
+        <v>1307371.836463928</v>
       </c>
       <c r="G55" t="n">
         <v>1350974.821797265</v>
@@ -6970,16 +6970,16 @@
         <v>1285706</v>
       </c>
       <c r="C56" t="n">
-        <v>1262121.303932686</v>
+        <v>1262310.629082059</v>
       </c>
       <c r="D56" t="n">
         <v>1179373.633520537</v>
       </c>
       <c r="E56" t="n">
-        <v>1314749.778289795</v>
+        <v>1307656.691043854</v>
       </c>
       <c r="F56" t="n">
-        <v>1307233.355400085</v>
+        <v>1319753.302490234</v>
       </c>
       <c r="G56" t="n">
         <v>1314009.610737554</v>
@@ -6993,16 +6993,16 @@
         <v>772175</v>
       </c>
       <c r="C57" t="n">
-        <v>1343821.430019413</v>
+        <v>1347811.690401844</v>
       </c>
       <c r="D57" t="n">
         <v>1390955.581902011</v>
       </c>
       <c r="E57" t="n">
-        <v>1304120.678760529</v>
+        <v>1314278.458473206</v>
       </c>
       <c r="F57" t="n">
-        <v>1315325.588363647</v>
+        <v>1315729.604446411</v>
       </c>
       <c r="G57" t="n">
         <v>1424343.55212118</v>
@@ -7016,16 +7016,16 @@
         <v>77286</v>
       </c>
       <c r="C58" t="n">
-        <v>1318989.850025045</v>
+        <v>1327019.931155702</v>
       </c>
       <c r="D58" t="n">
         <v>1334303.101995763</v>
       </c>
       <c r="E58" t="n">
-        <v>1307660.225700378</v>
+        <v>1315264.385543823</v>
       </c>
       <c r="F58" t="n">
-        <v>1303147.873497009</v>
+        <v>1321997.373603821</v>
       </c>
       <c r="G58" t="n">
         <v>1389037.197272894</v>
@@ -7039,16 +7039,16 @@
         <v>166444</v>
       </c>
       <c r="C59" t="n">
-        <v>1346069.634978609</v>
+        <v>1344161.185806673</v>
       </c>
       <c r="D59" t="n">
         <v>1386283.378495736</v>
       </c>
       <c r="E59" t="n">
-        <v>1314098.384670258</v>
+        <v>1307429.165687561</v>
       </c>
       <c r="F59" t="n">
-        <v>1317498.385307312</v>
+        <v>1315007.566116333</v>
       </c>
       <c r="G59" t="n">
         <v>1435366.337884995</v>
@@ -7062,16 +7062,16 @@
         <v>264643</v>
       </c>
       <c r="C60" t="n">
-        <v>1364276.629600735</v>
+        <v>1368548.709461496</v>
       </c>
       <c r="D60" t="n">
         <v>1444834.862988789</v>
       </c>
       <c r="E60" t="n">
-        <v>1303475.143955231</v>
+        <v>1314344.793807983</v>
       </c>
       <c r="F60" t="n">
-        <v>1313452.414085388</v>
+        <v>1312034.823139191</v>
       </c>
       <c r="G60" t="n">
         <v>1458434.462175169</v>
@@ -7085,16 +7085,16 @@
         <v>428883</v>
       </c>
       <c r="C61" t="n">
-        <v>1388802.868814928</v>
+        <v>1387305.097091707</v>
       </c>
       <c r="D61" t="n">
         <v>1496145.132032323</v>
       </c>
       <c r="E61" t="n">
-        <v>1315840.389297485</v>
+        <v>1309174.02709198</v>
       </c>
       <c r="F61" t="n">
-        <v>1316467.379261017</v>
+        <v>1311375.488647461</v>
       </c>
       <c r="G61" t="n">
         <v>1483818.315368107</v>
@@ -7108,16 +7108,16 @@
         <v>483007</v>
       </c>
       <c r="C62" t="n">
-        <v>1368448.808557638</v>
+        <v>1370662.645711113</v>
       </c>
       <c r="D62" t="n">
         <v>1435940.412550807</v>
       </c>
       <c r="E62" t="n">
-        <v>1323552.719314575</v>
+        <v>1324689.135597229</v>
       </c>
       <c r="F62" t="n">
-        <v>1319798.623565674</v>
+        <v>1321905.133594513</v>
       </c>
       <c r="G62" t="n">
         <v>1447341.949175804</v>
@@ -7131,16 +7131,16 @@
         <v>519640</v>
       </c>
       <c r="C63" t="n">
-        <v>1259374.160956194</v>
+        <v>1250294.781721723</v>
       </c>
       <c r="D63" t="n">
         <v>1135686.503851507</v>
       </c>
       <c r="E63" t="n">
-        <v>1333967.996334076</v>
+        <v>1324125.382091522</v>
       </c>
       <c r="F63" t="n">
-        <v>1329062.570957184</v>
+        <v>1314177.1639328</v>
       </c>
       <c r="G63" t="n">
         <v>1352997.419658903</v>
@@ -7154,16 +7154,16 @@
         <v>649593</v>
       </c>
       <c r="C64" t="n">
-        <v>1326447.027922041</v>
+        <v>1328465.526742165</v>
       </c>
       <c r="D64" t="n">
         <v>1330295.786279677</v>
       </c>
       <c r="E64" t="n">
-        <v>1316300.766204834</v>
+        <v>1326901.782161713</v>
       </c>
       <c r="F64" t="n">
-        <v>1321963.334377289</v>
+        <v>1317384.937358856</v>
       </c>
       <c r="G64" t="n">
         <v>1412671.610996155</v>
@@ -7177,16 +7177,16 @@
         <v>658643</v>
       </c>
       <c r="C65" t="n">
-        <v>1311263.172943317</v>
+        <v>1307123.136469691</v>
       </c>
       <c r="D65" t="n">
         <v>1288940.891664901</v>
       </c>
       <c r="E65" t="n">
-        <v>1319521.855117798</v>
+        <v>1317012.345825195</v>
       </c>
       <c r="F65" t="n">
-        <v>1322206.063598633</v>
+        <v>1311262.960678101</v>
       </c>
       <c r="G65" t="n">
         <v>1388261.101673773</v>
@@ -7200,16 +7200,16 @@
         <v>672566</v>
       </c>
       <c r="C66" t="n">
-        <v>1330568.064375259</v>
+        <v>1331425.080155826</v>
       </c>
       <c r="D66" t="n">
         <v>1346780.417430443</v>
       </c>
       <c r="E66" t="n">
-        <v>1311122.252296448</v>
+        <v>1318603.861240387</v>
       </c>
       <c r="F66" t="n">
-        <v>1319840.555244446</v>
+        <v>1313784.478118896</v>
       </c>
       <c r="G66" t="n">
         <v>1417325.942874076</v>
@@ -7223,16 +7223,16 @@
         <v>600143</v>
       </c>
       <c r="C67" t="n">
-        <v>1285016.060243364</v>
+        <v>1285886.427372306</v>
       </c>
       <c r="D67" t="n">
         <v>1239037.213843595</v>
       </c>
       <c r="E67" t="n">
-        <v>1310424.278682709</v>
+        <v>1314080.178768158</v>
       </c>
       <c r="F67" t="n">
-        <v>1308438.818534851</v>
+        <v>1309919.597518921</v>
       </c>
       <c r="G67" t="n">
         <v>1361993.037345718</v>
@@ -7246,16 +7246,16 @@
         <v>535741</v>
       </c>
       <c r="C68" t="n">
-        <v>1251096.670332358</v>
+        <v>1249558.05070237</v>
       </c>
       <c r="D68" t="n">
         <v>1148365.686256883</v>
       </c>
       <c r="E68" t="n">
-        <v>1316735.286857605</v>
+        <v>1315378.46295166</v>
       </c>
       <c r="F68" t="n">
-        <v>1305404.679058075</v>
+        <v>1306822.463684082</v>
       </c>
       <c r="G68" t="n">
         <v>1327753.365620558</v>
@@ -7269,16 +7269,16 @@
         <v>922854</v>
       </c>
       <c r="C69" t="n">
-        <v>1343745.955636244</v>
+        <v>1349825.099070886</v>
       </c>
       <c r="D69" t="n">
         <v>1391546.744003869</v>
       </c>
       <c r="E69" t="n">
-        <v>1306127.588947296</v>
+        <v>1320826.385475159</v>
       </c>
       <c r="F69" t="n">
-        <v>1311672.690315247</v>
+        <v>1314466.231048584</v>
       </c>
       <c r="G69" t="n">
         <v>1429957.489121509</v>
@@ -7292,16 +7292,16 @@
         <v>1014469</v>
       </c>
       <c r="C70" t="n">
-        <v>1316103.041588176</v>
+        <v>1321432.307705819</v>
       </c>
       <c r="D70" t="n">
         <v>1329286.290761213</v>
       </c>
       <c r="E70" t="n">
-        <v>1304877.531036377</v>
+        <v>1313435.709201813</v>
       </c>
       <c r="F70" t="n">
-        <v>1301563.330554962</v>
+        <v>1310028.784511566</v>
       </c>
       <c r="G70" t="n">
         <v>1397254.037885939</v>
@@ -7315,16 +7315,16 @@
         <v>1124904</v>
       </c>
       <c r="C71" t="n">
-        <v>1350352.639301928</v>
+        <v>1350737.7159926</v>
       </c>
       <c r="D71" t="n">
         <v>1398404.938207567</v>
       </c>
       <c r="E71" t="n">
-        <v>1314018.49174881</v>
+        <v>1313059.873531342</v>
       </c>
       <c r="F71" t="n">
-        <v>1316262.466022491</v>
+        <v>1315355.753993988</v>
       </c>
       <c r="G71" t="n">
         <v>1440169.83769288</v>
@@ -7338,16 +7338,16 @@
         <v>1290654</v>
       </c>
       <c r="C72" t="n">
-        <v>1364542.20481152</v>
+        <v>1370974.708716539</v>
       </c>
       <c r="D72" t="n">
         <v>1448088.735584804</v>
       </c>
       <c r="E72" t="n">
-        <v>1305907.859203339</v>
+        <v>1315157.813228607</v>
       </c>
       <c r="F72" t="n">
-        <v>1307466.110111237</v>
+        <v>1314955.998867035</v>
       </c>
       <c r="G72" t="n">
         <v>1461538.702955248</v>
@@ -7361,16 +7361,16 @@
         <v>1506711</v>
       </c>
       <c r="C73" t="n">
-        <v>1394496.511985237</v>
+        <v>1395065.703510042</v>
       </c>
       <c r="D73" t="n">
         <v>1502713.388823533</v>
       </c>
       <c r="E73" t="n">
-        <v>1332071.386798859</v>
+        <v>1317372.687110901</v>
       </c>
       <c r="F73" t="n">
-        <v>1310990.162666321</v>
+        <v>1321071.729373932</v>
       </c>
       <c r="G73" t="n">
         <v>1485052.530775602</v>
@@ -7384,16 +7384,16 @@
         <v>1327579</v>
       </c>
       <c r="C74" t="n">
-        <v>1364604.341393907</v>
+        <v>1362894.706170366</v>
       </c>
       <c r="D74" t="n">
         <v>1425926.931783305</v>
       </c>
       <c r="E74" t="n">
-        <v>1321828.049030304</v>
+        <v>1322770.83392334</v>
       </c>
       <c r="F74" t="n">
-        <v>1320683.74029541</v>
+        <v>1309602.05947113</v>
       </c>
       <c r="G74" t="n">
         <v>1451264.808305948</v>
@@ -7407,16 +7407,16 @@
         <v>1208889</v>
       </c>
       <c r="C75" t="n">
-        <v>1266899.805340369</v>
+        <v>1264106.269881393</v>
       </c>
       <c r="D75" t="n">
         <v>1159891.29211512</v>
       </c>
       <c r="E75" t="n">
-        <v>1328672.015621185</v>
+        <v>1328077.757545471</v>
       </c>
       <c r="F75" t="n">
-        <v>1328141.913982391</v>
+        <v>1324728.501018524</v>
       </c>
       <c r="G75" t="n">
         <v>1363873.412643671</v>
@@ -7464,12 +7464,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>lstm_reg</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>lstm</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>lstm_reg</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -7486,16 +7486,16 @@
         <v>1371694</v>
       </c>
       <c r="C2" t="n">
-        <v>1421113.656258581</v>
+        <v>1416161.847186513</v>
       </c>
       <c r="D2" t="n">
         <v>1371378.736704977</v>
       </c>
       <c r="E2" t="n">
-        <v>1451857.458602905</v>
+        <v>1442521.36548233</v>
       </c>
       <c r="F2" t="n">
-        <v>1449429.391670227</v>
+        <v>1444546.094211578</v>
       </c>
       <c r="G2" t="n">
         <v>1449588.792445258</v>
@@ -7509,16 +7509,16 @@
         <v>1248898</v>
       </c>
       <c r="C3" t="n">
-        <v>1340524.751292505</v>
+        <v>1334469.744966368</v>
       </c>
       <c r="D3" t="n">
         <v>1173778.668947036</v>
       </c>
       <c r="E3" t="n">
-        <v>1450937.382667542</v>
+        <v>1448019.208976746</v>
       </c>
       <c r="F3" t="n">
-        <v>1442694.176292419</v>
+        <v>1434313.893032074</v>
       </c>
       <c r="G3" t="n">
         <v>1308031.957226664</v>
@@ -7532,16 +7532,16 @@
         <v>1402365</v>
       </c>
       <c r="C4" t="n">
-        <v>1389726.304871078</v>
+        <v>1383225.662126585</v>
       </c>
       <c r="D4" t="n">
         <v>1289927.832683204</v>
       </c>
       <c r="E4" t="n">
-        <v>1452463.531147003</v>
+        <v>1437463.078315735</v>
       </c>
       <c r="F4" t="n">
-        <v>1451152.803035736</v>
+        <v>1449843.140163422</v>
       </c>
       <c r="G4" t="n">
         <v>1397282.841304404</v>
@@ -7555,16 +7555,16 @@
         <v>1358981</v>
       </c>
       <c r="C5" t="n">
-        <v>1375036.785079895</v>
+        <v>1372906.85404329</v>
       </c>
       <c r="D5" t="n">
         <v>1257436.447689881</v>
       </c>
       <c r="E5" t="n">
-        <v>1446207.62487793</v>
+        <v>1447186.337375641</v>
       </c>
       <c r="F5" t="n">
-        <v>1453662.167068481</v>
+        <v>1452356.474632263</v>
       </c>
       <c r="G5" t="n">
         <v>1353513.18335489</v>
@@ -7578,16 +7578,16 @@
         <v>1397123</v>
       </c>
       <c r="C6" t="n">
-        <v>1400255.91492595</v>
+        <v>1397887.027839406</v>
       </c>
       <c r="D6" t="n">
         <v>1327838.031348249</v>
       </c>
       <c r="E6" t="n">
-        <v>1444845.813716888</v>
+        <v>1440635.456756592</v>
       </c>
       <c r="F6" t="n">
-        <v>1446886.472610474</v>
+        <v>1447307.241996765</v>
       </c>
       <c r="G6" t="n">
         <v>1395941.713699924</v>
@@ -7601,16 +7601,16 @@
         <v>1258130</v>
       </c>
       <c r="C7" t="n">
-        <v>1346142.748769686</v>
+        <v>1344557.657819244</v>
       </c>
       <c r="D7" t="n">
         <v>1196470.766436542</v>
       </c>
       <c r="E7" t="n">
-        <v>1441456.755989075</v>
+        <v>1442808.93157959</v>
       </c>
       <c r="F7" t="n">
-        <v>1442793.437194824</v>
+        <v>1444861.453361511</v>
       </c>
       <c r="G7" t="n">
         <v>1307039.743779592</v>
@@ -7624,16 +7624,16 @@
         <v>1174589</v>
       </c>
       <c r="C8" t="n">
-        <v>1329234.123242222</v>
+        <v>1329372.605695265</v>
       </c>
       <c r="D8" t="n">
         <v>1161817.713258329</v>
       </c>
       <c r="E8" t="n">
-        <v>1445234.625934601</v>
+        <v>1443167.723426819</v>
       </c>
       <c r="F8" t="n">
-        <v>1431885.680839539</v>
+        <v>1444525.370471954</v>
       </c>
       <c r="G8" t="n">
         <v>1250723.767289276</v>
@@ -7647,16 +7647,16 @@
         <v>1304802</v>
       </c>
       <c r="C9" t="n">
-        <v>1416915.001438381</v>
+        <v>1412375.959703969</v>
       </c>
       <c r="D9" t="n">
         <v>1373399.661639773</v>
       </c>
       <c r="E9" t="n">
-        <v>1445056.101570129</v>
+        <v>1430226.23223114</v>
       </c>
       <c r="F9" t="n">
-        <v>1444774.781646729</v>
+        <v>1446989.558689117</v>
       </c>
       <c r="G9" t="n">
         <v>1403870.543171661</v>
@@ -7670,16 +7670,16 @@
         <v>1229416</v>
       </c>
       <c r="C10" t="n">
-        <v>1394351.566256298</v>
+        <v>1390784.632440973</v>
       </c>
       <c r="D10" t="n">
         <v>1316747.181733518</v>
       </c>
       <c r="E10" t="n">
-        <v>1442453.432289124</v>
+        <v>1436061.078594208</v>
       </c>
       <c r="F10" t="n">
-        <v>1447912.588241577</v>
+        <v>1446974.693763733</v>
       </c>
       <c r="G10" t="n">
         <v>1355463.707727072</v>
@@ -7693,16 +7693,16 @@
         <v>1341370</v>
       </c>
       <c r="C11" t="n">
-        <v>1414108.171920324</v>
+        <v>1413998.305666599</v>
       </c>
       <c r="D11" t="n">
         <v>1368727.458233541</v>
       </c>
       <c r="E11" t="n">
-        <v>1441031.483547211</v>
+        <v>1437481.526317596</v>
       </c>
       <c r="F11" t="n">
-        <v>1443401.446537018</v>
+        <v>1449420.627658844</v>
       </c>
       <c r="G11" t="n">
         <v>1419737.83610634</v>
@@ -7716,16 +7716,16 @@
         <v>1389216</v>
       </c>
       <c r="C12" t="n">
-        <v>1438415.475656884</v>
+        <v>1434356.900454609</v>
       </c>
       <c r="D12" t="n">
         <v>1427278.942726544</v>
       </c>
       <c r="E12" t="n">
-        <v>1442435.807426453</v>
+        <v>1433683.61051178</v>
       </c>
       <c r="F12" t="n">
-        <v>1446807.257568359</v>
+        <v>1442398.475643158</v>
       </c>
       <c r="G12" t="n">
         <v>1452015.255045487</v>
@@ -7739,16 +7739,16 @@
         <v>1382725</v>
       </c>
       <c r="C13" t="n">
-        <v>1451533.66790259</v>
+        <v>1456992.652296189</v>
       </c>
       <c r="D13" t="n">
         <v>1478589.211770148</v>
       </c>
       <c r="E13" t="n">
-        <v>1442868.875480652</v>
+        <v>1434602.233848572</v>
       </c>
       <c r="F13" t="n">
-        <v>1422003.362236023</v>
+        <v>1447577.619010925</v>
       </c>
       <c r="G13" t="n">
         <v>1488903.955863715</v>
@@ -7762,16 +7762,16 @@
         <v>1287874</v>
       </c>
       <c r="C14" t="n">
-        <v>1439734.408579481</v>
+        <v>1430410.790610833</v>
       </c>
       <c r="D14" t="n">
         <v>1418384.492288574</v>
       </c>
       <c r="E14" t="n">
-        <v>1452281.13318634</v>
+        <v>1434417.511730194</v>
       </c>
       <c r="F14" t="n">
-        <v>1454241.027599335</v>
+        <v>1441528.70803833</v>
       </c>
       <c r="G14" t="n">
         <v>1437081.550422943</v>
@@ -7785,16 +7785,16 @@
         <v>1206037</v>
       </c>
       <c r="C15" t="n">
-        <v>1319026.383884234</v>
+        <v>1316080.577172277</v>
       </c>
       <c r="D15" t="n">
         <v>1118130.58358919</v>
       </c>
       <c r="E15" t="n">
-        <v>1439945.085075378</v>
+        <v>1442977.529853821</v>
       </c>
       <c r="F15" t="n">
-        <v>1451094.505413055</v>
+        <v>1449701.366542816</v>
       </c>
       <c r="G15" t="n">
         <v>1307770.316379466</v>
@@ -7808,16 +7808,16 @@
         <v>1304495</v>
       </c>
       <c r="C16" t="n">
-        <v>1389435.067496122</v>
+        <v>1389558.338663742</v>
       </c>
       <c r="D16" t="n">
         <v>1312739.866017479</v>
       </c>
       <c r="E16" t="n">
-        <v>1429958.421474457</v>
+        <v>1440363.142944336</v>
       </c>
       <c r="F16" t="n">
-        <v>1445230.800758362</v>
+        <v>1439620.138774872</v>
       </c>
       <c r="G16" t="n">
         <v>1387648.011351209</v>
@@ -7831,16 +7831,16 @@
         <v>1250473</v>
       </c>
       <c r="C17" t="n">
-        <v>1366373.440947924</v>
+        <v>1359770.1071817</v>
       </c>
       <c r="D17" t="n">
         <v>1271384.971402616</v>
       </c>
       <c r="E17" t="n">
-        <v>1433131.623054504</v>
+        <v>1408765.10515213</v>
       </c>
       <c r="F17" t="n">
-        <v>1420051.069755554</v>
+        <v>1427759.913536072</v>
       </c>
       <c r="G17" t="n">
         <v>1353534.916912147</v>
@@ -7854,16 +7854,16 @@
         <v>1306926</v>
       </c>
       <c r="C18" t="n">
-        <v>1372385.993878585</v>
+        <v>1367789.029348925</v>
       </c>
       <c r="D18" t="n">
         <v>1329224.497168158</v>
       </c>
       <c r="E18" t="n">
-        <v>1392966.594665527</v>
+        <v>1383745.256832123</v>
       </c>
       <c r="F18" t="n">
-        <v>1403645.179386139</v>
+        <v>1399822.085205078</v>
       </c>
       <c r="G18" t="n">
         <v>1392187.670630349</v>
@@ -7877,16 +7877,16 @@
         <v>1218332</v>
       </c>
       <c r="C19" t="n">
-        <v>1317571.896894328</v>
+        <v>1317044.931547296</v>
       </c>
       <c r="D19" t="n">
         <v>1221481.293581387</v>
       </c>
       <c r="E19" t="n">
-        <v>1373887.729244232</v>
+        <v>1377911.378868103</v>
       </c>
       <c r="F19" t="n">
-        <v>1381795.869548798</v>
+        <v>1381564.034816742</v>
       </c>
       <c r="G19" t="n">
         <v>1316331.529492785</v>
@@ -7900,16 +7900,16 @@
         <v>1119025</v>
       </c>
       <c r="C20" t="n">
-        <v>1282160.052677065</v>
+        <v>1278783.444259861</v>
       </c>
       <c r="D20" t="n">
         <v>1130809.765994647</v>
       </c>
       <c r="E20" t="n">
-        <v>1377410.329200745</v>
+        <v>1378645.522186279</v>
       </c>
       <c r="F20" t="n">
-        <v>1377994.709606171</v>
+        <v>1373841.778709412</v>
       </c>
       <c r="G20" t="n">
         <v>1269229.126346283</v>
@@ -7923,16 +7923,16 @@
         <v>1326162</v>
       </c>
       <c r="C21" t="n">
-        <v>1378082.11497847</v>
+        <v>1377101.475187847</v>
       </c>
       <c r="D21" t="n">
         <v>1373990.823741633</v>
       </c>
       <c r="E21" t="n">
-        <v>1380276.257762909</v>
+        <v>1378861.814113617</v>
       </c>
       <c r="F21" t="n">
-        <v>1377652.816322327</v>
+        <v>1375719.843402863</v>
       </c>
       <c r="G21" t="n">
         <v>1407541.877186089</v>
@@ -7946,16 +7946,16 @@
         <v>1233070</v>
       </c>
       <c r="C22" t="n">
-        <v>1346781.225080836</v>
+        <v>1349294.852080008</v>
       </c>
       <c r="D22" t="n">
         <v>1311730.370498945</v>
       </c>
       <c r="E22" t="n">
-        <v>1363573.456245422</v>
+        <v>1375772.233791351</v>
       </c>
       <c r="F22" t="n">
-        <v>1372106.601295471</v>
+        <v>1370319.324012756</v>
       </c>
       <c r="G22" t="n">
         <v>1362690.448602514</v>
@@ -7969,16 +7969,16 @@
         <v>1363368</v>
       </c>
       <c r="C23" t="n">
-        <v>1373358.155324673</v>
+        <v>1380592.284978632</v>
       </c>
       <c r="D23" t="n">
         <v>1380849.017945296</v>
       </c>
       <c r="E23" t="n">
-        <v>1361879.968410492</v>
+        <v>1374649.859294891</v>
       </c>
       <c r="F23" t="n">
-        <v>1370087.101921082</v>
+        <v>1381588.147953033</v>
       </c>
       <c r="G23" t="n">
         <v>1420613.97132453</v>
@@ -7992,16 +7992,16 @@
         <v>1401174</v>
       </c>
       <c r="C24" t="n">
-        <v>1394333.132126676</v>
+        <v>1397627.342573105</v>
       </c>
       <c r="D24" t="n">
         <v>1430532.815322546</v>
       </c>
       <c r="E24" t="n">
-        <v>1360266.518756866</v>
+        <v>1373221.034919739</v>
       </c>
       <c r="F24" t="n">
-        <v>1376820.622600555</v>
+        <v>1372748.359344482</v>
       </c>
       <c r="G24" t="n">
         <v>1449325.841185526</v>
@@ -8015,16 +8015,16 @@
         <v>1418008</v>
       </c>
       <c r="C25" t="n">
-        <v>1418514.198071378</v>
+        <v>1417287.648349569</v>
       </c>
       <c r="D25" t="n">
         <v>1485157.46856116</v>
       </c>
       <c r="E25" t="n">
-        <v>1373596.531650543</v>
+        <v>1365827.743968964</v>
       </c>
       <c r="F25" t="n">
-        <v>1372823.555530548</v>
+        <v>1372376.445690155</v>
       </c>
       <c r="G25" t="n">
         <v>1480997.688471583</v>
@@ -8038,16 +8038,16 @@
         <v>1112493</v>
       </c>
       <c r="C26" t="n">
-        <v>1391068.272674053</v>
+        <v>1381846.234309178</v>
       </c>
       <c r="D26" t="n">
         <v>1408371.011521128</v>
       </c>
       <c r="E26" t="n">
-        <v>1374081.893253326</v>
+        <v>1367716.025272369</v>
       </c>
       <c r="F26" t="n">
-        <v>1381403.667934418</v>
+        <v>1354606.662101746</v>
       </c>
       <c r="G26" t="n">
         <v>1434878.710783928</v>
@@ -8061,16 +8061,16 @@
         <v>1023025</v>
       </c>
       <c r="C27" t="n">
-        <v>1287376.462339816</v>
+        <v>1276527.501285183</v>
       </c>
       <c r="D27" t="n">
         <v>1142335.371852797</v>
       </c>
       <c r="E27" t="n">
-        <v>1376547.582489014</v>
+        <v>1362059.84853363</v>
       </c>
       <c r="F27" t="n">
-        <v>1376654.106384277</v>
+        <v>1362129.573265076</v>
       </c>
       <c r="G27" t="n">
         <v>1315985.688522957</v>
@@ -8084,16 +8084,16 @@
         <v>1298780</v>
       </c>
       <c r="C28" t="n">
-        <v>1349968.414638857</v>
+        <v>1345563.793007804</v>
       </c>
       <c r="D28" t="n">
         <v>1311282.825324291</v>
       </c>
       <c r="E28" t="n">
-        <v>1368876.554691315</v>
+        <v>1362078.006015778</v>
       </c>
       <c r="F28" t="n">
-        <v>1374876.077312469</v>
+        <v>1368717.979347229</v>
       </c>
       <c r="G28" t="n">
         <v>1390902.138758804</v>
@@ -8107,16 +8107,16 @@
         <v>1310910</v>
       </c>
       <c r="C29" t="n">
-        <v>1332655.571833233</v>
+        <v>1332584.257793681</v>
       </c>
       <c r="D29" t="n">
         <v>1272572.662684858</v>
       </c>
       <c r="E29" t="n">
-        <v>1367730.40599823</v>
+        <v>1370428.559425354</v>
       </c>
       <c r="F29" t="n">
-        <v>1369736.541465759</v>
+        <v>1370094.316493988</v>
       </c>
       <c r="G29" t="n">
         <v>1360050.564792242</v>
@@ -8130,16 +8130,16 @@
         <v>1371367</v>
       </c>
       <c r="C30" t="n">
-        <v>1352532.49222356</v>
+        <v>1357045.66902951</v>
       </c>
       <c r="D30" t="n">
         <v>1334645.780705447</v>
       </c>
       <c r="E30" t="n">
-        <v>1353936.965740204</v>
+        <v>1364182.095046997</v>
       </c>
       <c r="F30" t="n">
-        <v>1368559.646102905</v>
+        <v>1374800.735866547</v>
       </c>
       <c r="G30" t="n">
         <v>1396500.492503057</v>
@@ -8153,16 +8153,16 @@
         <v>1186117</v>
       </c>
       <c r="C31" t="n">
-        <v>1303503.184160309</v>
+        <v>1306494.222937706</v>
       </c>
       <c r="D31" t="n">
         <v>1218816.134605082</v>
       </c>
       <c r="E31" t="n">
-        <v>1356989.262699127</v>
+        <v>1364553.91186142</v>
       </c>
       <c r="F31" t="n">
-        <v>1353454.02513504</v>
+        <v>1360818.603054047</v>
       </c>
       <c r="G31" t="n">
         <v>1326781.820305881</v>
@@ -8176,16 +8176,16 @@
         <v>1154994</v>
       </c>
       <c r="C32" t="n">
-        <v>1274759.718456581</v>
+        <v>1273073.597778071</v>
       </c>
       <c r="D32" t="n">
         <v>1146874.388202709</v>
       </c>
       <c r="E32" t="n">
-        <v>1351290.089042664</v>
+        <v>1355907.851482391</v>
       </c>
       <c r="F32" t="n">
-        <v>1357447.751228333</v>
+        <v>1354307.03943634</v>
       </c>
       <c r="G32" t="n">
         <v>1283616.91238418</v>
@@ -8199,16 +8199,16 @@
         <v>1374882</v>
       </c>
       <c r="C33" t="n">
-        <v>1361932.030381517</v>
+        <v>1365546.114673462</v>
       </c>
       <c r="D33" t="n">
         <v>1374296.155864564</v>
       </c>
       <c r="E33" t="n">
-        <v>1353702.758430481</v>
+        <v>1359688.529785156</v>
       </c>
       <c r="F33" t="n">
-        <v>1348944.093929291</v>
+        <v>1354266.172996521</v>
       </c>
       <c r="G33" t="n">
         <v>1412133.49724506</v>
@@ -8222,16 +8222,16 @@
         <v>1359171</v>
       </c>
       <c r="C34" t="n">
-        <v>1334241.507448954</v>
+        <v>1336495.707285171</v>
       </c>
       <c r="D34" t="n">
         <v>1306832.615895119</v>
       </c>
       <c r="E34" t="n">
-        <v>1348905.261127472</v>
+        <v>1350391.608406067</v>
       </c>
       <c r="F34" t="n">
-        <v>1349739.343227386</v>
+        <v>1357528.079929352</v>
       </c>
       <c r="G34" t="n">
         <v>1370925.053083114</v>
@@ -8245,16 +8245,16 @@
         <v>1432452</v>
       </c>
       <c r="C35" t="n">
-        <v>1367919.111154744</v>
+        <v>1368522.437899459</v>
       </c>
       <c r="D35" t="n">
         <v>1393071.953705098</v>
       </c>
       <c r="E35" t="n">
-        <v>1348429.2445755</v>
+        <v>1343110.845424652</v>
       </c>
       <c r="F35" t="n">
-        <v>1349413.815887451</v>
+        <v>1355331.702468872</v>
       </c>
       <c r="G35" t="n">
         <v>1424867.307194064</v>
@@ -8268,16 +8268,16 @@
         <v>1511298</v>
       </c>
       <c r="C36" t="n">
-        <v>1381198.029780322</v>
+        <v>1385013.874278572</v>
       </c>
       <c r="D36" t="n">
         <v>1433705.085931618</v>
       </c>
       <c r="E36" t="n">
-        <v>1341783.606109619</v>
+        <v>1349147.07036972</v>
       </c>
       <c r="F36" t="n">
-        <v>1346812.018165588</v>
+        <v>1349135.401161194</v>
       </c>
       <c r="G36" t="n">
         <v>1451707.851097198</v>
@@ -8291,16 +8291,16 @@
         <v>1557029</v>
       </c>
       <c r="C37" t="n">
-        <v>1406250.17702995</v>
+        <v>1407559.361857813</v>
       </c>
       <c r="D37" t="n">
         <v>1491565.613311526</v>
       </c>
       <c r="E37" t="n">
-        <v>1346097.533348083</v>
+        <v>1342355.348907471</v>
       </c>
       <c r="F37" t="n">
-        <v>1350988.093799591</v>
+        <v>1354178.7265625</v>
       </c>
       <c r="G37" t="n">
         <v>1481253.812293578</v>
@@ -8314,16 +8314,16 @@
         <v>1458131</v>
       </c>
       <c r="C38" t="n">
-        <v>1371231.891635451</v>
+        <v>1369392.43790451</v>
       </c>
       <c r="D38" t="n">
         <v>1398550.245062909</v>
       </c>
       <c r="E38" t="n">
-        <v>1350031.65447998</v>
+        <v>1347416.880210876</v>
       </c>
       <c r="F38" t="n">
-        <v>1350523.649616241</v>
+        <v>1344846.942817688</v>
       </c>
       <c r="G38" t="n">
         <v>1438710.709625464</v>
@@ -8337,16 +8337,16 @@
         <v>1270202</v>
       </c>
       <c r="C39" t="n">
-        <v>1281743.906581684</v>
+        <v>1277108.477842678</v>
       </c>
       <c r="D39" t="n">
         <v>1166742.526980172</v>
       </c>
       <c r="E39" t="n">
-        <v>1350505.20161438</v>
+        <v>1347707.738864899</v>
       </c>
       <c r="F39" t="n">
-        <v>1351707.081672668</v>
+        <v>1344910.13085556</v>
       </c>
       <c r="G39" t="n">
         <v>1328730.230762212</v>
@@ -8360,16 +8360,16 @@
         <v>1417738</v>
       </c>
       <c r="C40" t="n">
-        <v>1337736.478350482</v>
+        <v>1332317.128782347</v>
       </c>
       <c r="D40" t="n">
         <v>1309530.064847699</v>
       </c>
       <c r="E40" t="n">
-        <v>1348620.503387451</v>
+        <v>1339059.402748108</v>
       </c>
       <c r="F40" t="n">
-        <v>1355311.0271492</v>
+        <v>1347776.059417725</v>
       </c>
       <c r="G40" t="n">
         <v>1398254.063654049</v>
@@ -8383,16 +8383,16 @@
         <v>1397043</v>
       </c>
       <c r="C41" t="n">
-        <v>1318786.942379473</v>
+        <v>1314914.78137336</v>
       </c>
       <c r="D41" t="n">
         <v>1273773.520920137</v>
       </c>
       <c r="E41" t="n">
-        <v>1333857.114643097</v>
+        <v>1342873.200298309</v>
       </c>
       <c r="F41" t="n">
-        <v>1354344.27437973</v>
+        <v>1334129.912654877</v>
       </c>
       <c r="G41" t="n">
         <v>1369785.291396979</v>
@@ -8406,16 +8406,16 @@
         <v>1404491</v>
       </c>
       <c r="C42" t="n">
-        <v>1339748.484078792</v>
+        <v>1339664.332859068</v>
       </c>
       <c r="D42" t="n">
         <v>1340034.905853413</v>
       </c>
       <c r="E42" t="n">
-        <v>1337175.624500275</v>
+        <v>1333019.497886658</v>
       </c>
       <c r="F42" t="n">
-        <v>1334680.399093628</v>
+        <v>1338322.79001236</v>
       </c>
       <c r="G42" t="n">
         <v>1403642.001148021</v>
@@ -8429,16 +8429,16 @@
         <v>1314022</v>
       </c>
       <c r="C43" t="n">
-        <v>1289365.315962357</v>
+        <v>1292244.518372172</v>
       </c>
       <c r="D43" t="n">
         <v>1216329.433511052</v>
       </c>
       <c r="E43" t="n">
-        <v>1327157.487930298</v>
+        <v>1339460.707313538</v>
       </c>
       <c r="F43" t="n">
-        <v>1337424.890415192</v>
+        <v>1338901.650543213</v>
       </c>
       <c r="G43" t="n">
         <v>1339140.318595059</v>
@@ -8452,16 +8452,16 @@
         <v>1220092</v>
       </c>
       <c r="C44" t="n">
-        <v>1267441.69106481</v>
+        <v>1269247.094666118</v>
       </c>
       <c r="D44" t="n">
         <v>1163066.568077434</v>
       </c>
       <c r="E44" t="n">
-        <v>1328283.300243378</v>
+        <v>1331525.59709549</v>
       </c>
       <c r="F44" t="n">
-        <v>1333752.624385834</v>
+        <v>1342782.025527954</v>
       </c>
       <c r="G44" t="n">
         <v>1299223.751447777</v>
@@ -8475,16 +8475,16 @@
         <v>1492492</v>
       </c>
       <c r="C45" t="n">
-        <v>1354059.33643045</v>
+        <v>1349575.169134987</v>
       </c>
       <c r="D45" t="n">
         <v>1374319.152569304</v>
       </c>
       <c r="E45" t="n">
-        <v>1338496.181861877</v>
+        <v>1325031.416240692</v>
       </c>
       <c r="F45" t="n">
-        <v>1336918.32087326</v>
+        <v>1333703.526554108</v>
       </c>
       <c r="G45" t="n">
         <v>1418326.656699599</v>
@@ -8498,16 +8498,16 @@
         <v>1415841</v>
       </c>
       <c r="C46" t="n">
-        <v>1316171.268118915</v>
+        <v>1323049.79251663</v>
       </c>
       <c r="D46" t="n">
         <v>1302063.573736749</v>
       </c>
       <c r="E46" t="n">
-        <v>1323044.551914215</v>
+        <v>1332729.220272064</v>
       </c>
       <c r="F46" t="n">
-        <v>1319672.247489929</v>
+        <v>1334091.515632629</v>
       </c>
       <c r="G46" t="n">
         <v>1380203.813550549</v>
@@ -8521,16 +8521,16 @@
         <v>1514742</v>
       </c>
       <c r="C47" t="n">
-        <v>1365314.815098395</v>
+        <v>1359059.480250653</v>
       </c>
       <c r="D47" t="n">
         <v>1405389.065136445</v>
       </c>
       <c r="E47" t="n">
-        <v>1334122.455982208</v>
+        <v>1319292.344543457</v>
       </c>
       <c r="F47" t="n">
-        <v>1338921.212203979</v>
+        <v>1329884.887008667</v>
       </c>
       <c r="G47" t="n">
         <v>1430212.316481638</v>
@@ -8544,16 +8544,16 @@
         <v>1519625</v>
       </c>
       <c r="C48" t="n">
-        <v>1368451.964508303</v>
+        <v>1375620.656486327</v>
       </c>
       <c r="D48" t="n">
         <v>1436794.167009013</v>
       </c>
       <c r="E48" t="n">
-        <v>1321534.043079376</v>
+        <v>1329495.009552002</v>
       </c>
       <c r="F48" t="n">
-        <v>1319878.032287598</v>
+        <v>1332182.31690979</v>
       </c>
       <c r="G48" t="n">
         <v>1455110.1775877</v>
@@ -8567,16 +8567,16 @@
         <v>1555592</v>
       </c>
       <c r="C49" t="n">
-        <v>1395925.893212318</v>
+        <v>1403185.581736133</v>
       </c>
       <c r="D49" t="n">
         <v>1497815.444471089</v>
       </c>
       <c r="E49" t="n">
-        <v>1327777.747520447</v>
+        <v>1333295.5884552</v>
       </c>
       <c r="F49" t="n">
-        <v>1326563.714054108</v>
+        <v>1339779.262180328</v>
       </c>
       <c r="G49" t="n">
         <v>1482508.821303661</v>
@@ -8590,16 +8590,16 @@
         <v>1463393</v>
       </c>
       <c r="C50" t="n">
-        <v>1357753.452486125</v>
+        <v>1358949.940296041</v>
       </c>
       <c r="D50" t="n">
         <v>1388934.656967112</v>
       </c>
       <c r="E50" t="n">
-        <v>1340449.006961823</v>
+        <v>1332841.602981567</v>
       </c>
       <c r="F50" t="n">
-        <v>1326241.140331268</v>
+        <v>1335809.261863708</v>
       </c>
       <c r="G50" t="n">
         <v>1443126.497203158</v>
@@ -8613,16 +8613,16 @@
         <v>1261890</v>
       </c>
       <c r="C51" t="n">
-        <v>1283862.732670211</v>
+        <v>1280263.657874432</v>
       </c>
       <c r="D51" t="n">
         <v>1191334.589209257</v>
       </c>
       <c r="E51" t="n">
-        <v>1340691.106723785</v>
+        <v>1331253.186443329</v>
       </c>
       <c r="F51" t="n">
-        <v>1336405.747257233</v>
+        <v>1338699.981441498</v>
       </c>
       <c r="G51" t="n">
         <v>1341272.755533305</v>
@@ -8636,16 +8636,16 @@
         <v>1467633</v>
       </c>
       <c r="C52" t="n">
-        <v>1322375.831340072</v>
+        <v>1321737.076219358</v>
       </c>
       <c r="D52" t="n">
         <v>1307483.752945394</v>
       </c>
       <c r="E52" t="n">
-        <v>1329781.655670166</v>
+        <v>1332355.418239594</v>
       </c>
       <c r="F52" t="n">
-        <v>1324125.963130951</v>
+        <v>1319503.261856079</v>
       </c>
       <c r="G52" t="n">
         <v>1405691.589424837</v>
@@ -8659,16 +8659,16 @@
         <v>1370563</v>
       </c>
       <c r="C53" t="n">
-        <v>1309329.748766034</v>
+        <v>1306762.567339546</v>
       </c>
       <c r="D53" t="n">
         <v>1274992.367952098</v>
       </c>
       <c r="E53" t="n">
-        <v>1321868.673370361</v>
+        <v>1316112.170490265</v>
       </c>
       <c r="F53" t="n">
-        <v>1331856.450630188</v>
+        <v>1330727.878379822</v>
       </c>
       <c r="G53" t="n">
         <v>1379336.581679736</v>
@@ -8682,16 +8682,16 @@
         <v>1504928</v>
       </c>
       <c r="C54" t="n">
-        <v>1331616.873293822</v>
+        <v>1328672.910404112</v>
       </c>
       <c r="D54" t="n">
         <v>1345393.951610486</v>
       </c>
       <c r="E54" t="n">
-        <v>1314651.969985962</v>
+        <v>1315527.838504791</v>
       </c>
       <c r="F54" t="n">
-        <v>1322329.921836853</v>
+        <v>1310010.917549133</v>
       </c>
       <c r="G54" t="n">
         <v>1410711.657479159</v>
@@ -8705,16 +8705,16 @@
         <v>1364156</v>
       </c>
       <c r="C55" t="n">
-        <v>1276171.829238397</v>
+        <v>1275291.000873342</v>
       </c>
       <c r="D55" t="n">
         <v>1214026.686698785</v>
       </c>
       <c r="E55" t="n">
-        <v>1307345.738109589</v>
+        <v>1314312.691379547</v>
       </c>
       <c r="F55" t="n">
-        <v>1314348.473724365</v>
+        <v>1307371.836463928</v>
       </c>
       <c r="G55" t="n">
         <v>1350974.821797265</v>
@@ -8728,16 +8728,16 @@
         <v>1285706</v>
       </c>
       <c r="C56" t="n">
-        <v>1262121.303932686</v>
+        <v>1262310.629082059</v>
       </c>
       <c r="D56" t="n">
         <v>1179373.633520537</v>
       </c>
       <c r="E56" t="n">
-        <v>1314749.778289795</v>
+        <v>1307656.691043854</v>
       </c>
       <c r="F56" t="n">
-        <v>1307233.355400085</v>
+        <v>1319753.302490234</v>
       </c>
       <c r="G56" t="n">
         <v>1314009.610737554</v>
@@ -8751,16 +8751,16 @@
         <v>772175</v>
       </c>
       <c r="C57" t="n">
-        <v>1343821.430019413</v>
+        <v>1347811.690401844</v>
       </c>
       <c r="D57" t="n">
         <v>1390955.581902011</v>
       </c>
       <c r="E57" t="n">
-        <v>1304120.678760529</v>
+        <v>1314278.458473206</v>
       </c>
       <c r="F57" t="n">
-        <v>1315325.588363647</v>
+        <v>1315729.604446411</v>
       </c>
       <c r="G57" t="n">
         <v>1424343.55212118</v>
@@ -8774,16 +8774,16 @@
         <v>77286</v>
       </c>
       <c r="C58" t="n">
-        <v>1318989.850025045</v>
+        <v>1327019.931155702</v>
       </c>
       <c r="D58" t="n">
         <v>1334303.101995763</v>
       </c>
       <c r="E58" t="n">
-        <v>1307660.225700378</v>
+        <v>1315264.385543823</v>
       </c>
       <c r="F58" t="n">
-        <v>1303147.873497009</v>
+        <v>1321997.373603821</v>
       </c>
       <c r="G58" t="n">
         <v>1389037.197272894</v>
@@ -8797,16 +8797,16 @@
         <v>166444</v>
       </c>
       <c r="C59" t="n">
-        <v>1346069.634978609</v>
+        <v>1344161.185806673</v>
       </c>
       <c r="D59" t="n">
         <v>1386283.378495736</v>
       </c>
       <c r="E59" t="n">
-        <v>1314098.384670258</v>
+        <v>1307429.165687561</v>
       </c>
       <c r="F59" t="n">
-        <v>1317498.385307312</v>
+        <v>1315007.566116333</v>
       </c>
       <c r="G59" t="n">
         <v>1435366.337884995</v>
@@ -8820,16 +8820,16 @@
         <v>264643</v>
       </c>
       <c r="C60" t="n">
-        <v>1364276.629600735</v>
+        <v>1368548.709461496</v>
       </c>
       <c r="D60" t="n">
         <v>1444834.862988789</v>
       </c>
       <c r="E60" t="n">
-        <v>1303475.143955231</v>
+        <v>1314344.793807983</v>
       </c>
       <c r="F60" t="n">
-        <v>1313452.414085388</v>
+        <v>1312034.823139191</v>
       </c>
       <c r="G60" t="n">
         <v>1458434.462175169</v>
@@ -8843,16 +8843,16 @@
         <v>428883</v>
       </c>
       <c r="C61" t="n">
-        <v>1388802.868814928</v>
+        <v>1387305.097091707</v>
       </c>
       <c r="D61" t="n">
         <v>1496145.132032323</v>
       </c>
       <c r="E61" t="n">
-        <v>1315840.389297485</v>
+        <v>1309174.02709198</v>
       </c>
       <c r="F61" t="n">
-        <v>1316467.379261017</v>
+        <v>1311375.488647461</v>
       </c>
       <c r="G61" t="n">
         <v>1483818.315368107</v>
@@ -8866,16 +8866,16 @@
         <v>483007</v>
       </c>
       <c r="C62" t="n">
-        <v>1368448.808557638</v>
+        <v>1370662.645711113</v>
       </c>
       <c r="D62" t="n">
         <v>1435940.412550807</v>
       </c>
       <c r="E62" t="n">
-        <v>1323552.719314575</v>
+        <v>1324689.135597229</v>
       </c>
       <c r="F62" t="n">
-        <v>1319798.623565674</v>
+        <v>1321905.133594513</v>
       </c>
       <c r="G62" t="n">
         <v>1447341.949175804</v>
@@ -8889,16 +8889,16 @@
         <v>519640</v>
       </c>
       <c r="C63" t="n">
-        <v>1259374.160956194</v>
+        <v>1250294.781721723</v>
       </c>
       <c r="D63" t="n">
         <v>1135686.503851507</v>
       </c>
       <c r="E63" t="n">
-        <v>1333967.996334076</v>
+        <v>1324125.382091522</v>
       </c>
       <c r="F63" t="n">
-        <v>1329062.570957184</v>
+        <v>1314177.1639328</v>
       </c>
       <c r="G63" t="n">
         <v>1352997.419658903</v>
@@ -8912,16 +8912,16 @@
         <v>649593</v>
       </c>
       <c r="C64" t="n">
-        <v>1326447.027922041</v>
+        <v>1328465.526742165</v>
       </c>
       <c r="D64" t="n">
         <v>1330295.786279677</v>
       </c>
       <c r="E64" t="n">
-        <v>1316300.766204834</v>
+        <v>1326901.782161713</v>
       </c>
       <c r="F64" t="n">
-        <v>1321963.334377289</v>
+        <v>1317384.937358856</v>
       </c>
       <c r="G64" t="n">
         <v>1412671.610996155</v>
@@ -8935,16 +8935,16 @@
         <v>658643</v>
       </c>
       <c r="C65" t="n">
-        <v>1311263.172943317</v>
+        <v>1307123.136469691</v>
       </c>
       <c r="D65" t="n">
         <v>1288940.891664901</v>
       </c>
       <c r="E65" t="n">
-        <v>1319521.855117798</v>
+        <v>1317012.345825195</v>
       </c>
       <c r="F65" t="n">
-        <v>1322206.063598633</v>
+        <v>1311262.960678101</v>
       </c>
       <c r="G65" t="n">
         <v>1388261.101673773</v>
@@ -8958,16 +8958,16 @@
         <v>672566</v>
       </c>
       <c r="C66" t="n">
-        <v>1330568.064375259</v>
+        <v>1331425.080155826</v>
       </c>
       <c r="D66" t="n">
         <v>1346780.417430443</v>
       </c>
       <c r="E66" t="n">
-        <v>1311122.252296448</v>
+        <v>1318603.861240387</v>
       </c>
       <c r="F66" t="n">
-        <v>1319840.555244446</v>
+        <v>1313784.478118896</v>
       </c>
       <c r="G66" t="n">
         <v>1417325.942874076</v>
@@ -8981,16 +8981,16 @@
         <v>600143</v>
       </c>
       <c r="C67" t="n">
-        <v>1285016.060243364</v>
+        <v>1285886.427372306</v>
       </c>
       <c r="D67" t="n">
         <v>1239037.213843595</v>
       </c>
       <c r="E67" t="n">
-        <v>1310424.278682709</v>
+        <v>1314080.178768158</v>
       </c>
       <c r="F67" t="n">
-        <v>1308438.818534851</v>
+        <v>1309919.597518921</v>
       </c>
       <c r="G67" t="n">
         <v>1361993.037345718</v>
@@ -9004,16 +9004,16 @@
         <v>535741</v>
       </c>
       <c r="C68" t="n">
-        <v>1251096.670332358</v>
+        <v>1249558.05070237</v>
       </c>
       <c r="D68" t="n">
         <v>1148365.686256883</v>
       </c>
       <c r="E68" t="n">
-        <v>1316735.286857605</v>
+        <v>1315378.46295166</v>
       </c>
       <c r="F68" t="n">
-        <v>1305404.679058075</v>
+        <v>1306822.463684082</v>
       </c>
       <c r="G68" t="n">
         <v>1327753.365620558</v>
@@ -9027,16 +9027,16 @@
         <v>922854</v>
       </c>
       <c r="C69" t="n">
-        <v>1343745.955636244</v>
+        <v>1349825.099070886</v>
       </c>
       <c r="D69" t="n">
         <v>1391546.744003869</v>
       </c>
       <c r="E69" t="n">
-        <v>1306127.588947296</v>
+        <v>1320826.385475159</v>
       </c>
       <c r="F69" t="n">
-        <v>1311672.690315247</v>
+        <v>1314466.231048584</v>
       </c>
       <c r="G69" t="n">
         <v>1429957.489121509</v>
@@ -9050,16 +9050,16 @@
         <v>1014469</v>
       </c>
       <c r="C70" t="n">
-        <v>1316103.041588176</v>
+        <v>1321432.307705819</v>
       </c>
       <c r="D70" t="n">
         <v>1329286.290761213</v>
       </c>
       <c r="E70" t="n">
-        <v>1304877.531036377</v>
+        <v>1313435.709201813</v>
       </c>
       <c r="F70" t="n">
-        <v>1301563.330554962</v>
+        <v>1310028.784511566</v>
       </c>
       <c r="G70" t="n">
         <v>1397254.037885939</v>
@@ -9073,16 +9073,16 @@
         <v>1124904</v>
       </c>
       <c r="C71" t="n">
-        <v>1350352.639301928</v>
+        <v>1350737.7159926</v>
       </c>
       <c r="D71" t="n">
         <v>1398404.938207567</v>
       </c>
       <c r="E71" t="n">
-        <v>1314018.49174881</v>
+        <v>1313059.873531342</v>
       </c>
       <c r="F71" t="n">
-        <v>1316262.466022491</v>
+        <v>1315355.753993988</v>
       </c>
       <c r="G71" t="n">
         <v>1440169.83769288</v>
@@ -9096,16 +9096,16 @@
         <v>1290654</v>
       </c>
       <c r="C72" t="n">
-        <v>1364542.20481152</v>
+        <v>1370974.708716539</v>
       </c>
       <c r="D72" t="n">
         <v>1448088.735584804</v>
       </c>
       <c r="E72" t="n">
-        <v>1305907.859203339</v>
+        <v>1315157.813228607</v>
       </c>
       <c r="F72" t="n">
-        <v>1307466.110111237</v>
+        <v>1314955.998867035</v>
       </c>
       <c r="G72" t="n">
         <v>1461538.702955248</v>
@@ -9119,16 +9119,16 @@
         <v>1506711</v>
       </c>
       <c r="C73" t="n">
-        <v>1394496.511985237</v>
+        <v>1395065.703510042</v>
       </c>
       <c r="D73" t="n">
         <v>1502713.388823533</v>
       </c>
       <c r="E73" t="n">
-        <v>1332071.386798859</v>
+        <v>1317372.687110901</v>
       </c>
       <c r="F73" t="n">
-        <v>1310990.162666321</v>
+        <v>1321071.729373932</v>
       </c>
       <c r="G73" t="n">
         <v>1485052.530775602</v>
@@ -9142,16 +9142,16 @@
         <v>1327579</v>
       </c>
       <c r="C74" t="n">
-        <v>1364604.341393907</v>
+        <v>1362894.706170366</v>
       </c>
       <c r="D74" t="n">
         <v>1425926.931783305</v>
       </c>
       <c r="E74" t="n">
-        <v>1321828.049030304</v>
+        <v>1322770.83392334</v>
       </c>
       <c r="F74" t="n">
-        <v>1320683.74029541</v>
+        <v>1309602.05947113</v>
       </c>
       <c r="G74" t="n">
         <v>1451264.808305948</v>
@@ -9165,16 +9165,16 @@
         <v>1208889</v>
       </c>
       <c r="C75" t="n">
-        <v>1266899.805340369</v>
+        <v>1264106.269881393</v>
       </c>
       <c r="D75" t="n">
         <v>1159891.29211512</v>
       </c>
       <c r="E75" t="n">
-        <v>1328672.015621185</v>
+        <v>1328077.757545471</v>
       </c>
       <c r="F75" t="n">
-        <v>1328141.913982391</v>
+        <v>1324728.501018524</v>
       </c>
       <c r="G75" t="n">
         <v>1363873.412643671</v>
@@ -9217,12 +9217,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>lstm_reg</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>lstm</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>lstm_reg</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -9236,16 +9236,16 @@
         <v>44470</v>
       </c>
       <c r="B2" t="n">
-        <v>1211546.308557985</v>
+        <v>1215224.983253838</v>
       </c>
       <c r="C2" t="n">
         <v>1057111.739627392</v>
       </c>
       <c r="D2" t="n">
-        <v>1310350.665505886</v>
+        <v>1307838.527316809</v>
       </c>
       <c r="E2" t="n">
-        <v>1290658.287760973</v>
+        <v>1314139.93037796</v>
       </c>
       <c r="F2" t="n">
         <v>1347792.900415261</v>
@@ -9256,16 +9256,16 @@
         <v>44501</v>
       </c>
       <c r="B3" t="n">
-        <v>1199095.539001358</v>
+        <v>1200695.330945351</v>
       </c>
       <c r="C3" t="n">
         <v>1019108.227142296</v>
       </c>
       <c r="D3" t="n">
-        <v>1317793.12377429</v>
+        <v>1291034.204710484</v>
       </c>
       <c r="E3" t="n">
-        <v>1294532.884037256</v>
+        <v>1337717.272623539</v>
       </c>
       <c r="F3" t="n">
         <v>1298344.021334112</v>
@@ -9276,16 +9276,16 @@
         <v>44531</v>
       </c>
       <c r="B4" t="n">
-        <v>1235712.517828663</v>
+        <v>1229455.838294964</v>
       </c>
       <c r="C4" t="n">
         <v>1075661.78528517</v>
       </c>
       <c r="D4" t="n">
-        <v>1342441.788036585</v>
+        <v>1339006.786123276</v>
       </c>
       <c r="E4" t="n">
-        <v>1315690.39281702</v>
+        <v>1305540.543426037</v>
       </c>
       <c r="F4" t="n">
         <v>1356420.000567853</v>
@@ -9296,16 +9296,16 @@
         <v>44562</v>
       </c>
       <c r="B5" t="n">
-        <v>1188163.683969016</v>
+        <v>1187106.959418585</v>
       </c>
       <c r="C5" t="n">
         <v>954410.4069234929</v>
       </c>
       <c r="D5" t="n">
-        <v>1312253.372311354</v>
+        <v>1340729.746454716</v>
       </c>
       <c r="E5" t="n">
-        <v>1350363.386727333</v>
+        <v>1331103.905288935</v>
       </c>
       <c r="F5" t="n">
         <v>1246429.385679257</v>
@@ -9316,16 +9316,16 @@
         <v>44593</v>
       </c>
       <c r="B6" t="n">
-        <v>1162252.777169714</v>
+        <v>1163370.410014224</v>
       </c>
       <c r="C6" t="n">
         <v>883969.0031716685</v>
       </c>
       <c r="D6" t="n">
-        <v>1336031.748004913</v>
+        <v>1346133.151179314</v>
       </c>
       <c r="E6" t="n">
-        <v>1332934.76855731</v>
+        <v>1342401.783206224</v>
       </c>
       <c r="F6" t="n">
         <v>1198825.148344165</v>
@@ -9336,16 +9336,16 @@
         <v>44621</v>
       </c>
       <c r="B7" t="n">
-        <v>1219271.289998769</v>
+        <v>1235182.779247027</v>
       </c>
       <c r="C7" t="n">
         <v>1069371.750742973</v>
       </c>
       <c r="D7" t="n">
-        <v>1306881.164014101</v>
+        <v>1334078.301127911</v>
       </c>
       <c r="E7" t="n">
-        <v>1316666.198713541</v>
+        <v>1352935.073390961</v>
       </c>
       <c r="F7" t="n">
         <v>1243938.058940163</v>
@@ -9356,16 +9356,16 @@
         <v>44652</v>
       </c>
       <c r="B8" t="n">
-        <v>1196263.451049419</v>
+        <v>1184093.774048613</v>
       </c>
       <c r="C8" t="n">
         <v>984689.8680264672</v>
       </c>
       <c r="D8" t="n">
-        <v>1333878.368730307</v>
+        <v>1329774.478713036</v>
       </c>
       <c r="E8" t="n">
-        <v>1333570.074624777</v>
+        <v>1308068.830353975</v>
       </c>
       <c r="F8" t="n">
         <v>1109656.530928148</v>
@@ -9376,16 +9376,16 @@
         <v>44682</v>
       </c>
       <c r="B9" t="n">
-        <v>1226630.288359855</v>
+        <v>1219820.273421651</v>
       </c>
       <c r="C9" t="n">
         <v>1069481.52140316</v>
       </c>
       <c r="D9" t="n">
-        <v>1352758.35480547</v>
+        <v>1332802.550757885</v>
       </c>
       <c r="E9" t="n">
-        <v>1303629.395234346</v>
+        <v>1309127.582045555</v>
       </c>
       <c r="F9" t="n">
         <v>1170828.907684048</v>
@@ -9396,16 +9396,16 @@
         <v>44713</v>
       </c>
       <c r="B10" t="n">
-        <v>1237199.2751068</v>
+        <v>1229171.569933584</v>
       </c>
       <c r="C10" t="n">
         <v>1115862.616357288</v>
       </c>
       <c r="D10" t="n">
-        <v>1322907.044003963</v>
+        <v>1291917.981146336</v>
       </c>
       <c r="E10" t="n">
-        <v>1304762.743088961</v>
+        <v>1315839.493388891</v>
       </c>
       <c r="F10" t="n">
         <v>1225790.349169269</v>
@@ -9416,16 +9416,16 @@
         <v>44743</v>
       </c>
       <c r="B11" t="n">
-        <v>1264907.997327664</v>
+        <v>1257701.607124263</v>
       </c>
       <c r="C11" t="n">
         <v>1175289.75699975</v>
       </c>
       <c r="D11" t="n">
-        <v>1315097.568943262</v>
+        <v>1305655.327927828</v>
       </c>
       <c r="E11" t="n">
-        <v>1326363.241137028</v>
+        <v>1316436.446201563</v>
       </c>
       <c r="F11" t="n">
         <v>1270634.899421986</v>
@@ -9436,16 +9436,16 @@
         <v>44774</v>
       </c>
       <c r="B12" t="n">
-        <v>1232439.003660823</v>
+        <v>1230606.195732811</v>
       </c>
       <c r="C12" t="n">
         <v>1075114.972014124</v>
       </c>
       <c r="D12" t="n">
-        <v>1322792.167747974</v>
+        <v>1339965.25047636</v>
       </c>
       <c r="E12" t="n">
-        <v>1341854.744677305</v>
+        <v>1327236.741102695</v>
       </c>
       <c r="F12" t="n">
         <v>1209312.264306093</v>
@@ -9456,16 +9456,16 @@
         <v>44805</v>
       </c>
       <c r="B13" t="n">
-        <v>1156682.150694942</v>
+        <v>1148056.833845486</v>
       </c>
       <c r="C13" t="n">
         <v>871638.2891642457</v>
       </c>
       <c r="D13" t="n">
-        <v>1346901.225571394</v>
+        <v>1318626.802417994</v>
       </c>
       <c r="E13" t="n">
-        <v>1329026.498490334</v>
+        <v>1345002.188933849</v>
       </c>
       <c r="F13" t="n">
         <v>1108396.293617264</v>
@@ -9476,16 +9476,16 @@
         <v>44835</v>
       </c>
       <c r="B14" t="n">
-        <v>1200354.908369697</v>
+        <v>1208206.565740119</v>
       </c>
       <c r="C14" t="n">
         <v>1014560.360414656</v>
       </c>
       <c r="D14" t="n">
-        <v>1285188.452996969</v>
+        <v>1329592.163121462</v>
       </c>
       <c r="E14" t="n">
-        <v>1344147.223316193</v>
+        <v>1337208.587349415</v>
       </c>
       <c r="F14" t="n">
         <v>1237766.473044301</v>
@@ -9496,16 +9496,16 @@
         <v>44866</v>
       </c>
       <c r="B15" t="n">
-        <v>1196497.9329242</v>
+        <v>1191504.189581265</v>
       </c>
       <c r="C15" t="n">
         <v>976368.9218259578</v>
       </c>
       <c r="D15" t="n">
-        <v>1327021.210491419</v>
+        <v>1318430.907205105</v>
       </c>
       <c r="E15" t="n">
-        <v>1341310.091757536</v>
+        <v>1346007.906698942</v>
       </c>
       <c r="F15" t="n">
         <v>1200636.272540732</v>
@@ -9516,16 +9516,16 @@
         <v>44896</v>
       </c>
       <c r="B16" t="n">
-        <v>1223960.076342781</v>
+        <v>1213531.604011212</v>
       </c>
       <c r="C16" t="n">
         <v>1036449.257176335</v>
       </c>
       <c r="D16" t="n">
-        <v>1328933.184470892</v>
+        <v>1334422.929895878</v>
       </c>
       <c r="E16" t="n">
-        <v>1351003.647521496</v>
+        <v>1320026.787972212</v>
       </c>
       <c r="F16" t="n">
         <v>1249796.444702622</v>
@@ -9536,16 +9536,16 @@
         <v>44927</v>
       </c>
       <c r="B17" t="n">
-        <v>1172916.255950015</v>
+        <v>1173123.004089883</v>
       </c>
       <c r="C17" t="n">
         <v>911042.9781594393</v>
       </c>
       <c r="D17" t="n">
-        <v>1337852.793574095</v>
+        <v>1363501.395087004</v>
       </c>
       <c r="E17" t="n">
-        <v>1338300.278798103</v>
+        <v>1327713.128899097</v>
       </c>
       <c r="F17" t="n">
         <v>1153196.502364391</v>
@@ -9556,16 +9556,16 @@
         <v>44958</v>
       </c>
       <c r="B18" t="n">
-        <v>1136711.22604169</v>
+        <v>1131676.279659655</v>
       </c>
       <c r="C18" t="n">
         <v>840986.0842959856</v>
       </c>
       <c r="D18" t="n">
-        <v>1292312.340689659</v>
+        <v>1330388.589560747</v>
       </c>
       <c r="E18" t="n">
-        <v>1355391.975552797</v>
+        <v>1316784.011103868</v>
       </c>
       <c r="F18" t="n">
         <v>1104523.021297441</v>
@@ -9576,16 +9576,16 @@
         <v>44986</v>
       </c>
       <c r="B19" t="n">
-        <v>1199776.619303842</v>
+        <v>1204416.826496448</v>
       </c>
       <c r="C19" t="n">
         <v>1016654.928907793</v>
       </c>
       <c r="D19" t="n">
-        <v>1310975.970365763</v>
+        <v>1334289.42753768</v>
       </c>
       <c r="E19" t="n">
-        <v>1320094.135553598</v>
+        <v>1323047.519681215</v>
       </c>
       <c r="F19" t="n">
         <v>1181481.792384498</v>
@@ -9596,16 +9596,16 @@
         <v>45017</v>
       </c>
       <c r="B20" t="n">
-        <v>1171809.09485587</v>
+        <v>1169598.730863536</v>
       </c>
       <c r="C20" t="n">
         <v>944263.2911370449</v>
       </c>
       <c r="D20" t="n">
-        <v>1320934.787516356</v>
+        <v>1347515.519927502</v>
       </c>
       <c r="E20" t="n">
-        <v>1319161.362375975</v>
+        <v>1297481.313438177</v>
       </c>
       <c r="F20" t="n">
         <v>1071596.372078709</v>
@@ -9616,16 +9616,16 @@
         <v>45047</v>
       </c>
       <c r="B21" t="n">
-        <v>1197518.182730426</v>
+        <v>1190414.586281943</v>
       </c>
       <c r="C21" t="n">
         <v>1032167.643175513</v>
       </c>
       <c r="D21" t="n">
-        <v>1294861.731083155</v>
+        <v>1316691.064101219</v>
       </c>
       <c r="E21" t="n">
-        <v>1314149.839831352</v>
+        <v>1276836.985888243</v>
       </c>
       <c r="F21" t="n">
         <v>1137950.738434617</v>
@@ -9636,16 +9636,16 @@
         <v>45078</v>
       </c>
       <c r="B22" t="n">
-        <v>1225667.138078246</v>
+        <v>1209345.380814952</v>
       </c>
       <c r="C22" t="n">
         <v>1072603.363461965</v>
       </c>
       <c r="D22" t="n">
-        <v>1322975.309127331</v>
+        <v>1314169.658738136</v>
       </c>
       <c r="E22" t="n">
-        <v>1322712.892120838</v>
+        <v>1283778.649743557</v>
       </c>
       <c r="F22" t="n">
         <v>1202866.003668486</v>
@@ -9656,16 +9656,16 @@
         <v>45108</v>
       </c>
       <c r="B23" t="n">
-        <v>1244590.967439909</v>
+        <v>1241277.172707813</v>
       </c>
       <c r="C23" t="n">
         <v>1130994.680279411</v>
       </c>
       <c r="D23" t="n">
-        <v>1292211.135809183</v>
+        <v>1289993.345087528</v>
       </c>
       <c r="E23" t="n">
-        <v>1336450.881181717</v>
+        <v>1334621.02720952</v>
       </c>
       <c r="F23" t="n">
         <v>1270281.903504328</v>
@@ -9676,16 +9676,16 @@
         <v>45139</v>
       </c>
       <c r="B24" t="n">
-        <v>1202067.670027412</v>
+        <v>1211057.248265326</v>
       </c>
       <c r="C24" t="n">
         <v>1027807.104642885</v>
       </c>
       <c r="D24" t="n">
-        <v>1287922.085820198</v>
+        <v>1335668.034363747</v>
       </c>
       <c r="E24" t="n">
-        <v>1334938.129718065</v>
+        <v>1327780.20121789</v>
       </c>
       <c r="F24" t="n">
         <v>1199318.994302101</v>
@@ -9696,16 +9696,16 @@
         <v>45170</v>
       </c>
       <c r="B25" t="n">
-        <v>1113261.291341181</v>
+        <v>1134608.705696406</v>
       </c>
       <c r="C25" t="n">
         <v>827740.0790805862</v>
       </c>
       <c r="D25" t="n">
-        <v>1258041.046658516</v>
+        <v>1324442.550508738</v>
       </c>
       <c r="E25" t="n">
-        <v>1327103.055236101</v>
+        <v>1350819.863862753</v>
       </c>
       <c r="F25" t="n">
         <v>1106443.890426653</v>
@@ -9716,16 +9716,16 @@
         <v>45200</v>
       </c>
       <c r="B26" t="n">
-        <v>1181471.96674383</v>
+        <v>1192819.465140053</v>
       </c>
       <c r="C26" t="n">
         <v>972047.6119460586</v>
       </c>
       <c r="D26" t="n">
-        <v>1314237.006319523</v>
+        <v>1345540.969584942</v>
       </c>
       <c r="E26" t="n">
-        <v>1305699.645205498</v>
+        <v>1324654.594460487</v>
       </c>
       <c r="F26" t="n">
         <v>1228493.051414931</v>
@@ -9736,16 +9736,16 @@
         <v>45231</v>
       </c>
       <c r="B27" t="n">
-        <v>1158734.631655649</v>
+        <v>1165257.406102471</v>
       </c>
       <c r="C27" t="n">
         <v>933696.1773781833</v>
       </c>
       <c r="D27" t="n">
-        <v>1301731.276138783</v>
+        <v>1314020.099395275</v>
       </c>
       <c r="E27" t="n">
-        <v>1293579.190902472</v>
+        <v>1316488.562586069</v>
       </c>
       <c r="F27" t="n">
         <v>1194460.678753387</v>
@@ -9756,16 +9756,16 @@
         <v>45261</v>
       </c>
       <c r="B28" t="n">
-        <v>1190191.416099313</v>
+        <v>1190673.989344995</v>
       </c>
       <c r="C28" t="n">
         <v>997163.0093521329</v>
       </c>
       <c r="D28" t="n">
-        <v>1290673.610712051</v>
+        <v>1317327.379464865</v>
       </c>
       <c r="E28" t="n">
-        <v>1325882.35738492</v>
+        <v>1311516.494346619</v>
       </c>
       <c r="F28" t="n">
         <v>1240468.799917643</v>
@@ -9776,16 +9776,16 @@
         <v>45292</v>
       </c>
       <c r="B29" t="n">
-        <v>1151536.953640533</v>
+        <v>1137429.439504247</v>
       </c>
       <c r="C29" t="n">
         <v>867584.5562597736</v>
       </c>
       <c r="D29" t="n">
-        <v>1344578.376292944</v>
+        <v>1322030.791412354</v>
       </c>
       <c r="E29" t="n">
-        <v>1314351.056787729</v>
+        <v>1304524.273928165</v>
       </c>
       <c r="F29" t="n">
         <v>1149914.524549843</v>
@@ -9796,16 +9796,16 @@
         <v>45323</v>
       </c>
       <c r="B30" t="n">
-        <v>1099272.951703289</v>
+        <v>1097957.551176961</v>
       </c>
       <c r="C30" t="n">
         <v>797923.118819838</v>
       </c>
       <c r="D30" t="n">
-        <v>1290779.770319223</v>
+        <v>1288188.264748812</v>
       </c>
       <c r="E30" t="n">
-        <v>1284840.704586267</v>
+        <v>1300524.157908916</v>
       </c>
       <c r="F30" t="n">
         <v>1103160.166103928</v>
@@ -9816,16 +9816,16 @@
         <v>45352</v>
       </c>
       <c r="B31" t="n">
-        <v>1188431.64661635</v>
+        <v>1174636.570677281</v>
       </c>
       <c r="C31" t="n">
         <v>1001335.013865733</v>
       </c>
       <c r="D31" t="n">
-        <v>1315188.589107752</v>
+        <v>1280894.264772892</v>
       </c>
       <c r="E31" t="n">
-        <v>1297315.697110653</v>
+        <v>1295488.412256002</v>
       </c>
       <c r="F31" t="n">
         <v>1177151.177785314</v>
@@ -9836,16 +9836,16 @@
         <v>45383</v>
       </c>
       <c r="B32" t="n">
-        <v>1139602.093477151</v>
+        <v>1125871.087535722</v>
       </c>
       <c r="C32" t="n">
         <v>892741.818635744</v>
       </c>
       <c r="D32" t="n">
-        <v>1308693.951705456</v>
+        <v>1283594.040297031</v>
       </c>
       <c r="E32" t="n">
-        <v>1287387.801124811</v>
+        <v>1279908.641177177</v>
       </c>
       <c r="F32" t="n">
         <v>1072371.741406494</v>
@@ -9856,16 +9856,16 @@
         <v>45413</v>
       </c>
       <c r="B33" t="n">
-        <v>1165554.65472712</v>
+        <v>1161677.282055685</v>
       </c>
       <c r="C33" t="n">
         <v>970482.3984224815</v>
       </c>
       <c r="D33" t="n">
-        <v>1294944.585124016</v>
+        <v>1295327.383638382</v>
       </c>
       <c r="E33" t="n">
-        <v>1283868.660611868</v>
+        <v>1281265.961029291</v>
       </c>
       <c r="F33" t="n">
         <v>1136214.618807078</v>
@@ -9876,16 +9876,16 @@
         <v>45444</v>
       </c>
       <c r="B34" t="n">
-        <v>1198795.24170575</v>
+        <v>1180507.866429185</v>
       </c>
       <c r="C34" t="n">
         <v>1028405.166160821</v>
       </c>
       <c r="D34" t="n">
-        <v>1309184.469648361</v>
+        <v>1276032.668587923</v>
       </c>
       <c r="E34" t="n">
-        <v>1302025.715360403</v>
+        <v>1282429.679523468</v>
       </c>
       <c r="F34" t="n">
         <v>1197295.508752041</v>
@@ -9896,16 +9896,16 @@
         <v>45474</v>
       </c>
       <c r="B35" t="n">
-        <v>1209210.776452752</v>
+        <v>1217326.261131451</v>
       </c>
       <c r="C35" t="n">
         <v>1089871.107064312</v>
       </c>
       <c r="D35" t="n">
-        <v>1278669.500732183</v>
+        <v>1294546.096641779</v>
       </c>
       <c r="E35" t="n">
-        <v>1283250.329071045</v>
+        <v>1301950.476917982</v>
       </c>
       <c r="F35" t="n">
         <v>1262064.967049131</v>
@@ -9916,16 +9916,16 @@
         <v>45505</v>
       </c>
       <c r="B36" t="n">
-        <v>1172111.841668228</v>
+        <v>1176901.216686602</v>
       </c>
       <c r="C36" t="n">
         <v>996075.9628164764</v>
       </c>
       <c r="D36" t="n">
-        <v>1296591.389471054</v>
+        <v>1297463.146106958</v>
       </c>
       <c r="E36" t="n">
-        <v>1265578.745784521</v>
+        <v>1291060.354656935</v>
       </c>
       <c r="F36" t="n">
         <v>1194284.782417555</v>
@@ -9936,16 +9936,16 @@
         <v>45536</v>
       </c>
       <c r="B37" t="n">
-        <v>1093512.522665068</v>
+        <v>1098908.824382021</v>
       </c>
       <c r="C37" t="n">
         <v>786317.0369747566</v>
       </c>
       <c r="D37" t="n">
-        <v>1289825.893676043</v>
+        <v>1276674.122186661</v>
       </c>
       <c r="E37" t="n">
-        <v>1280505.226973057</v>
+        <v>1331011.23354888</v>
       </c>
       <c r="F37" t="n">
         <v>1106924.579893974</v>
@@ -9956,16 +9956,16 @@
         <v>45566</v>
       </c>
       <c r="B38" t="n">
-        <v>1142697.888467156</v>
+        <v>1152488.221760281</v>
       </c>
       <c r="C38" t="n">
         <v>926119.7779288591</v>
       </c>
       <c r="D38" t="n">
-        <v>1250447.65273428</v>
+        <v>1280374.385486603</v>
       </c>
       <c r="E38" t="n">
-        <v>1297311.751680136</v>
+        <v>1313655.468212128</v>
       </c>
       <c r="F38" t="n">
         <v>1222275.364939007</v>
@@ -9976,16 +9976,16 @@
         <v>45597</v>
       </c>
       <c r="B39" t="n">
-        <v>1133793.730275512</v>
+        <v>1141471.383418109</v>
       </c>
       <c r="C39" t="n">
         <v>888332.8863462904</v>
       </c>
       <c r="D39" t="n">
-        <v>1300401.482546091</v>
+        <v>1303895.207146168</v>
       </c>
       <c r="E39" t="n">
-        <v>1268152.909811497</v>
+        <v>1304899.456844091</v>
       </c>
       <c r="F39" t="n">
         <v>1190668.589798859</v>
